--- a/DataSet/NewUATDeals_DataSet/Deal_PDS_SYND.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_PDS_SYND.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u723453\Desktop\git backup\01-11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9A3AE7-ECF9-4832-A36C-FB96E6A883C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805AE516-508E-482A-8D2C-1D58A55F2277}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="877" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2190,8 +2190,8 @@
   <dimension ref="A1:CF23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="BM1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BP2" sqref="BP2"/>
+      <pane xSplit="2" topLeftCell="BZ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BO3" sqref="BO3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2770,7 +2770,7 @@
         <v>124</v>
       </c>
       <c r="CC2" s="9" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="CD2" s="73" t="s">
         <v>499</v>

--- a/DataSet/NewUATDeals_DataSet/Deal_PDS_SYND.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_PDS_SYND.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="23880" yWindow="-2730" windowWidth="29040" windowHeight="16440" tabRatio="877" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="877" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PTY001_QuickPartyOnboarding" sheetId="1" state="visible" r:id="rId1"/>
@@ -1778,10 +1778,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BE7"/>
+  <dimension ref="A1:BU7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AM10" sqref="AM10"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1797,52 +1797,66 @@
     <col width="17" bestFit="1" customWidth="1" style="27" min="9" max="9"/>
     <col width="23.85546875" bestFit="1" customWidth="1" style="27" min="10" max="10"/>
     <col width="23.5703125" bestFit="1" customWidth="1" style="27" min="11" max="11"/>
-    <col width="35" bestFit="1" customWidth="1" style="27" min="12" max="12"/>
+    <col width="25.7109375" bestFit="1" customWidth="1" style="27" min="12" max="12"/>
     <col width="23" bestFit="1" customWidth="1" style="27" min="13" max="13"/>
-    <col width="35" customWidth="1" style="27" min="14" max="14"/>
-    <col width="22.140625" bestFit="1" customWidth="1" style="27" min="15" max="15"/>
-    <col width="21.140625" bestFit="1" customWidth="1" style="27" min="16" max="16"/>
-    <col width="28.7109375" bestFit="1" customWidth="1" style="27" min="17" max="17"/>
-    <col width="26.7109375" bestFit="1" customWidth="1" style="27" min="18" max="18"/>
-    <col width="31" bestFit="1" customWidth="1" style="27" min="19" max="20"/>
-    <col width="21" bestFit="1" customWidth="1" style="27" min="21" max="21"/>
-    <col width="19.28515625" bestFit="1" customWidth="1" style="27" min="22" max="22"/>
-    <col width="22.28515625" bestFit="1" customWidth="1" style="27" min="23" max="23"/>
-    <col width="19.140625" bestFit="1" customWidth="1" style="27" min="24" max="24"/>
-    <col width="16.28515625" bestFit="1" customWidth="1" style="27" min="25" max="25"/>
-    <col width="18.85546875" bestFit="1" customWidth="1" style="27" min="26" max="26"/>
-    <col width="25" bestFit="1" customWidth="1" style="27" min="27" max="27"/>
-    <col width="24.5703125" bestFit="1" customWidth="1" style="27" min="28" max="28"/>
-    <col width="28.85546875" bestFit="1" customWidth="1" style="27" min="29" max="29"/>
-    <col width="26.7109375" bestFit="1" customWidth="1" style="27" min="30" max="30"/>
-    <col width="36.7109375" bestFit="1" customWidth="1" style="27" min="31" max="31"/>
-    <col width="35.140625" bestFit="1" customWidth="1" style="27" min="32" max="32"/>
-    <col width="47.7109375" bestFit="1" customWidth="1" style="27" min="33" max="33"/>
-    <col width="40.140625" bestFit="1" customWidth="1" style="27" min="34" max="34"/>
-    <col width="40.85546875" bestFit="1" customWidth="1" style="27" min="35" max="35"/>
-    <col width="31.28515625" bestFit="1" customWidth="1" style="27" min="36" max="36"/>
-    <col width="31.5703125" bestFit="1" customWidth="1" style="27" min="37" max="37"/>
-    <col width="40" bestFit="1" customWidth="1" style="27" min="38" max="38"/>
-    <col width="30.7109375" bestFit="1" customWidth="1" style="27" min="39" max="39"/>
-    <col width="38.28515625" bestFit="1" customWidth="1" style="27" min="40" max="40"/>
-    <col width="16.140625" bestFit="1" customWidth="1" style="27" min="41" max="41"/>
-    <col width="34.7109375" bestFit="1" customWidth="1" style="27" min="42" max="42"/>
-    <col width="28.85546875" bestFit="1" customWidth="1" style="27" min="43" max="43"/>
-    <col width="24.7109375" bestFit="1" customWidth="1" style="27" min="44" max="44"/>
-    <col width="13.140625" bestFit="1" customWidth="1" style="27" min="45" max="45"/>
-    <col width="11.5703125" bestFit="1" customWidth="1" style="27" min="46" max="46"/>
-    <col width="35.7109375" bestFit="1" customWidth="1" style="27" min="47" max="47"/>
-    <col width="29.7109375" bestFit="1" customWidth="1" style="27" min="48" max="48"/>
-    <col width="40.85546875" bestFit="1" customWidth="1" style="27" min="49" max="49"/>
-    <col width="30.7109375" bestFit="1" customWidth="1" style="27" min="50" max="50"/>
-    <col width="38.28515625" bestFit="1" customWidth="1" style="27" min="51" max="51"/>
+    <col width="22.140625" bestFit="1" customWidth="1" style="27" min="14" max="14"/>
+    <col width="21.140625" bestFit="1" customWidth="1" style="27" min="15" max="15"/>
+    <col width="28.7109375" bestFit="1" customWidth="1" style="27" min="16" max="16"/>
+    <col width="26.7109375" bestFit="1" customWidth="1" style="27" min="17" max="17"/>
+    <col width="31" bestFit="1" customWidth="1" style="27" min="18" max="19"/>
+    <col width="21" bestFit="1" customWidth="1" style="27" min="20" max="20"/>
+    <col width="19.28515625" bestFit="1" customWidth="1" style="27" min="21" max="21"/>
+    <col width="22.28515625" bestFit="1" customWidth="1" style="27" min="22" max="22"/>
+    <col width="19.140625" bestFit="1" customWidth="1" style="27" min="23" max="23"/>
+    <col width="18.42578125" bestFit="1" customWidth="1" style="27" min="24" max="26"/>
+    <col width="19" bestFit="1" customWidth="1" style="27" min="27" max="27"/>
+    <col width="21.85546875" bestFit="1" customWidth="1" style="27" min="28" max="28"/>
+    <col width="18.85546875" bestFit="1" customWidth="1" style="27" min="29" max="29"/>
+    <col width="25" bestFit="1" customWidth="1" style="27" min="30" max="30"/>
+    <col width="24.5703125" bestFit="1" customWidth="1" style="27" min="31" max="31"/>
+    <col width="28.85546875" bestFit="1" customWidth="1" style="27" min="32" max="32"/>
+    <col width="26.7109375" bestFit="1" customWidth="1" style="27" min="33" max="33"/>
+    <col width="36.7109375" bestFit="1" customWidth="1" style="27" min="34" max="34"/>
+    <col width="35.140625" bestFit="1" customWidth="1" style="27" min="35" max="35"/>
+    <col width="31.85546875" bestFit="1" customWidth="1" style="27" min="36" max="36"/>
+    <col width="40.42578125" bestFit="1" customWidth="1" style="27" min="37" max="37"/>
+    <col width="41.85546875" bestFit="1" customWidth="1" style="27" min="38" max="38"/>
+    <col width="42.28515625" bestFit="1" customWidth="1" style="27" min="39" max="39"/>
+    <col width="44.140625" bestFit="1" customWidth="1" style="27" min="40" max="40"/>
+    <col width="41.140625" bestFit="1" customWidth="1" style="27" min="41" max="41"/>
+    <col width="47.7109375" bestFit="1" customWidth="1" style="27" min="42" max="42"/>
+    <col width="40.140625" bestFit="1" customWidth="1" style="27" min="43" max="43"/>
+    <col width="36.140625" bestFit="1" customWidth="1" style="27" min="44" max="44"/>
+    <col width="40.85546875" bestFit="1" customWidth="1" style="27" min="45" max="45"/>
+    <col width="31.28515625" bestFit="1" customWidth="1" style="27" min="46" max="46"/>
+    <col width="31.5703125" bestFit="1" customWidth="1" style="27" min="47" max="47"/>
+    <col width="42.140625" bestFit="1" customWidth="1" style="27" min="48" max="48"/>
+    <col width="41.85546875" bestFit="1" customWidth="1" style="27" min="49" max="49"/>
+    <col width="40" bestFit="1" customWidth="1" style="27" min="50" max="50"/>
+    <col width="40.42578125" bestFit="1" customWidth="1" style="27" min="51" max="51"/>
     <col width="18.85546875" bestFit="1" customWidth="1" style="27" min="52" max="52"/>
-    <col width="14.28515625" bestFit="1" customWidth="1" style="27" min="53" max="53"/>
-    <col width="24" bestFit="1" customWidth="1" style="27" min="54" max="54"/>
-    <col width="13.140625" bestFit="1" customWidth="1" style="27" min="55" max="55"/>
-    <col width="11.5703125" bestFit="1" customWidth="1" style="27" min="56" max="56"/>
-    <col width="9.140625" customWidth="1" style="27" min="57" max="74"/>
-    <col width="9.140625" customWidth="1" style="27" min="75" max="16384"/>
+    <col width="26.85546875" bestFit="1" customWidth="1" style="27" min="53" max="53"/>
+    <col width="30.7109375" bestFit="1" customWidth="1" style="27" min="54" max="54"/>
+    <col width="38.28515625" bestFit="1" customWidth="1" style="27" min="55" max="55"/>
+    <col width="16.140625" bestFit="1" customWidth="1" style="27" min="56" max="56"/>
+    <col width="34.7109375" bestFit="1" customWidth="1" style="27" min="57" max="57"/>
+    <col width="28.85546875" bestFit="1" customWidth="1" style="27" min="58" max="58"/>
+    <col width="30.85546875" bestFit="1" customWidth="1" style="27" min="59" max="59"/>
+    <col width="24.7109375" bestFit="1" customWidth="1" style="27" min="60" max="60"/>
+    <col width="13.140625" bestFit="1" customWidth="1" style="27" min="61" max="61"/>
+    <col width="11.5703125" bestFit="1" customWidth="1" style="27" min="62" max="62"/>
+    <col width="35.7109375" bestFit="1" customWidth="1" style="27" min="63" max="63"/>
+    <col width="29.7109375" bestFit="1" customWidth="1" style="27" min="64" max="64"/>
+    <col width="40.85546875" bestFit="1" customWidth="1" style="27" min="65" max="65"/>
+    <col width="30.7109375" bestFit="1" customWidth="1" style="27" min="66" max="66"/>
+    <col width="38.28515625" bestFit="1" customWidth="1" style="27" min="67" max="67"/>
+    <col width="18.85546875" bestFit="1" customWidth="1" style="27" min="68" max="68"/>
+    <col width="14.28515625" bestFit="1" customWidth="1" style="27" min="69" max="69"/>
+    <col width="24" bestFit="1" customWidth="1" style="27" min="70" max="70"/>
+    <col width="13.140625" bestFit="1" customWidth="1" style="27" min="71" max="71"/>
+    <col width="11.5703125" bestFit="1" customWidth="1" style="27" min="72" max="72"/>
+    <col width="9.140625" customWidth="1" style="27" min="73" max="92"/>
+    <col width="9.140625" customWidth="1" style="27" min="93" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customFormat="1" customHeight="1" s="21">
@@ -1911,169 +1925,253 @@
           <t>AdminAgent_RIMethod</t>
         </is>
       </c>
-      <c r="N1" s="50" t="n"/>
+      <c r="N1" s="50" t="inlineStr">
+        <is>
+          <t>AdminAgent_Location</t>
+        </is>
+      </c>
       <c r="O1" s="50" t="inlineStr">
         <is>
-          <t>AdminAgent_Location</t>
+          <t>AdminAgent_SGAlias</t>
         </is>
       </c>
       <c r="P1" s="50" t="inlineStr">
         <is>
-          <t>AdminAgent_SGAlias</t>
+          <t>AdminAgent_ServicingGroup</t>
         </is>
       </c>
       <c r="Q1" s="50" t="inlineStr">
         <is>
-          <t>AdminAgent_ServicingGroup</t>
+          <t>AdminAgent_ContactName</t>
         </is>
       </c>
       <c r="R1" s="50" t="inlineStr">
         <is>
-          <t>AdminAgent_ContactName</t>
+          <t>AdminAgent_PreferredRIMthd1</t>
         </is>
       </c>
       <c r="S1" s="50" t="inlineStr">
         <is>
-          <t>AdminAgent_PreferredRIMthd1</t>
+          <t>AdminAgent_PreferredRIMthd2</t>
         </is>
       </c>
       <c r="T1" s="50" t="inlineStr">
         <is>
-          <t>AdminAgent_PreferredRIMthd2</t>
+          <t>Deal_AgreementDate</t>
         </is>
       </c>
       <c r="U1" s="50" t="inlineStr">
         <is>
-          <t>Deal_AgreementDate</t>
+          <t>Deal_ProposedCmt</t>
         </is>
       </c>
       <c r="V1" s="50" t="inlineStr">
         <is>
-          <t>Deal_ProposedCmt</t>
+          <t>Deal_DepartmentCode</t>
         </is>
       </c>
       <c r="W1" s="50" t="inlineStr">
         <is>
-          <t>Deal_DepartmentCode</t>
+          <t>Deal_ExpenseCode</t>
         </is>
       </c>
       <c r="X1" s="50" t="inlineStr">
         <is>
-          <t>Deal_ExpenseCode</t>
+          <t>HolidayCalendar_1</t>
         </is>
       </c>
       <c r="Y1" s="50" t="inlineStr">
         <is>
-          <t>HolidayCalendar</t>
+          <t>HolidayCalendar_2</t>
         </is>
       </c>
       <c r="Z1" s="50" t="inlineStr">
         <is>
+          <t>HolidayCalendar_3</t>
+        </is>
+      </c>
+      <c r="AA1" s="50" t="inlineStr">
+        <is>
+          <t>HolidayCalendar_4</t>
+        </is>
+      </c>
+      <c r="AB1" s="50" t="inlineStr">
+        <is>
+          <t>HolidayCalendar_5</t>
+        </is>
+      </c>
+      <c r="AC1" s="50" t="inlineStr">
+        <is>
           <t>Deal_PricingOption</t>
         </is>
       </c>
-      <c r="AA1" s="50" t="inlineStr">
+      <c r="AD1" s="50" t="inlineStr">
         <is>
           <t>InitialFractionRate_Round</t>
         </is>
       </c>
-      <c r="AB1" s="50" t="inlineStr">
+      <c r="AE1" s="50" t="inlineStr">
         <is>
           <t>RoundingDecimal_Round</t>
         </is>
       </c>
-      <c r="AC1" s="50" t="inlineStr">
+      <c r="AF1" s="50" t="inlineStr">
         <is>
           <t>NonBusinessDayRule</t>
         </is>
       </c>
-      <c r="AD1" s="50" t="inlineStr">
+      <c r="AG1" s="50" t="inlineStr">
         <is>
           <t>PricingOption_BillNoOfDays</t>
         </is>
       </c>
-      <c r="AE1" s="50" t="inlineStr">
+      <c r="AH1" s="50" t="inlineStr">
         <is>
           <t>PricingOption_MatrixChangeAppMthd</t>
         </is>
       </c>
-      <c r="AF1" s="50" t="inlineStr">
+      <c r="AI1" s="50" t="inlineStr">
         <is>
           <t>PricingOption_RateChangeAppMthd</t>
         </is>
       </c>
-      <c r="AG1" s="50" t="inlineStr">
+      <c r="AJ1" s="50" t="inlineStr">
+        <is>
+          <t>PricingOption_InitialFractionRate</t>
+        </is>
+      </c>
+      <c r="AK1" s="50" t="inlineStr">
+        <is>
+          <t>PricingOption_RoundingDecimalPrecision</t>
+        </is>
+      </c>
+      <c r="AL1" s="50" t="inlineStr">
+        <is>
+          <t>PricingOption_RoundingApplicationMethod</t>
+        </is>
+      </c>
+      <c r="AM1" s="50" t="inlineStr">
+        <is>
+          <t>PricingOption_PercentOfRateFormulaUsage</t>
+        </is>
+      </c>
+      <c r="AN1" s="50" t="inlineStr">
+        <is>
+          <t>PricingOption_RepricingNonBusinessDayRule</t>
+        </is>
+      </c>
+      <c r="AO1" s="50" t="inlineStr">
+        <is>
+          <t>PricingOption_FeeOnLenderShareFunding</t>
+        </is>
+      </c>
+      <c r="AP1" s="50" t="inlineStr">
         <is>
           <t>PricingOption_InterestDueUponPrincipalPayment</t>
         </is>
       </c>
-      <c r="AH1" s="50" t="inlineStr">
+      <c r="AQ1" s="50" t="inlineStr">
         <is>
           <t>PricingOption_InterestDueUponRepricing</t>
         </is>
       </c>
-      <c r="AI1" s="50" t="inlineStr">
+      <c r="AR1" s="50" t="inlineStr">
+        <is>
+          <t>PricingOption_ReferenceBanksApply</t>
+        </is>
+      </c>
+      <c r="AS1" s="50" t="inlineStr">
         <is>
           <t>PricingOption_IntentNoticeDaysInAdvance</t>
         </is>
       </c>
-      <c r="AJ1" s="50" t="inlineStr">
+      <c r="AT1" s="50" t="inlineStr">
         <is>
           <t>PricingOption_IntentNoticeTime</t>
         </is>
       </c>
-      <c r="AK1" s="50" t="inlineStr">
+      <c r="AU1" s="50" t="inlineStr">
         <is>
           <t>PricingOption_12HrPeriodOption</t>
         </is>
       </c>
-      <c r="AL1" s="50" t="inlineStr">
+      <c r="AV1" s="50" t="inlineStr">
+        <is>
+          <t>PricingOption_MaximumDrawdownAmount</t>
+        </is>
+      </c>
+      <c r="AW1" s="50" t="inlineStr">
+        <is>
+          <t>PricingOption_MinimumDrawdownAmount</t>
+        </is>
+      </c>
+      <c r="AX1" s="50" t="inlineStr">
         <is>
           <t>PricingOption_MinimumPaymentAmount</t>
         </is>
       </c>
-      <c r="AM1" s="50" t="inlineStr">
+      <c r="AY1" s="50" t="inlineStr">
+        <is>
+          <t>PricingOption_MinimumAmountMultiples</t>
+        </is>
+      </c>
+      <c r="AZ1" s="50" t="inlineStr">
+        <is>
+          <t>PricingOption_CCY</t>
+        </is>
+      </c>
+      <c r="BA1" s="50" t="inlineStr">
+        <is>
+          <t>PricingOption_BillBorrower</t>
+        </is>
+      </c>
+      <c r="BB1" s="50" t="inlineStr">
         <is>
           <t>PricingOption_RateSettingTime</t>
         </is>
       </c>
-      <c r="AN1" s="50" t="inlineStr">
+      <c r="BC1" s="50" t="inlineStr">
         <is>
           <t>PricingOption_RateSettingPeriodOption</t>
         </is>
       </c>
-      <c r="AO1" s="50" t="inlineStr">
+      <c r="BD1" s="50" t="inlineStr">
         <is>
           <t>PricingRule_Fee</t>
         </is>
       </c>
-      <c r="AP1" s="50" t="inlineStr">
+      <c r="BE1" s="50" t="inlineStr">
         <is>
           <t>PricingRule_MatrixChangeAppMthd</t>
         </is>
       </c>
-      <c r="AQ1" s="50" t="inlineStr">
+      <c r="BF1" s="50" t="inlineStr">
         <is>
           <t>PricingRule_NonBussDayRule</t>
         </is>
       </c>
-      <c r="AR1" s="50" t="inlineStr">
+      <c r="BG1" s="50" t="inlineStr">
+        <is>
+          <t>PricingRule_BillBorrowerStatus</t>
+        </is>
+      </c>
+      <c r="BH1" s="50" t="inlineStr">
         <is>
           <t>PricingRule_BillNoOfDays</t>
         </is>
       </c>
-      <c r="AS1" s="76" t="inlineStr">
+      <c r="BI1" s="76" t="inlineStr">
         <is>
           <t>ApproveDate</t>
         </is>
       </c>
-      <c r="AT1" s="76" t="inlineStr">
+      <c r="BJ1" s="76" t="inlineStr">
         <is>
           <t>CloseDate</t>
         </is>
       </c>
-      <c r="BD1" s="4" t="n"/>
-      <c r="BE1" s="4" t="n"/>
+      <c r="BT1" s="4" t="n"/>
+      <c r="BU1" s="4" t="n"/>
     </row>
     <row r="2" customFormat="1" s="23">
       <c r="A2" s="52" t="inlineStr">
@@ -2098,12 +2196,12 @@
       </c>
       <c r="E2" s="53" t="inlineStr">
         <is>
-          <t>PDS FINCO SYND DEAL AUD1.1B 28FEB181950</t>
+          <t>PDS FINCO SYND DEAL AUD1.1B 28FEB182501</t>
         </is>
       </c>
       <c r="F2" s="53" t="inlineStr">
         <is>
-          <t>PDS FINCO SYND_1952</t>
+          <t>PDS FINCO SYND_2503</t>
         </is>
       </c>
       <c r="G2" s="53" t="inlineStr">
@@ -2141,15 +2239,19 @@
           <t>None</t>
         </is>
       </c>
-      <c r="N2" s="54" t="n"/>
+      <c r="N2" s="53" t="inlineStr">
+        <is>
+          <t>Sydney, NSW,Australia</t>
+        </is>
+      </c>
       <c r="O2" s="53" t="inlineStr">
         <is>
-          <t>Sydney, NSW,Australia</t>
+          <t>LOANS ADMIN</t>
         </is>
       </c>
       <c r="P2" s="53" t="inlineStr">
         <is>
-          <t>LOANS ADMIN</t>
+          <t>AGENCY</t>
         </is>
       </c>
       <c r="Q2" s="53" t="inlineStr">
@@ -2157,162 +2259,242 @@
           <t>AGENCY</t>
         </is>
       </c>
-      <c r="R2" s="53" t="inlineStr">
-        <is>
-          <t>AGENCY</t>
+      <c r="R2" s="54" t="inlineStr">
+        <is>
+          <t>DDA</t>
         </is>
       </c>
       <c r="S2" s="54" t="inlineStr">
         <is>
-          <t>DDA</t>
-        </is>
-      </c>
-      <c r="T2" s="54" t="inlineStr">
-        <is>
           <t>RTGS</t>
         </is>
       </c>
+      <c r="T2" s="55" t="inlineStr">
+        <is>
+          <t>28-Feb-2018</t>
+        </is>
+      </c>
       <c r="U2" s="55" t="inlineStr">
         <is>
-          <t>28-Feb-2018</t>
-        </is>
-      </c>
-      <c r="V2" s="55" t="inlineStr">
-        <is>
           <t>0.00</t>
         </is>
       </c>
+      <c r="V2" s="53" t="inlineStr">
+        <is>
+          <t>GLB</t>
+        </is>
+      </c>
       <c r="W2" s="53" t="inlineStr">
         <is>
-          <t>GLB</t>
+          <t>RE_PRF</t>
         </is>
       </c>
       <c r="X2" s="53" t="inlineStr">
         <is>
-          <t>RE_PRF</t>
+          <t>Sydney, Australia</t>
         </is>
       </c>
       <c r="Y2" s="53" t="inlineStr">
         <is>
-          <t>Sydney, Australia</t>
+          <t>Melbourne, Australia</t>
         </is>
       </c>
       <c r="Z2" s="53" t="inlineStr">
         <is>
+          <t>Tokyo, Japan</t>
+        </is>
+      </c>
+      <c r="AA2" s="53" t="inlineStr">
+        <is>
+          <t>Singapore, Singapore</t>
+        </is>
+      </c>
+      <c r="AB2" s="53" t="inlineStr">
+        <is>
+          <t>New York, United States</t>
+        </is>
+      </c>
+      <c r="AC2" s="53" t="inlineStr">
+        <is>
           <t>BBSY - Bid</t>
         </is>
       </c>
-      <c r="AA2" s="53" t="inlineStr">
+      <c r="AD2" s="53" t="inlineStr">
         <is>
           <t>Actual</t>
         </is>
       </c>
-      <c r="AB2" s="53" t="inlineStr">
+      <c r="AE2" s="53" t="inlineStr">
         <is>
           <t>Actual</t>
         </is>
       </c>
-      <c r="AC2" s="52" t="inlineStr">
+      <c r="AF2" s="52" t="inlineStr">
         <is>
           <t>Modified Following Business Day</t>
         </is>
       </c>
-      <c r="AD2" s="52" t="inlineStr">
+      <c r="AG2" s="52" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AE2" s="52" t="inlineStr">
+      <c r="AH2" s="52" t="inlineStr">
         <is>
           <t>Next repricing date</t>
         </is>
       </c>
-      <c r="AF2" s="52" t="inlineStr">
+      <c r="AI2" s="52" t="inlineStr">
         <is>
           <t>Start of next interest cycle</t>
         </is>
       </c>
-      <c r="AG2" s="52" t="inlineStr">
+      <c r="AJ2" s="57" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AK2" s="57" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AL2" s="57" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AM2" s="57" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AN2" s="57" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AO2" s="57" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AP2" s="52" t="inlineStr">
         <is>
           <t>ON</t>
         </is>
       </c>
-      <c r="AH2" s="52" t="inlineStr">
+      <c r="AQ2" s="52" t="inlineStr">
         <is>
           <t>ON</t>
         </is>
       </c>
-      <c r="AI2" s="57" t="inlineStr">
+      <c r="AR2" s="57" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AS2" s="57" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AJ2" s="57" t="inlineStr">
+      <c r="AT2" s="57" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AK2" s="57" t="inlineStr">
+      <c r="AU2" s="57" t="inlineStr">
         <is>
           <t>PM</t>
         </is>
       </c>
-      <c r="AL2" s="57" t="inlineStr">
+      <c r="AV2" s="57" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AW2" s="57" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AX2" s="57" t="inlineStr">
         <is>
           <t>1,000,000.00</t>
         </is>
       </c>
-      <c r="AM2" s="57" t="inlineStr">
+      <c r="AY2" s="57" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AZ2" s="57" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="BA2" s="57" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="BB2" s="57" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AN2" s="57" t="inlineStr">
+      <c r="BC2" s="57" t="inlineStr">
         <is>
           <t>PM</t>
         </is>
       </c>
-      <c r="AO2" s="52" t="inlineStr">
+      <c r="BD2" s="52" t="inlineStr">
         <is>
           <t>Commitment Fee</t>
         </is>
       </c>
-      <c r="AP2" s="52" t="inlineStr">
+      <c r="BE2" s="52" t="inlineStr">
         <is>
           <t>Effective date of change</t>
         </is>
       </c>
-      <c r="AQ2" s="52" t="inlineStr">
+      <c r="BF2" s="52" t="inlineStr">
         <is>
           <t>Modified Following Business Day</t>
         </is>
       </c>
-      <c r="AR2" s="52" t="inlineStr">
+      <c r="BG2" s="52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="BH2" s="52" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AS2" s="56" t="inlineStr">
+      <c r="BI2" s="56" t="inlineStr">
         <is>
           <t>02-Apr-2007</t>
         </is>
       </c>
-      <c r="AT2" s="56" t="inlineStr">
+      <c r="BJ2" s="56" t="inlineStr">
         <is>
           <t>02-Apr-2007</t>
         </is>
       </c>
-      <c r="AU2" s="22" t="n"/>
-      <c r="AV2" s="22" t="n"/>
-      <c r="AW2" s="22" t="n"/>
-      <c r="AX2" s="27" t="n"/>
-      <c r="AY2" s="27" t="n"/>
-      <c r="AZ2" s="27" t="n"/>
-      <c r="BA2" s="27" t="n"/>
-      <c r="BB2" s="28" t="n"/>
-      <c r="BC2" s="29" t="n"/>
-      <c r="BD2" s="43" t="n"/>
-      <c r="BE2" s="43" t="n"/>
+      <c r="BK2" s="22" t="n"/>
+      <c r="BL2" s="22" t="n"/>
+      <c r="BM2" s="22" t="n"/>
+      <c r="BN2" s="27" t="n"/>
+      <c r="BO2" s="27" t="n"/>
+      <c r="BP2" s="27" t="n"/>
+      <c r="BQ2" s="27" t="n"/>
+      <c r="BR2" s="28" t="n"/>
+      <c r="BS2" s="29" t="n"/>
+      <c r="BT2" s="43" t="n"/>
+      <c r="BU2" s="43" t="n"/>
     </row>
     <row r="3" ht="30" customHeight="1" s="42">
       <c r="C3" s="25" t="n"/>
@@ -2324,13 +2506,9 @@
       <c r="I3" s="25" t="n"/>
       <c r="J3" s="25" t="n"/>
       <c r="K3" s="25" t="n"/>
-      <c r="L3" s="26" t="inlineStr">
-        <is>
-          <t>Need to confirm with Bel since DBU is missing in IEE</t>
-        </is>
-      </c>
+      <c r="L3" s="26" t="n"/>
       <c r="M3" s="26" t="n"/>
-      <c r="N3" s="26" t="n"/>
+      <c r="N3" s="25" t="n"/>
       <c r="O3" s="25" t="n"/>
       <c r="P3" s="25" t="n"/>
       <c r="Q3" s="25" t="n"/>
@@ -2360,6 +2538,8 @@
       <c r="AO3" s="25" t="n"/>
       <c r="AP3" s="25" t="n"/>
       <c r="AQ3" s="25" t="n"/>
+      <c r="AR3" s="25" t="n"/>
+      <c r="AS3" s="25" t="n"/>
       <c r="AT3" s="25" t="n"/>
       <c r="AU3" s="25" t="n"/>
       <c r="AV3" s="25" t="n"/>
@@ -2369,12 +2549,26 @@
       <c r="AZ3" s="25" t="n"/>
       <c r="BA3" s="25" t="n"/>
       <c r="BB3" s="25" t="n"/>
+      <c r="BC3" s="25" t="n"/>
+      <c r="BD3" s="25" t="n"/>
+      <c r="BE3" s="25" t="n"/>
+      <c r="BF3" s="25" t="n"/>
+      <c r="BG3" s="25" t="n"/>
+      <c r="BJ3" s="25" t="n"/>
+      <c r="BK3" s="25" t="n"/>
+      <c r="BL3" s="25" t="n"/>
+      <c r="BM3" s="25" t="n"/>
+      <c r="BN3" s="25" t="n"/>
+      <c r="BO3" s="25" t="n"/>
+      <c r="BP3" s="25" t="n"/>
+      <c r="BQ3" s="25" t="n"/>
+      <c r="BR3" s="25" t="n"/>
     </row>
     <row r="4"/>
     <row r="5"/>
     <row r="6"/>
     <row r="7">
-      <c r="AA7" s="24" t="n"/>
+      <c r="AD7" s="24" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2895,8 +3089,8 @@
     <col width="11.140625" bestFit="1" customWidth="1" style="74" min="32" max="32"/>
     <col width="23" bestFit="1" customWidth="1" style="71" min="33" max="33"/>
     <col width="18.85546875" bestFit="1" customWidth="1" style="71" min="34" max="34"/>
-    <col width="9.140625" customWidth="1" style="75" min="35" max="40"/>
-    <col width="9.140625" customWidth="1" style="75" min="41" max="16384"/>
+    <col width="9.140625" customWidth="1" style="75" min="35" max="42"/>
+    <col width="9.140625" customWidth="1" style="75" min="43" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customFormat="1" customHeight="1" s="63">

--- a/DataSet/NewUATDeals_DataSet/Deal_PDS_SYND.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_PDS_SYND.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1070E6DB-BA57-4819-88FF-1851C58D0E7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DC49FA-EC7C-4B56-84F0-0B2D624BD890}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="877" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="PTY001_QuickPartyOnboarding" sheetId="1" r:id="rId1"/>
     <sheet name="CRED01_DealSetup" sheetId="2" r:id="rId2"/>
     <sheet name="CRED02_FacilitySetup_A" sheetId="3" r:id="rId3"/>
-    <sheet name="CRED08_OngoingFeeSetup" sheetId="4" r:id="rId4"/>
+    <sheet name="CRED08_OngoingFeeSetup_A" sheetId="4" r:id="rId4"/>
     <sheet name="SYND02_PrimaryAllocation" sheetId="5" r:id="rId5"/>
     <sheet name="SERV01_LoanDrawdown" sheetId="6" r:id="rId6"/>
     <sheet name="CRED02_FacilitySetup_B" sheetId="7" r:id="rId7"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="496">
   <si>
     <t>rowid</t>
   </si>
@@ -901,12 +901,6 @@
     <t>FormulaCategory</t>
   </si>
   <si>
-    <t>0.8%</t>
-  </si>
-  <si>
-    <t>0.800000</t>
-  </si>
-  <si>
     <t>Option</t>
   </si>
   <si>
@@ -1427,6 +1421,102 @@
   </si>
   <si>
     <t>The Upfront Fee would be capitalized as a new drawdown</t>
+  </si>
+  <si>
+    <t>01-Sep-2019</t>
+  </si>
+  <si>
+    <t>0.360000</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>0.36%</t>
+  </si>
+  <si>
+    <t>PenaltySpread_Value</t>
+  </si>
+  <si>
+    <t>PenaltySpread_Status</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>11,615,916.98</t>
+  </si>
+  <si>
+    <t>ScheduleItem_Amount1</t>
+  </si>
+  <si>
+    <t>ScheduleItem_PercentofCurrent1</t>
+  </si>
+  <si>
+    <t>ScheduleItem_Date1</t>
+  </si>
+  <si>
+    <t>ScheduleItem_Amount2</t>
+  </si>
+  <si>
+    <t>ScheduleItem_PercentofCurrent2</t>
+  </si>
+  <si>
+    <t>ScheduleItem_Date2</t>
+  </si>
+  <si>
+    <t>ScheduleItem_Amount3</t>
+  </si>
+  <si>
+    <t>ScheduleItem_PercentofCurrent3</t>
+  </si>
+  <si>
+    <t>ScheduleItem_Date3</t>
+  </si>
+  <si>
+    <t>10,953,340.60</t>
+  </si>
+  <si>
+    <t>20-Jan-2020</t>
+  </si>
+  <si>
+    <t>12,123,123.23</t>
+  </si>
+  <si>
+    <t>18-Jun-2020</t>
+  </si>
+  <si>
+    <t>Amortization_Frequency</t>
+  </si>
+  <si>
+    <t>Non Standard</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Amortization_Status</t>
+  </si>
+  <si>
+    <t>Amortization_ScheduleType</t>
+  </si>
+  <si>
+    <t>Scheduled</t>
+  </si>
+  <si>
+    <t>ModifyScheduleItem_PercentofCurrent</t>
+  </si>
+  <si>
+    <t>570,007,619.19</t>
+  </si>
+  <si>
+    <t>ModifyScheduleItem_Date</t>
+  </si>
+  <si>
+    <t>ModifyScheduleItem_Amount</t>
   </si>
 </sst>
 </file>
@@ -2766,25 +2856,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>454</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>456</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>458</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>459</v>
-      </c>
       <c r="H1" s="21" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -2792,28 +2882,28 @@
         <v>84</v>
       </c>
       <c r="B2" s="31" t="s">
+        <v>458</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="D2" s="33" t="s">
         <v>460</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="E2" t="s">
         <v>461</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="F2" t="s">
         <v>462</v>
-      </c>
-      <c r="E2" t="s">
-        <v>463</v>
-      </c>
-      <c r="F2" t="s">
-        <v>464</v>
       </c>
       <c r="G2" t="s">
         <v>122</v>
       </c>
       <c r="H2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -3378,18 +3468,18 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:AM2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="42" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="42" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" style="42" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" style="42" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" style="42" bestFit="1" customWidth="1"/>
@@ -3400,17 +3490,34 @@
     <col min="12" max="12" width="20.7109375" style="42" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.7109375" style="42" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18" style="42" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.85546875" style="42" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="21.7109375" style="42" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="49.28515625" style="42" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="19.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="34.85546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32" style="42" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.85546875" style="42" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="24.42578125" style="42" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="24.7109375" style="42" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.5703125" style="42" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="28.140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="38" style="42" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="27.140625" style="42" customWidth="1"/>
+    <col min="29" max="29" width="23" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="23" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="23" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="20" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
@@ -3477,8 +3584,55 @@
       <c r="V1" s="50" t="s">
         <v>256</v>
       </c>
+      <c r="W1" s="50" t="s">
+        <v>486</v>
+      </c>
+      <c r="X1" s="50" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y1" s="50" t="s">
+        <v>490</v>
+      </c>
+      <c r="Z1" s="50" t="s">
+        <v>495</v>
+      </c>
+      <c r="AA1" s="50" t="s">
+        <v>492</v>
+      </c>
+      <c r="AB1" s="50" t="s">
+        <v>494</v>
+      </c>
+      <c r="AC1" s="50" t="s">
+        <v>473</v>
+      </c>
+      <c r="AD1" s="50" t="s">
+        <v>474</v>
+      </c>
+      <c r="AE1" s="50" t="s">
+        <v>475</v>
+      </c>
+      <c r="AF1" s="50" t="s">
+        <v>476</v>
+      </c>
+      <c r="AG1" s="50" t="s">
+        <v>477</v>
+      </c>
+      <c r="AH1" s="50" t="s">
+        <v>478</v>
+      </c>
+      <c r="AI1" s="50" t="s">
+        <v>479</v>
+      </c>
+      <c r="AJ1" s="50" t="s">
+        <v>480</v>
+      </c>
+      <c r="AK1" s="50" t="s">
+        <v>481</v>
+      </c>
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="50"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
         <v>84</v>
       </c>
@@ -3545,6 +3699,53 @@
       <c r="V2" s="78" t="s">
         <v>266</v>
       </c>
+      <c r="W2" s="78" t="s">
+        <v>487</v>
+      </c>
+      <c r="X2" s="78" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y2" s="78" t="s">
+        <v>491</v>
+      </c>
+      <c r="Z2" s="80" t="s">
+        <v>493</v>
+      </c>
+      <c r="AA2" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB2" s="80" t="s">
+        <v>264</v>
+      </c>
+      <c r="AC2" s="80" t="s">
+        <v>472</v>
+      </c>
+      <c r="AD2" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE2" s="80" t="s">
+        <v>460</v>
+      </c>
+      <c r="AF2" s="80" t="s">
+        <v>482</v>
+      </c>
+      <c r="AG2" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH2" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="AI2" s="80" t="s">
+        <v>484</v>
+      </c>
+      <c r="AJ2" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK2" s="80" t="s">
+        <v>485</v>
+      </c>
+      <c r="AL2" s="78"/>
+      <c r="AM2" s="78"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -3560,10 +3761,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3579,15 +3780,16 @@
     <col min="10" max="10" width="20.28515625" style="42" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.85546875" style="42" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="21" style="42" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.42578125" style="42" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.5703125" style="42" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="42" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.28515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.7109375" style="42" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28.140625" style="42" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -3625,25 +3827,31 @@
         <v>279</v>
       </c>
       <c r="M1" s="36" t="s">
+        <v>468</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>469</v>
+      </c>
+      <c r="O1" s="36" t="s">
         <v>280</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="P1" s="36" t="s">
         <v>281</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="Q1" s="36" t="s">
         <v>282</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="R1" s="36" t="s">
         <v>283</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="S1" s="36" t="s">
         <v>284</v>
       </c>
-      <c r="R1" s="36" t="s">
+      <c r="T1" s="36" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
         <v>84</v>
       </c>
@@ -3663,13 +3871,13 @@
         <v>289</v>
       </c>
       <c r="G2" s="40" t="s">
+        <v>467</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>465</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>290</v>
-      </c>
-      <c r="H2" s="39" t="s">
-        <v>291</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>292</v>
       </c>
       <c r="J2" s="39" t="s">
         <v>224</v>
@@ -3677,31 +3885,37 @@
       <c r="K2" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="L2" s="33">
-        <v>2</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="L2" s="33" t="s">
+        <v>466</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>470</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="O2" t="s">
+        <v>291</v>
+      </c>
+      <c r="P2" s="33" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q2" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="N2" s="33" t="s">
+      <c r="R2" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="O2" s="33" t="s">
+      <c r="S2" t="s">
         <v>295</v>
       </c>
-      <c r="P2" s="33" t="s">
+      <c r="T2" s="33" t="s">
         <v>296</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>297</v>
-      </c>
-      <c r="R2" s="33" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="26" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G26" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -3769,82 +3983,82 @@
         <v>238</v>
       </c>
       <c r="E1" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="F1" s="61" t="s">
+        <v>299</v>
+      </c>
+      <c r="G1" s="61" t="s">
         <v>300</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="H1" s="61" t="s">
         <v>301</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="I1" s="61" t="s">
         <v>302</v>
       </c>
-      <c r="H1" s="61" t="s">
+      <c r="J1" s="61" t="s">
         <v>303</v>
       </c>
-      <c r="I1" s="61" t="s">
+      <c r="K1" s="62" t="s">
         <v>304</v>
       </c>
-      <c r="J1" s="61" t="s">
+      <c r="L1" s="62" t="s">
         <v>305</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="M1" s="62" t="s">
         <v>306</v>
       </c>
-      <c r="L1" s="62" t="s">
+      <c r="N1" s="62" t="s">
         <v>307</v>
       </c>
-      <c r="M1" s="62" t="s">
+      <c r="O1" s="62" t="s">
         <v>308</v>
       </c>
-      <c r="N1" s="62" t="s">
+      <c r="P1" s="62" t="s">
         <v>309</v>
       </c>
-      <c r="O1" s="62" t="s">
+      <c r="Q1" s="62" t="s">
         <v>310</v>
       </c>
-      <c r="P1" s="62" t="s">
+      <c r="R1" s="62" t="s">
         <v>311</v>
       </c>
-      <c r="Q1" s="62" t="s">
+      <c r="S1" s="62" t="s">
         <v>312</v>
-      </c>
-      <c r="R1" s="62" t="s">
-        <v>313</v>
-      </c>
-      <c r="S1" s="62" t="s">
-        <v>314</v>
       </c>
       <c r="T1" s="62" t="s">
         <v>165</v>
       </c>
       <c r="U1" s="62" t="s">
+        <v>313</v>
+      </c>
+      <c r="V1" s="62" t="s">
+        <v>314</v>
+      </c>
+      <c r="W1" s="61" t="s">
         <v>315</v>
       </c>
-      <c r="V1" s="62" t="s">
+      <c r="X1" s="61" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y1" s="61" t="s">
+        <v>314</v>
+      </c>
+      <c r="Z1" s="61" t="s">
         <v>316</v>
       </c>
-      <c r="W1" s="61" t="s">
+      <c r="AA1" s="61" t="s">
         <v>317</v>
       </c>
-      <c r="X1" s="61" t="s">
-        <v>315</v>
-      </c>
-      <c r="Y1" s="61" t="s">
-        <v>316</v>
-      </c>
-      <c r="Z1" s="61" t="s">
+      <c r="AB1" s="61" t="s">
         <v>318</v>
       </c>
-      <c r="AA1" s="61" t="s">
+      <c r="AC1" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="AB1" s="61" t="s">
+      <c r="AD1" s="59" t="s">
         <v>320</v>
-      </c>
-      <c r="AC1" s="59" t="s">
-        <v>321</v>
-      </c>
-      <c r="AD1" s="59" t="s">
-        <v>322</v>
       </c>
       <c r="AE1" s="59" t="s">
         <v>203</v>
@@ -3853,10 +4067,10 @@
         <v>204</v>
       </c>
       <c r="AG1" s="59" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AH1" s="59" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="71" customFormat="1" x14ac:dyDescent="0.2">
@@ -3864,25 +4078,25 @@
         <v>84</v>
       </c>
       <c r="B2" s="64" t="s">
+        <v>323</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>324</v>
+      </c>
+      <c r="D2" s="65" t="s">
         <v>325</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="E2" s="65" t="s">
         <v>326</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="F2" s="65" t="s">
         <v>327</v>
-      </c>
-      <c r="E2" s="65" t="s">
-        <v>328</v>
-      </c>
-      <c r="F2" s="65" t="s">
-        <v>329</v>
       </c>
       <c r="G2" s="64" t="s">
         <v>263</v>
       </c>
       <c r="H2" s="66" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I2" s="67" t="s">
         <v>112</v>
@@ -3891,76 +4105,76 @@
         <v>112</v>
       </c>
       <c r="K2" s="67" t="s">
+        <v>329</v>
+      </c>
+      <c r="L2" s="67" t="s">
+        <v>330</v>
+      </c>
+      <c r="M2" s="67" t="s">
         <v>331</v>
       </c>
-      <c r="L2" s="67" t="s">
+      <c r="N2" s="67" t="s">
         <v>332</v>
       </c>
-      <c r="M2" s="67" t="s">
+      <c r="O2" s="68" t="s">
         <v>333</v>
       </c>
-      <c r="N2" s="67" t="s">
+      <c r="P2" s="67" t="s">
         <v>334</v>
       </c>
-      <c r="O2" s="68" t="s">
+      <c r="Q2" s="67" t="s">
         <v>335</v>
-      </c>
-      <c r="P2" s="67" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q2" s="67" t="s">
-        <v>337</v>
       </c>
       <c r="R2" s="69" t="s">
         <v>215</v>
       </c>
       <c r="S2" s="67" t="s">
+        <v>336</v>
+      </c>
+      <c r="T2" s="67" t="s">
+        <v>337</v>
+      </c>
+      <c r="U2" s="67" t="s">
         <v>338</v>
-      </c>
-      <c r="T2" s="67" t="s">
-        <v>339</v>
-      </c>
-      <c r="U2" s="67" t="s">
-        <v>340</v>
       </c>
       <c r="V2" s="67" t="s">
         <v>107</v>
       </c>
       <c r="W2" s="67" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="X2" s="67" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Y2" s="67" t="s">
         <v>107</v>
       </c>
       <c r="Z2" s="68" t="s">
+        <v>339</v>
+      </c>
+      <c r="AA2" s="70" t="s">
+        <v>340</v>
+      </c>
+      <c r="AB2" s="70" t="s">
+        <v>333</v>
+      </c>
+      <c r="AC2" s="69" t="s">
         <v>341</v>
       </c>
-      <c r="AA2" s="70" t="s">
+      <c r="AD2" s="69" t="s">
         <v>342</v>
       </c>
-      <c r="AB2" s="70" t="s">
-        <v>335</v>
-      </c>
-      <c r="AC2" s="69" t="s">
-        <v>343</v>
-      </c>
-      <c r="AD2" s="69" t="s">
-        <v>344</v>
-      </c>
       <c r="AE2" s="70" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AF2" s="70" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AG2" s="69" t="s">
         <v>120</v>
       </c>
       <c r="AH2" s="69" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.2">
@@ -4022,76 +4236,76 @@
         <v>147</v>
       </c>
       <c r="D1" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>345</v>
+      </c>
+      <c r="F1" s="44" t="s">
         <v>346</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="G1" s="44" t="s">
         <v>347</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="H1" s="44" t="s">
         <v>348</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="I1" s="44" t="s">
         <v>349</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="J1" s="44" t="s">
         <v>350</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="K1" s="44" t="s">
         <v>351</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="L1" s="44" t="s">
         <v>352</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="M1" s="44" t="s">
         <v>353</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="N1" s="44" t="s">
         <v>354</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="O1" s="44" t="s">
         <v>355</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="P1" s="44" t="s">
         <v>356</v>
       </c>
-      <c r="O1" s="44" t="s">
+      <c r="Q1" s="44" t="s">
         <v>357</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="R1" s="44" t="s">
         <v>358</v>
       </c>
-      <c r="Q1" s="44" t="s">
+      <c r="S1" s="44" t="s">
         <v>359</v>
       </c>
-      <c r="R1" s="44" t="s">
+      <c r="T1" s="44" t="s">
         <v>360</v>
       </c>
-      <c r="S1" s="44" t="s">
+      <c r="U1" s="44" t="s">
         <v>361</v>
       </c>
-      <c r="T1" s="44" t="s">
+      <c r="V1" s="44" t="s">
         <v>362</v>
       </c>
-      <c r="U1" s="44" t="s">
+      <c r="W1" s="44" t="s">
         <v>363</v>
       </c>
-      <c r="V1" s="44" t="s">
+      <c r="X1" s="44" t="s">
         <v>364</v>
       </c>
-      <c r="W1" s="44" t="s">
+      <c r="Y1" s="44" t="s">
         <v>365</v>
       </c>
-      <c r="X1" s="44" t="s">
+      <c r="Z1" s="44" t="s">
         <v>366</v>
       </c>
-      <c r="Y1" s="44" t="s">
+      <c r="AA1" s="44" t="s">
         <v>367</v>
-      </c>
-      <c r="Z1" s="44" t="s">
-        <v>368</v>
-      </c>
-      <c r="AA1" s="44" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
@@ -4099,11 +4313,11 @@
         <v>84</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E2" t="s">
         <v>265</v>
@@ -4115,61 +4329,61 @@
         <v>128</v>
       </c>
       <c r="H2" s="33" t="s">
+        <v>370</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>371</v>
+      </c>
+      <c r="K2" t="s">
         <v>372</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>294</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>373</v>
-      </c>
-      <c r="K2" t="s">
-        <v>374</v>
       </c>
       <c r="L2" t="s">
         <v>120</v>
       </c>
       <c r="M2" t="s">
+        <v>373</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>374</v>
+      </c>
+      <c r="O2" t="s">
         <v>375</v>
       </c>
-      <c r="N2" s="33" t="s">
+      <c r="P2" t="s">
         <v>376</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>377</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" s="33" t="s">
+        <v>370</v>
+      </c>
+      <c r="S2" s="33" t="s">
+        <v>370</v>
+      </c>
+      <c r="T2" s="33" t="s">
+        <v>370</v>
+      </c>
+      <c r="U2" s="33" t="s">
+        <v>370</v>
+      </c>
+      <c r="V2" s="33" t="s">
         <v>378</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="W2" s="33" t="s">
         <v>379</v>
       </c>
-      <c r="R2" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="S2" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="T2" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="U2" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="V2" s="33" t="s">
+      <c r="X2" s="33" t="s">
         <v>380</v>
       </c>
-      <c r="W2" s="33" t="s">
+      <c r="Y2" t="s">
         <v>381</v>
       </c>
-      <c r="X2" s="33" t="s">
+      <c r="Z2" t="s">
         <v>382</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>383</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>384</v>
       </c>
       <c r="AA2" t="s">
         <v>120</v>
@@ -4276,34 +4490,34 @@
         <v>84</v>
       </c>
       <c r="B2" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="C2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D2" t="s">
         <v>385</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="32" t="s">
         <v>387</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>388</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>389</v>
       </c>
       <c r="G2" t="s">
         <v>128</v>
       </c>
       <c r="H2" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>389</v>
+      </c>
+      <c r="K2" s="33" t="s">
         <v>390</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>390</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>391</v>
-      </c>
-      <c r="K2" s="33" t="s">
-        <v>392</v>
       </c>
       <c r="L2" t="s">
         <v>265</v>
@@ -4312,7 +4526,7 @@
         <v>266</v>
       </c>
       <c r="N2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="O2" t="s">
         <v>266</v>
@@ -4425,136 +4639,136 @@
         <v>272</v>
       </c>
       <c r="F1" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="H1" s="36" t="s">
         <v>394</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="I1" s="36" t="s">
         <v>395</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="J1" s="36" t="s">
         <v>396</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="K1" s="36" t="s">
         <v>397</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="L1" s="36" t="s">
         <v>398</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="M1" s="36" t="s">
         <v>399</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="N1" s="36" t="s">
         <v>400</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="O1" s="36" t="s">
         <v>401</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="P1" s="36" t="s">
         <v>402</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="Q1" s="36" t="s">
         <v>403</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="R1" s="36" t="s">
         <v>404</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="S1" s="36" t="s">
         <v>405</v>
       </c>
-      <c r="R1" s="36" t="s">
+      <c r="T1" s="36" t="s">
         <v>406</v>
       </c>
-      <c r="S1" s="36" t="s">
+      <c r="U1" s="36" t="s">
         <v>407</v>
       </c>
-      <c r="T1" s="36" t="s">
+      <c r="V1" s="36" t="s">
         <v>408</v>
       </c>
-      <c r="U1" s="36" t="s">
+      <c r="W1" s="36" t="s">
         <v>409</v>
       </c>
-      <c r="V1" s="36" t="s">
+      <c r="X1" s="36" t="s">
         <v>410</v>
       </c>
-      <c r="W1" s="36" t="s">
+      <c r="Y1" s="36" t="s">
         <v>411</v>
       </c>
-      <c r="X1" s="36" t="s">
+      <c r="Z1" s="36" t="s">
         <v>412</v>
       </c>
-      <c r="Y1" s="36" t="s">
+      <c r="AA1" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="Z1" s="36" t="s">
+      <c r="AB1" s="41" t="s">
         <v>414</v>
       </c>
-      <c r="AA1" s="36" t="s">
+      <c r="AC1" s="41" t="s">
         <v>415</v>
       </c>
-      <c r="AB1" s="41" t="s">
+      <c r="AD1" s="41" t="s">
         <v>416</v>
       </c>
-      <c r="AC1" s="41" t="s">
+      <c r="AE1" s="41" t="s">
         <v>417</v>
       </c>
-      <c r="AD1" s="41" t="s">
+      <c r="AF1" s="41" t="s">
         <v>418</v>
       </c>
-      <c r="AE1" s="41" t="s">
+      <c r="AG1" s="41" t="s">
         <v>419</v>
       </c>
-      <c r="AF1" s="41" t="s">
+      <c r="AH1" s="41" t="s">
         <v>420</v>
       </c>
-      <c r="AG1" s="41" t="s">
+      <c r="AI1" s="41" t="s">
         <v>421</v>
       </c>
-      <c r="AH1" s="41" t="s">
+      <c r="AJ1" s="41" t="s">
         <v>422</v>
       </c>
-      <c r="AI1" s="41" t="s">
+      <c r="AK1" s="41" t="s">
         <v>423</v>
       </c>
-      <c r="AJ1" s="41" t="s">
+      <c r="AL1" s="41" t="s">
         <v>424</v>
       </c>
-      <c r="AK1" s="41" t="s">
+      <c r="AM1" s="41" t="s">
         <v>425</v>
       </c>
-      <c r="AL1" s="41" t="s">
+      <c r="AN1" s="41" t="s">
         <v>426</v>
       </c>
-      <c r="AM1" s="41" t="s">
+      <c r="AO1" s="41" t="s">
         <v>427</v>
       </c>
-      <c r="AN1" s="41" t="s">
+      <c r="AP1" s="41" t="s">
         <v>428</v>
       </c>
-      <c r="AO1" s="41" t="s">
+      <c r="AQ1" s="41" t="s">
         <v>429</v>
       </c>
-      <c r="AP1" s="41" t="s">
+      <c r="AR1" s="41" t="s">
         <v>430</v>
       </c>
-      <c r="AQ1" s="41" t="s">
+      <c r="AS1" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="AR1" s="41" t="s">
+      <c r="AT1" s="41" t="s">
         <v>432</v>
       </c>
-      <c r="AS1" s="41" t="s">
+      <c r="AU1" s="41" t="s">
         <v>433</v>
       </c>
-      <c r="AT1" s="41" t="s">
+      <c r="AV1" s="41" t="s">
         <v>434</v>
       </c>
-      <c r="AU1" s="41" t="s">
+      <c r="AW1" s="41" t="s">
         <v>435</v>
-      </c>
-      <c r="AV1" s="41" t="s">
-        <v>436</v>
-      </c>
-      <c r="AW1" s="41" t="s">
-        <v>437</v>
       </c>
       <c r="AX1" s="36" t="s">
         <v>281</v>
@@ -4577,25 +4791,25 @@
         <v>84</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C2" s="39" t="s">
         <v>287</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>288</v>
       </c>
       <c r="F2" t="s">
+        <v>438</v>
+      </c>
+      <c r="G2" t="s">
+        <v>439</v>
+      </c>
+      <c r="H2" t="s">
         <v>440</v>
-      </c>
-      <c r="G2" t="s">
-        <v>441</v>
-      </c>
-      <c r="H2" t="s">
-        <v>442</v>
       </c>
       <c r="I2" t="s">
         <v>129</v>
@@ -4610,19 +4824,19 @@
         <v>0</v>
       </c>
       <c r="M2" s="33" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="N2" s="39" t="s">
         <v>289</v>
       </c>
       <c r="O2" s="39" t="s">
+        <v>442</v>
+      </c>
+      <c r="P2" s="40" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q2" s="40" t="s">
         <v>444</v>
-      </c>
-      <c r="P2" s="40" t="s">
-        <v>445</v>
-      </c>
-      <c r="Q2" s="40" t="s">
-        <v>446</v>
       </c>
       <c r="R2" t="s">
         <v>124</v>
@@ -4634,25 +4848,25 @@
         <v>0</v>
       </c>
       <c r="U2" s="33" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="V2" s="33" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="W2" s="39" t="s">
         <v>289</v>
       </c>
       <c r="X2" s="39" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="Y2" s="40" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="Z2" s="40" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AA2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AB2" t="s">
         <v>129</v>
@@ -4667,10 +4881,10 @@
         <v>0</v>
       </c>
       <c r="AF2" s="33" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AG2" s="39" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AH2" s="39" t="s">
         <v>224</v>
@@ -4682,10 +4896,10 @@
         <v>288</v>
       </c>
       <c r="AK2" s="40" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="AL2" s="40" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AM2" t="s">
         <v>124</v>
@@ -4697,13 +4911,13 @@
         <v>0</v>
       </c>
       <c r="AP2" s="33" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AQ2" s="33" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AR2" s="39" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AS2" s="39" t="s">
         <v>224</v>
@@ -4715,30 +4929,30 @@
         <v>288</v>
       </c>
       <c r="AV2" s="40" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="AW2" s="40" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AX2" s="33" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="AY2" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="AZ2" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="BA2" t="s">
         <v>295</v>
       </c>
-      <c r="AZ2" s="33" t="s">
+      <c r="BB2" s="33" t="s">
         <v>296</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>297</v>
-      </c>
-      <c r="BB2" s="33" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="24" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G24" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -4769,10 +4983,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4780,7 +4994,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C2" t="s">
         <v>224</v>

--- a/DataSet/NewUATDeals_DataSet/Deal_PDS_SYND.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_PDS_SYND.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DC49FA-EC7C-4B56-84F0-0B2D624BD890}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCED909B-B8FA-440C-9688-8C788FED83E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="877" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="877" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTY001_QuickPartyOnboarding" sheetId="1" r:id="rId1"/>
     <sheet name="CRED01_DealSetup" sheetId="2" r:id="rId2"/>
     <sheet name="CRED02_FacilitySetup_A" sheetId="3" r:id="rId3"/>
     <sheet name="CRED08_OngoingFeeSetup_A" sheetId="4" r:id="rId4"/>
-    <sheet name="SYND02_PrimaryAllocation" sheetId="5" r:id="rId5"/>
-    <sheet name="SERV01_LoanDrawdown" sheetId="6" r:id="rId6"/>
-    <sheet name="CRED02_FacilitySetup_B" sheetId="7" r:id="rId7"/>
-    <sheet name="CRED08_OngoingFeeSetup_B" sheetId="8" r:id="rId8"/>
+    <sheet name="CRED02_FacilitySetup_B" sheetId="5" r:id="rId5"/>
+    <sheet name="CRED08_OngoingFeeSetup_B" sheetId="6" r:id="rId6"/>
+    <sheet name="SYND02_PrimaryAllocation" sheetId="7" r:id="rId7"/>
+    <sheet name="SERV01_LoanDrawdown" sheetId="8" r:id="rId8"/>
     <sheet name="CRED01_DealPricingSetup" sheetId="9" r:id="rId9"/>
     <sheet name="CRED07_UpfrontFee_Payment" sheetId="10" r:id="rId10"/>
   </sheets>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="498">
   <si>
     <t>rowid</t>
   </si>
@@ -802,6 +802,51 @@
     <t>Facility_BorrowerMaturity</t>
   </si>
   <si>
+    <t>Amortization_Frequency</t>
+  </si>
+  <si>
+    <t>Amortization_Status</t>
+  </si>
+  <si>
+    <t>Amortization_ScheduleType</t>
+  </si>
+  <si>
+    <t>ModifyScheduleItem_Amount</t>
+  </si>
+  <si>
+    <t>ModifyScheduleItem_PercentofCurrent</t>
+  </si>
+  <si>
+    <t>ModifyScheduleItem_Date</t>
+  </si>
+  <si>
+    <t>ScheduleItem_Amount1</t>
+  </si>
+  <si>
+    <t>ScheduleItem_PercentofCurrent1</t>
+  </si>
+  <si>
+    <t>ScheduleItem_Date1</t>
+  </si>
+  <si>
+    <t>ScheduleItem_Amount2</t>
+  </si>
+  <si>
+    <t>ScheduleItem_PercentofCurrent2</t>
+  </si>
+  <si>
+    <t>ScheduleItem_Date2</t>
+  </si>
+  <si>
+    <t>ScheduleItem_Amount3</t>
+  </si>
+  <si>
+    <t>ScheduleItem_PercentofCurrent3</t>
+  </si>
+  <si>
+    <t>ScheduleItem_Date3</t>
+  </si>
+  <si>
     <t>Establish Facility and Setup Repayment Schedule</t>
   </si>
   <si>
@@ -841,6 +886,36 @@
     <t>100.000000%</t>
   </si>
   <si>
+    <t>Non Standard</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Scheduled</t>
+  </si>
+  <si>
+    <t>570,007,619.19</t>
+  </si>
+  <si>
+    <t>11,615,916.98</t>
+  </si>
+  <si>
+    <t>27-Dec-2019</t>
+  </si>
+  <si>
+    <t>10,953,340.60</t>
+  </si>
+  <si>
+    <t>20-Jan-2020</t>
+  </si>
+  <si>
+    <t>12,123,123.23</t>
+  </si>
+  <si>
+    <t>18-Jun-2020</t>
+  </si>
+  <si>
     <t>OngoingFee_Category</t>
   </si>
   <si>
@@ -871,6 +946,12 @@
     <t>Interest_SpreadAmt</t>
   </si>
   <si>
+    <t>PenaltySpread_Value</t>
+  </si>
+  <si>
+    <t>PenaltySpread_Status</t>
+  </si>
+  <si>
     <t>Interest_BaseRateCode</t>
   </si>
   <si>
@@ -901,249 +982,450 @@
     <t>FormulaCategory</t>
   </si>
   <si>
+    <t>0.36%</t>
+  </si>
+  <si>
+    <t>0.360000</t>
+  </si>
+  <si>
     <t>Option</t>
   </si>
   <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
     <t>BBSY</t>
   </si>
   <si>
+    <t>01-Sep-2019</t>
+  </si>
+  <si>
+    <t>01-Jan-2020</t>
+  </si>
+  <si>
+    <t>02-Jan-2020</t>
+  </si>
+  <si>
+    <t>to the actual due date</t>
+  </si>
+  <si>
+    <t>31-Dec-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>FACILITY_B_2018_</t>
+  </si>
+  <si>
+    <t>FACILITY_B_2018_20107</t>
+  </si>
+  <si>
+    <t>480,000,000.00</t>
+  </si>
+  <si>
+    <t>OngoingFee_Item</t>
+  </si>
+  <si>
+    <t>OngoingFee_ItemType</t>
+  </si>
+  <si>
+    <t>FinancialRatio_RatioType</t>
+  </si>
+  <si>
+    <t>FinancialRatio_MnemonicStatus1</t>
+  </si>
+  <si>
+    <t>FinancialRatio_GreaterThan1</t>
+  </si>
+  <si>
+    <t>FinancialRatio_LessThan1</t>
+  </si>
+  <si>
+    <t>FinancialRatio_MinimumValue1</t>
+  </si>
+  <si>
+    <t>FinancialRatio_MaximumValue1</t>
+  </si>
+  <si>
+    <t>OngoingFee_AfterItem1</t>
+  </si>
+  <si>
+    <t>OngoingFee_AfterItemType1</t>
+  </si>
+  <si>
+    <t>FormulaCategory_SpreadType1</t>
+  </si>
+  <si>
+    <t>Facility_Percent1</t>
+  </si>
+  <si>
+    <t>FinancialRatio_MnemonicStatus2</t>
+  </si>
+  <si>
+    <t>FinancialRatio_GreaterThan2</t>
+  </si>
+  <si>
+    <t>FinancialRatio_LessThan2</t>
+  </si>
+  <si>
+    <t>FinancialRatio_MinimumValue2</t>
+  </si>
+  <si>
+    <t>FinancialRatio_MaximumValue2</t>
+  </si>
+  <si>
+    <t>OngoingFee_AfterItem2</t>
+  </si>
+  <si>
+    <t>OngoingFee_AfterItemType2</t>
+  </si>
+  <si>
+    <t>FormulaCategory_SpreadType2</t>
+  </si>
+  <si>
+    <t>Facility_Percent2</t>
+  </si>
+  <si>
+    <t>FormulaCategory_Type</t>
+  </si>
+  <si>
+    <t>Interest_FinancialRatio_MnemonicStatus1</t>
+  </si>
+  <si>
+    <t>Interest_FinancialRatio_GreaterThan1</t>
+  </si>
+  <si>
+    <t>Interest_FinancialRatio_LessThan1</t>
+  </si>
+  <si>
+    <t>Interest_FinancialRatio_MinimumValue1</t>
+  </si>
+  <si>
+    <t>Interest_FinancialRatio_MaximumValue1</t>
+  </si>
+  <si>
+    <t>Interest_AfterItem1</t>
+  </si>
+  <si>
+    <t>Interest_AfterItemType1</t>
+  </si>
+  <si>
+    <t>Interest_OptionName1</t>
+  </si>
+  <si>
+    <t>Interest_RateBasis1</t>
+  </si>
+  <si>
+    <t>Interest_FormulaText1</t>
+  </si>
+  <si>
+    <t>Interest_Facility_Percent1</t>
+  </si>
+  <si>
+    <t>Interest_FinancialRatio_MnemonicStatus2</t>
+  </si>
+  <si>
+    <t>Interest_FinancialRatio_GreaterThan2</t>
+  </si>
+  <si>
+    <t>Interest_FinancialRatio_LessThan2</t>
+  </si>
+  <si>
+    <t>Interest_FinancialRatio_MinimumValue2</t>
+  </si>
+  <si>
+    <t>Interest_FinancialRatio_MaximumValue2</t>
+  </si>
+  <si>
+    <t>Interest_AfterItem2</t>
+  </si>
+  <si>
+    <t>Interest_AfterItemType2</t>
+  </si>
+  <si>
+    <t>Interest_OptionName2</t>
+  </si>
+  <si>
+    <t>Interest_RateBasis2</t>
+  </si>
+  <si>
+    <t>Interest_FormulaText2</t>
+  </si>
+  <si>
+    <t>Interest_Facility_Percent2</t>
+  </si>
+  <si>
+    <t>Establish Line Fee</t>
+  </si>
+  <si>
+    <t>Line Fee</t>
+  </si>
+  <si>
+    <t>Matrix</t>
+  </si>
+  <si>
+    <t>Financial Ratio</t>
+  </si>
+  <si>
+    <t>Leverage Ratio (LR)</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>0.725000</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>0.775000</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>HigherOf(BBSY,0%)</t>
+  </si>
+  <si>
+    <t>01-Oct-2019</t>
+  </si>
+  <si>
+    <t>LenderType1</t>
+  </si>
+  <si>
+    <t>LenderType2</t>
+  </si>
+  <si>
+    <t>Primary_Lender1</t>
+  </si>
+  <si>
+    <t>Primary_Lender2</t>
+  </si>
+  <si>
+    <t>Primary_LenderLoc1</t>
+  </si>
+  <si>
+    <t>Primary_LenderLoc2</t>
+  </si>
+  <si>
+    <t>Primary_TransactionType</t>
+  </si>
+  <si>
+    <t>Primary_PctOfDeal1</t>
+  </si>
+  <si>
+    <t>Primary_PctOfDeal2</t>
+  </si>
+  <si>
+    <t>Primary_BuySellPrice</t>
+  </si>
+  <si>
+    <t>Expected_CloseDate</t>
+  </si>
+  <si>
+    <t>Primary_Contact1</t>
+  </si>
+  <si>
+    <t>Primary_Contact2</t>
+  </si>
+  <si>
+    <t>AdminAgent_SGAlias1</t>
+  </si>
+  <si>
+    <t>AdminAgent_SGAlias2</t>
+  </si>
+  <si>
+    <t>Primary_Portfolio</t>
+  </si>
+  <si>
+    <t>Primary_PortfolioBranch</t>
+  </si>
+  <si>
+    <t>Primary_RiskBook</t>
+  </si>
+  <si>
+    <t>Primary_PortfolioAllocation</t>
+  </si>
+  <si>
+    <t>Primary_PortfolioExpiryDate</t>
+  </si>
+  <si>
+    <t>Primary_CircledDate</t>
+  </si>
+  <si>
+    <t>PortfolioBranch</t>
+  </si>
+  <si>
+    <t>PortfolioAllocation</t>
+  </si>
+  <si>
+    <t>ServicingGroupMember</t>
+  </si>
+  <si>
+    <t>IsLenderAHostBank</t>
+  </si>
+  <si>
+    <t>Establish Primaries</t>
+  </si>
+  <si>
+    <t>LLA SYND DEAL AUD 500M 23NOV1841158</t>
+  </si>
+  <si>
+    <t>REVOLVING CASH ADV FAC47128</t>
+  </si>
+  <si>
+    <t>Host Bank</t>
+  </si>
+  <si>
+    <t>Non-Host Bank</t>
+  </si>
+  <si>
+    <t>LEND01292020</t>
+  </si>
+  <si>
+    <t>Origination</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>26-Nov-2018</t>
+  </si>
+  <si>
+    <t>AGENCY,  Lending and Leasing</t>
+  </si>
+  <si>
+    <t>KESO, MR KUYA</t>
+  </si>
+  <si>
+    <t>KK</t>
+  </si>
+  <si>
+    <t>RE_RES</t>
+  </si>
+  <si>
+    <t>Hold for Investment - Australia</t>
+  </si>
+  <si>
+    <t>150,000,000.00</t>
+  </si>
+  <si>
+    <t>13-Jun-2023</t>
+  </si>
+  <si>
+    <t>Commonwealth Bank of Australia -DBU</t>
+  </si>
+  <si>
+    <t>100,000.00</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Loan_Alias</t>
+  </si>
+  <si>
+    <t>Outstanding_Type</t>
+  </si>
+  <si>
+    <t>Pricing_Option</t>
+  </si>
+  <si>
+    <t>Outstanding_Currency</t>
+  </si>
+  <si>
+    <t>Loan_RequestedAmount</t>
+  </si>
+  <si>
+    <t>Loan_EffectiveDate</t>
+  </si>
+  <si>
+    <t>Loan_MaturityDate</t>
+  </si>
+  <si>
+    <t>Loan_RepricingFrequency</t>
+  </si>
+  <si>
+    <t>Loan_IntCycleFrequency</t>
+  </si>
+  <si>
+    <t>Loan_Accrue</t>
+  </si>
+  <si>
+    <t>Loan_RepricingDate</t>
+  </si>
+  <si>
+    <t>Notice_Subject</t>
+  </si>
+  <si>
+    <t>Notice_Comment</t>
+  </si>
+  <si>
+    <t>AcceptRate_FromPricing</t>
+  </si>
+  <si>
+    <t>Expctd_LoanGlobalOriginal</t>
+  </si>
+  <si>
+    <t>Expctd_LoanGlobalCurrent</t>
+  </si>
+  <si>
+    <t>Expctd_LoanHostBankGross</t>
+  </si>
+  <si>
+    <t>Expctd_LoanHostBankNet</t>
+  </si>
+  <si>
+    <t>Expctd_LoanCurrentBaseRate</t>
+  </si>
+  <si>
+    <t>Expctd_LoanSpread</t>
+  </si>
+  <si>
+    <t>Expctd_LoanAllInRate</t>
+  </si>
+  <si>
+    <t>Loan_PaymentMode</t>
+  </si>
+  <si>
+    <t>Expctd_Loan_IntCycleFrequency</t>
+  </si>
+  <si>
+    <t>BorrowerBaseRate</t>
+  </si>
+  <si>
+    <t>Create Drawdown for Capitalization Facility</t>
+  </si>
+  <si>
+    <t>60001947</t>
+  </si>
+  <si>
+    <t>275,750.00</t>
+  </si>
+  <si>
     <t>17-Dec-2019</t>
   </si>
   <si>
-    <t>01-Jan-2020</t>
-  </si>
-  <si>
-    <t>02-Jan-2020</t>
-  </si>
-  <si>
-    <t>to the actual due date</t>
-  </si>
-  <si>
-    <t>31-Dec-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>LenderType1</t>
-  </si>
-  <si>
-    <t>LenderType2</t>
-  </si>
-  <si>
-    <t>Primary_Lender1</t>
-  </si>
-  <si>
-    <t>Primary_Lender2</t>
-  </si>
-  <si>
-    <t>Primary_LenderLoc1</t>
-  </si>
-  <si>
-    <t>Primary_LenderLoc2</t>
-  </si>
-  <si>
-    <t>Primary_TransactionType</t>
-  </si>
-  <si>
-    <t>Primary_PctOfDeal1</t>
-  </si>
-  <si>
-    <t>Primary_PctOfDeal2</t>
-  </si>
-  <si>
-    <t>Primary_BuySellPrice</t>
-  </si>
-  <si>
-    <t>Expected_CloseDate</t>
-  </si>
-  <si>
-    <t>Primary_Contact1</t>
-  </si>
-  <si>
-    <t>Primary_Contact2</t>
-  </si>
-  <si>
-    <t>AdminAgent_SGAlias1</t>
-  </si>
-  <si>
-    <t>AdminAgent_SGAlias2</t>
-  </si>
-  <si>
-    <t>Primary_Portfolio</t>
-  </si>
-  <si>
-    <t>Primary_PortfolioBranch</t>
-  </si>
-  <si>
-    <t>Primary_RiskBook</t>
-  </si>
-  <si>
-    <t>Primary_PortfolioAllocation</t>
-  </si>
-  <si>
-    <t>Primary_PortfolioExpiryDate</t>
-  </si>
-  <si>
-    <t>Primary_CircledDate</t>
-  </si>
-  <si>
-    <t>PortfolioBranch</t>
-  </si>
-  <si>
-    <t>PortfolioAllocation</t>
-  </si>
-  <si>
-    <t>ServicingGroupMember</t>
-  </si>
-  <si>
-    <t>IsLenderAHostBank</t>
-  </si>
-  <si>
-    <t>Establish Primaries</t>
-  </si>
-  <si>
-    <t>LLA SYND DEAL AUD 500M 23NOV1841158</t>
-  </si>
-  <si>
-    <t>REVOLVING CASH ADV FAC47128</t>
-  </si>
-  <si>
-    <t>Host Bank</t>
-  </si>
-  <si>
-    <t>Non-Host Bank</t>
-  </si>
-  <si>
-    <t>LEND01292020</t>
-  </si>
-  <si>
-    <t>Origination</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>26-Nov-2018</t>
-  </si>
-  <si>
-    <t>AGENCY,  Lending and Leasing</t>
-  </si>
-  <si>
-    <t>KESO, MR KUYA</t>
-  </si>
-  <si>
-    <t>KK</t>
-  </si>
-  <si>
-    <t>RE_RES</t>
-  </si>
-  <si>
-    <t>Hold for Investment - Australia</t>
-  </si>
-  <si>
-    <t>150,000,000.00</t>
-  </si>
-  <si>
-    <t>13-Jun-2023</t>
-  </si>
-  <si>
-    <t>Commonwealth Bank of Australia -DBU</t>
-  </si>
-  <si>
-    <t>100,000.00</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Loan_Alias</t>
-  </si>
-  <si>
-    <t>Outstanding_Type</t>
-  </si>
-  <si>
-    <t>Pricing_Option</t>
-  </si>
-  <si>
-    <t>Outstanding_Currency</t>
-  </si>
-  <si>
-    <t>Loan_RequestedAmount</t>
-  </si>
-  <si>
-    <t>Loan_EffectiveDate</t>
-  </si>
-  <si>
-    <t>Loan_MaturityDate</t>
-  </si>
-  <si>
-    <t>Loan_RepricingFrequency</t>
-  </si>
-  <si>
-    <t>Loan_IntCycleFrequency</t>
-  </si>
-  <si>
-    <t>Loan_Accrue</t>
-  </si>
-  <si>
-    <t>Loan_RepricingDate</t>
-  </si>
-  <si>
-    <t>Notice_Subject</t>
-  </si>
-  <si>
-    <t>Notice_Comment</t>
-  </si>
-  <si>
-    <t>AcceptRate_FromPricing</t>
-  </si>
-  <si>
-    <t>Expctd_LoanGlobalOriginal</t>
-  </si>
-  <si>
-    <t>Expctd_LoanGlobalCurrent</t>
-  </si>
-  <si>
-    <t>Expctd_LoanHostBankGross</t>
-  </si>
-  <si>
-    <t>Expctd_LoanHostBankNet</t>
-  </si>
-  <si>
-    <t>Expctd_LoanCurrentBaseRate</t>
-  </si>
-  <si>
-    <t>Expctd_LoanSpread</t>
-  </si>
-  <si>
-    <t>Expctd_LoanAllInRate</t>
-  </si>
-  <si>
-    <t>Loan_PaymentMode</t>
-  </si>
-  <si>
-    <t>Expctd_Loan_IntCycleFrequency</t>
-  </si>
-  <si>
-    <t>BorrowerBaseRate</t>
-  </si>
-  <si>
-    <t>Create Drawdown for Capitalization Facility</t>
-  </si>
-  <si>
-    <t>60001947</t>
-  </si>
-  <si>
-    <t>275,750.00</t>
-  </si>
-  <si>
     <t>17-Dec-2024</t>
   </si>
   <si>
@@ -1180,207 +1462,6 @@
     <t>Quarterly</t>
   </si>
   <si>
-    <t>Establish CA Facility</t>
-  </si>
-  <si>
-    <t>REV_CASH_ADVANCE_FAC_</t>
-  </si>
-  <si>
-    <t>REV_CASH_ADVANCE_FAC_38121</t>
-  </si>
-  <si>
-    <t>Revolver</t>
-  </si>
-  <si>
-    <t>112,000,000.00</t>
-  </si>
-  <si>
-    <t>22-Dec-2016</t>
-  </si>
-  <si>
-    <t>29-Jul-2023</t>
-  </si>
-  <si>
-    <t>29-Aug-2023</t>
-  </si>
-  <si>
-    <t>Working Capital</t>
-  </si>
-  <si>
-    <t>OngoingFee_Item</t>
-  </si>
-  <si>
-    <t>OngoingFee_ItemType</t>
-  </si>
-  <si>
-    <t>FinancialRatio_RatioType</t>
-  </si>
-  <si>
-    <t>FinancialRatio_MnemonicStatus1</t>
-  </si>
-  <si>
-    <t>FinancialRatio_GreaterThan1</t>
-  </si>
-  <si>
-    <t>FinancialRatio_LessThan1</t>
-  </si>
-  <si>
-    <t>FinancialRatio_MinimumValue1</t>
-  </si>
-  <si>
-    <t>FinancialRatio_MaximumValue1</t>
-  </si>
-  <si>
-    <t>OngoingFee_AfterItem1</t>
-  </si>
-  <si>
-    <t>OngoingFee_AfterItemType1</t>
-  </si>
-  <si>
-    <t>FormulaCategory_SpreadType1</t>
-  </si>
-  <si>
-    <t>Facility_Percent1</t>
-  </si>
-  <si>
-    <t>FinancialRatio_MnemonicStatus2</t>
-  </si>
-  <si>
-    <t>FinancialRatio_GreaterThan2</t>
-  </si>
-  <si>
-    <t>FinancialRatio_LessThan2</t>
-  </si>
-  <si>
-    <t>FinancialRatio_MinimumValue2</t>
-  </si>
-  <si>
-    <t>FinancialRatio_MaximumValue2</t>
-  </si>
-  <si>
-    <t>OngoingFee_AfterItem2</t>
-  </si>
-  <si>
-    <t>OngoingFee_AfterItemType2</t>
-  </si>
-  <si>
-    <t>FormulaCategory_SpreadType2</t>
-  </si>
-  <si>
-    <t>Facility_Percent2</t>
-  </si>
-  <si>
-    <t>FormulaCategory_Type</t>
-  </si>
-  <si>
-    <t>Interest_FinancialRatio_MnemonicStatus1</t>
-  </si>
-  <si>
-    <t>Interest_FinancialRatio_GreaterThan1</t>
-  </si>
-  <si>
-    <t>Interest_FinancialRatio_LessThan1</t>
-  </si>
-  <si>
-    <t>Interest_FinancialRatio_MinimumValue1</t>
-  </si>
-  <si>
-    <t>Interest_FinancialRatio_MaximumValue1</t>
-  </si>
-  <si>
-    <t>Interest_AfterItem1</t>
-  </si>
-  <si>
-    <t>Interest_AfterItemType1</t>
-  </si>
-  <si>
-    <t>Interest_OptionName1</t>
-  </si>
-  <si>
-    <t>Interest_RateBasis1</t>
-  </si>
-  <si>
-    <t>Interest_FormulaText1</t>
-  </si>
-  <si>
-    <t>Interest_Facility_Percent1</t>
-  </si>
-  <si>
-    <t>Interest_FinancialRatio_MnemonicStatus2</t>
-  </si>
-  <si>
-    <t>Interest_FinancialRatio_GreaterThan2</t>
-  </si>
-  <si>
-    <t>Interest_FinancialRatio_LessThan2</t>
-  </si>
-  <si>
-    <t>Interest_FinancialRatio_MinimumValue2</t>
-  </si>
-  <si>
-    <t>Interest_FinancialRatio_MaximumValue2</t>
-  </si>
-  <si>
-    <t>Interest_AfterItem2</t>
-  </si>
-  <si>
-    <t>Interest_AfterItemType2</t>
-  </si>
-  <si>
-    <t>Interest_OptionName2</t>
-  </si>
-  <si>
-    <t>Interest_RateBasis2</t>
-  </si>
-  <si>
-    <t>Interest_FormulaText2</t>
-  </si>
-  <si>
-    <t>Interest_Facility_Percent2</t>
-  </si>
-  <si>
-    <t>Establish Line Fee</t>
-  </si>
-  <si>
-    <t>Line Fee</t>
-  </si>
-  <si>
-    <t>Matrix</t>
-  </si>
-  <si>
-    <t>Financial Ratio</t>
-  </si>
-  <si>
-    <t>Leverage Ratio (LR)</t>
-  </si>
-  <si>
-    <t>0.45</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>Percent</t>
-  </si>
-  <si>
-    <t>0.725000</t>
-  </si>
-  <si>
-    <t>Maximum</t>
-  </si>
-  <si>
-    <t>0.775000</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>HigherOf(BBSY,0%)</t>
-  </si>
-  <si>
-    <t>01-Oct-2019</t>
-  </si>
-  <si>
     <t>InterestPricingOption</t>
   </si>
   <si>
@@ -1411,9 +1492,6 @@
     <t>275,750</t>
   </si>
   <si>
-    <t>27-Dec-2019</t>
-  </si>
-  <si>
     <t>Establishment/Extension Fee</t>
   </si>
   <si>
@@ -1423,100 +1501,28 @@
     <t>The Upfront Fee would be capitalized as a new drawdown</t>
   </si>
   <si>
-    <t>01-Sep-2019</t>
-  </si>
-  <si>
-    <t>0.360000</t>
-  </si>
-  <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>0.36%</t>
-  </si>
-  <si>
-    <t>PenaltySpread_Value</t>
-  </si>
-  <si>
-    <t>PenaltySpread_Status</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>Off</t>
-  </si>
-  <si>
-    <t>11,615,916.98</t>
-  </si>
-  <si>
-    <t>ScheduleItem_Amount1</t>
-  </si>
-  <si>
-    <t>ScheduleItem_PercentofCurrent1</t>
-  </si>
-  <si>
-    <t>ScheduleItem_Date1</t>
-  </si>
-  <si>
-    <t>ScheduleItem_Amount2</t>
-  </si>
-  <si>
-    <t>ScheduleItem_PercentofCurrent2</t>
-  </si>
-  <si>
-    <t>ScheduleItem_Date2</t>
-  </si>
-  <si>
-    <t>ScheduleItem_Amount3</t>
-  </si>
-  <si>
-    <t>ScheduleItem_PercentofCurrent3</t>
-  </si>
-  <si>
-    <t>ScheduleItem_Date3</t>
-  </si>
-  <si>
-    <t>10,953,340.60</t>
-  </si>
-  <si>
-    <t>20-Jan-2020</t>
-  </si>
-  <si>
-    <t>12,123,123.23</t>
-  </si>
-  <si>
-    <t>18-Jun-2020</t>
-  </si>
-  <si>
-    <t>Amortization_Frequency</t>
-  </si>
-  <si>
-    <t>Non Standard</t>
-  </si>
-  <si>
-    <t>Final</t>
-  </si>
-  <si>
-    <t>Amortization_Status</t>
-  </si>
-  <si>
-    <t>Amortization_ScheduleType</t>
-  </si>
-  <si>
-    <t>Scheduled</t>
-  </si>
-  <si>
-    <t>ModifyScheduleItem_PercentofCurrent</t>
-  </si>
-  <si>
-    <t>570,007,619.19</t>
-  </si>
-  <si>
-    <t>ModifyScheduleItem_Date</t>
-  </si>
-  <si>
-    <t>ModifyScheduleItem_Amount</t>
+    <t>444,767,919.14</t>
+  </si>
+  <si>
+    <t>9,218,981.73</t>
+  </si>
+  <si>
+    <t>8,693,127.46</t>
+  </si>
+  <si>
+    <t>ScheduleItem_Amount4</t>
+  </si>
+  <si>
+    <t>ScheduleItem_PercentofCurrent4</t>
+  </si>
+  <si>
+    <t>ScheduleItem_Date4</t>
+  </si>
+  <si>
+    <t>18-Mar-2020</t>
+  </si>
+  <si>
+    <t>8,626,844.21</t>
   </si>
 </sst>
 </file>
@@ -1694,7 +1700,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1737,9 +1743,7 @@
     <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
@@ -2219,34 +2223,34 @@
     <col min="54" max="54" width="14" style="9" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="25.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="18.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="20.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="22.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="16" style="42" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="26" style="42" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="26.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="22.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="20.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="35.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="34.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="31.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="22" style="42" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="14.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="17.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="28.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="25.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="19.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="28.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="26.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="19.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="38.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="18.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="34.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="28.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="25.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="35.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="10.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="13.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="18.85546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="20.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="22.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="16" style="40" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="26" style="40" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="26.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="22.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="20.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="35.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="34.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="31.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="22" style="40" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="14.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="17.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="28.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="25.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="19.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="28.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="26.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="19.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="38.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="18.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="34.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="28.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="25.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="35.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="10.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="13.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="18.85546875" style="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:84" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2615,7 +2619,7 @@
       <c r="AM2" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="AN2" s="45" t="s">
+      <c r="AN2" s="43" t="s">
         <v>115</v>
       </c>
       <c r="AO2" s="9" t="s">
@@ -2669,7 +2673,7 @@
       <c r="BE2" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="BF2" s="45">
+      <c r="BF2" s="43">
         <v>11111111</v>
       </c>
       <c r="BG2" s="9" t="s">
@@ -2726,10 +2730,10 @@
       <c r="BX2" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="BY2" s="45" t="s">
+      <c r="BY2" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="BZ2" s="46" t="s">
+      <c r="BZ2" s="44" t="s">
         <v>137</v>
       </c>
       <c r="CA2" s="9" t="s">
@@ -2741,13 +2745,13 @@
       <c r="CC2" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="CD2" s="47" t="s">
+      <c r="CD2" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="CE2" s="47" t="s">
+      <c r="CE2" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="CF2" s="48" t="s">
+      <c r="CF2" s="46" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2838,14 +2842,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="38.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26" style="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21" style="42" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.42578125" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.42578125" style="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -2856,25 +2860,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>453</v>
+        <v>480</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>454</v>
+        <v>481</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>455</v>
+        <v>482</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>456</v>
+        <v>483</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>457</v>
+        <v>484</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>355</v>
+        <v>448</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>356</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -2882,28 +2886,28 @@
         <v>84</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>458</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>460</v>
+        <v>485</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>486</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>290</v>
       </c>
       <c r="E2" t="s">
-        <v>461</v>
+        <v>487</v>
       </c>
       <c r="F2" t="s">
-        <v>462</v>
+        <v>488</v>
       </c>
       <c r="G2" t="s">
         <v>122</v>
       </c>
       <c r="H2" t="s">
-        <v>375</v>
+        <v>469</v>
       </c>
       <c r="I2" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -2993,385 +2997,385 @@
     <col min="70" max="70" width="24" style="27" bestFit="1" customWidth="1"/>
     <col min="71" max="71" width="13.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="11.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="73" max="100" width="9.140625" style="27" customWidth="1"/>
-    <col min="101" max="16384" width="9.140625" style="27"/>
+    <col min="73" max="101" width="9.140625" style="27" customWidth="1"/>
+    <col min="102" max="16384" width="9.140625" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:73" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="L1" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="M1" s="50" t="s">
+      <c r="M1" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="N1" s="50" t="s">
+      <c r="N1" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="O1" s="50" t="s">
+      <c r="O1" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="P1" s="50" t="s">
+      <c r="P1" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="Q1" s="50" t="s">
+      <c r="Q1" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="R1" s="50" t="s">
+      <c r="R1" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="S1" s="50" t="s">
+      <c r="S1" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="T1" s="50" t="s">
+      <c r="T1" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="U1" s="50" t="s">
+      <c r="U1" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="V1" s="50" t="s">
+      <c r="V1" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="W1" s="50" t="s">
+      <c r="W1" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="X1" s="50" t="s">
+      <c r="X1" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="Y1" s="50" t="s">
+      <c r="Y1" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="Z1" s="50" t="s">
+      <c r="Z1" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="AA1" s="50" t="s">
+      <c r="AA1" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="AB1" s="50" t="s">
+      <c r="AB1" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="AC1" s="50" t="s">
+      <c r="AC1" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="AD1" s="50" t="s">
+      <c r="AD1" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="AE1" s="50" t="s">
+      <c r="AE1" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="AF1" s="50" t="s">
+      <c r="AF1" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="AG1" s="50" t="s">
+      <c r="AG1" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="AH1" s="50" t="s">
+      <c r="AH1" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="AI1" s="50" t="s">
+      <c r="AI1" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="AJ1" s="50" t="s">
+      <c r="AJ1" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="AK1" s="50" t="s">
+      <c r="AK1" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="AL1" s="50" t="s">
+      <c r="AL1" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="AM1" s="50" t="s">
+      <c r="AM1" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="AN1" s="50" t="s">
+      <c r="AN1" s="48" t="s">
         <v>182</v>
       </c>
-      <c r="AO1" s="50" t="s">
+      <c r="AO1" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="AP1" s="50" t="s">
+      <c r="AP1" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="AQ1" s="50" t="s">
+      <c r="AQ1" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="AR1" s="50" t="s">
+      <c r="AR1" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="AS1" s="50" t="s">
+      <c r="AS1" s="48" t="s">
         <v>187</v>
       </c>
-      <c r="AT1" s="50" t="s">
+      <c r="AT1" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="AU1" s="50" t="s">
+      <c r="AU1" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="AV1" s="50" t="s">
+      <c r="AV1" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="AW1" s="50" t="s">
+      <c r="AW1" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="AX1" s="50" t="s">
+      <c r="AX1" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="AY1" s="50" t="s">
+      <c r="AY1" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="AZ1" s="50" t="s">
+      <c r="AZ1" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="BA1" s="50" t="s">
+      <c r="BA1" s="48" t="s">
         <v>195</v>
       </c>
-      <c r="BB1" s="50" t="s">
+      <c r="BB1" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="BC1" s="50" t="s">
+      <c r="BC1" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="BD1" s="50" t="s">
+      <c r="BD1" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="BE1" s="50" t="s">
+      <c r="BE1" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="BF1" s="50" t="s">
+      <c r="BF1" s="48" t="s">
         <v>200</v>
       </c>
-      <c r="BG1" s="50" t="s">
+      <c r="BG1" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="BH1" s="50" t="s">
+      <c r="BH1" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="BI1" s="76" t="s">
+      <c r="BI1" s="74" t="s">
         <v>203</v>
       </c>
-      <c r="BJ1" s="76" t="s">
+      <c r="BJ1" s="74" t="s">
         <v>204</v>
       </c>
       <c r="BT1" s="4"/>
       <c r="BU1" s="4"/>
     </row>
     <row r="2" spans="1:73" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="51" t="s">
         <v>205</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="51" t="s">
         <v>207</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="J2" s="53" t="s">
+      <c r="J2" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="K2" s="53" t="s">
+      <c r="K2" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="L2" s="54" t="s">
+      <c r="L2" s="52" t="s">
         <v>213</v>
       </c>
-      <c r="M2" s="54" t="s">
+      <c r="M2" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="N2" s="53" t="s">
+      <c r="N2" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="O2" s="53" t="s">
+      <c r="O2" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="P2" s="53" t="s">
+      <c r="P2" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="Q2" s="53" t="s">
+      <c r="Q2" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="R2" s="54" t="s">
+      <c r="R2" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="S2" s="54" t="s">
+      <c r="S2" s="52" t="s">
         <v>216</v>
       </c>
-      <c r="T2" s="55" t="s">
+      <c r="T2" s="53" t="s">
         <v>217</v>
       </c>
-      <c r="U2" s="55" t="s">
+      <c r="U2" s="53" t="s">
         <v>218</v>
       </c>
-      <c r="V2" s="53" t="s">
+      <c r="V2" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="W2" s="53" t="s">
+      <c r="W2" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="X2" s="53" t="s">
+      <c r="X2" s="51" t="s">
         <v>219</v>
       </c>
-      <c r="Y2" s="53" t="s">
+      <c r="Y2" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="Z2" s="53" t="s">
+      <c r="Z2" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="AA2" s="53" t="s">
+      <c r="AA2" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="AB2" s="53" t="s">
+      <c r="AB2" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="AC2" s="53" t="s">
+      <c r="AC2" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="AD2" s="53" t="s">
+      <c r="AD2" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="AE2" s="53" t="s">
+      <c r="AE2" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="AF2" s="52" t="s">
+      <c r="AF2" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="AG2" s="52" t="s">
+      <c r="AG2" s="50" t="s">
         <v>227</v>
       </c>
-      <c r="AH2" s="52" t="s">
+      <c r="AH2" s="50" t="s">
         <v>228</v>
       </c>
-      <c r="AI2" s="52" t="s">
+      <c r="AI2" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="AJ2" s="57" t="s">
+      <c r="AJ2" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="AK2" s="57" t="s">
+      <c r="AK2" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="AL2" s="57" t="s">
+      <c r="AL2" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="AM2" s="57" t="s">
+      <c r="AM2" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="AN2" s="57" t="s">
+      <c r="AN2" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="AO2" s="57" t="s">
+      <c r="AO2" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="AP2" s="52" t="s">
+      <c r="AP2" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="AQ2" s="52" t="s">
+      <c r="AQ2" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="AR2" s="57" t="s">
+      <c r="AR2" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="AS2" s="57" t="s">
+      <c r="AS2" s="55" t="s">
         <v>230</v>
       </c>
-      <c r="AT2" s="57" t="s">
+      <c r="AT2" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="AU2" s="57" t="s">
+      <c r="AU2" s="55" t="s">
         <v>232</v>
       </c>
-      <c r="AV2" s="57" t="s">
+      <c r="AV2" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="AW2" s="57" t="s">
+      <c r="AW2" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="AX2" s="57" t="s">
+      <c r="AX2" s="55" t="s">
         <v>233</v>
       </c>
-      <c r="AY2" s="57" t="s">
+      <c r="AY2" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="AZ2" s="57" t="s">
+      <c r="AZ2" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="BA2" s="57" t="s">
+      <c r="BA2" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="BB2" s="57" t="s">
+      <c r="BB2" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="BC2" s="57" t="s">
+      <c r="BC2" s="55" t="s">
         <v>232</v>
       </c>
-      <c r="BD2" s="52" t="s">
+      <c r="BD2" s="50" t="s">
         <v>234</v>
       </c>
-      <c r="BE2" s="52" t="s">
+      <c r="BE2" s="50" t="s">
         <v>235</v>
       </c>
-      <c r="BF2" s="52" t="s">
+      <c r="BF2" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="BG2" s="52" t="s">
+      <c r="BG2" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="BH2" s="52" t="s">
+      <c r="BH2" s="50" t="s">
         <v>227</v>
       </c>
-      <c r="BI2" s="56" t="s">
+      <c r="BI2" s="54" t="s">
         <v>236</v>
       </c>
-      <c r="BJ2" s="56" t="s">
+      <c r="BJ2" s="54" t="s">
         <v>236</v>
       </c>
       <c r="BK2" s="22"/>
@@ -3383,8 +3387,8 @@
       <c r="BQ2" s="27"/>
       <c r="BR2" s="28"/>
       <c r="BS2" s="29"/>
-      <c r="BT2" s="43"/>
-      <c r="BU2" s="43"/>
+      <c r="BT2" s="41"/>
+      <c r="BU2" s="41"/>
     </row>
     <row r="3" spans="1:73" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="25"/>
@@ -3470,282 +3474,282 @@
   </sheetPr>
   <dimension ref="A1:AM2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21" style="42" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="49.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="32" style="42" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="24.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="28.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="38" style="42" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="27.140625" style="42" customWidth="1"/>
-    <col min="29" max="29" width="23" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="23" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="20" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="23" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="20" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" style="40" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="49.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32" style="40" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="27.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="28.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="38" style="40" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="27.140625" style="40" customWidth="1"/>
+    <col min="29" max="29" width="23" style="40" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="31.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20" style="40" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="23" style="40" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="31.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20" style="40" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="23" style="40" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="31.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="20" style="40" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="19.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="27.140625" style="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="48" t="s">
         <v>237</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="49" t="s">
         <v>238</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="48" t="s">
         <v>239</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="48" t="s">
         <v>240</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="48" t="s">
         <v>241</v>
       </c>
-      <c r="H1" s="61" t="s">
+      <c r="H1" s="59" t="s">
         <v>242</v>
       </c>
-      <c r="I1" s="61" t="s">
+      <c r="I1" s="59" t="s">
         <v>243</v>
       </c>
-      <c r="J1" s="61" t="s">
+      <c r="J1" s="59" t="s">
         <v>244</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="48" t="s">
         <v>245</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="L1" s="48" t="s">
         <v>246</v>
       </c>
-      <c r="M1" s="50" t="s">
+      <c r="M1" s="48" t="s">
         <v>247</v>
       </c>
-      <c r="N1" s="50" t="s">
+      <c r="N1" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="O1" s="50" t="s">
+      <c r="O1" s="48" t="s">
         <v>249</v>
       </c>
-      <c r="P1" s="50" t="s">
+      <c r="P1" s="48" t="s">
         <v>250</v>
       </c>
-      <c r="Q1" s="50" t="s">
+      <c r="Q1" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="R1" s="50" t="s">
+      <c r="R1" s="48" t="s">
         <v>252</v>
       </c>
-      <c r="S1" s="50" t="s">
+      <c r="S1" s="48" t="s">
         <v>253</v>
       </c>
-      <c r="T1" s="50" t="s">
+      <c r="T1" s="48" t="s">
         <v>254</v>
       </c>
-      <c r="U1" s="50" t="s">
+      <c r="U1" s="48" t="s">
         <v>255</v>
       </c>
-      <c r="V1" s="50" t="s">
+      <c r="V1" s="48" t="s">
         <v>256</v>
       </c>
-      <c r="W1" s="50" t="s">
-        <v>486</v>
-      </c>
-      <c r="X1" s="50" t="s">
-        <v>489</v>
-      </c>
-      <c r="Y1" s="50" t="s">
-        <v>490</v>
-      </c>
-      <c r="Z1" s="50" t="s">
-        <v>495</v>
-      </c>
-      <c r="AA1" s="50" t="s">
-        <v>492</v>
-      </c>
-      <c r="AB1" s="50" t="s">
-        <v>494</v>
-      </c>
-      <c r="AC1" s="50" t="s">
-        <v>473</v>
-      </c>
-      <c r="AD1" s="50" t="s">
-        <v>474</v>
-      </c>
-      <c r="AE1" s="50" t="s">
-        <v>475</v>
-      </c>
-      <c r="AF1" s="50" t="s">
-        <v>476</v>
-      </c>
-      <c r="AG1" s="50" t="s">
-        <v>477</v>
-      </c>
-      <c r="AH1" s="50" t="s">
-        <v>478</v>
-      </c>
-      <c r="AI1" s="50" t="s">
-        <v>479</v>
-      </c>
-      <c r="AJ1" s="50" t="s">
-        <v>480</v>
-      </c>
-      <c r="AK1" s="50" t="s">
-        <v>481</v>
-      </c>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
+      <c r="W1" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="X1" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y1" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z1" s="48" t="s">
+        <v>260</v>
+      </c>
+      <c r="AA1" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="AB1" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="AC1" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="AD1" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="AE1" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="AF1" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="AG1" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="AH1" s="48" t="s">
+        <v>268</v>
+      </c>
+      <c r="AI1" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="AJ1" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="AK1" s="48" t="s">
+        <v>271</v>
+      </c>
+      <c r="AL1" s="48"/>
+      <c r="AM1" s="48"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="53" t="s">
-        <v>257</v>
-      </c>
-      <c r="C2" s="78" t="s">
-        <v>258</v>
-      </c>
-      <c r="D2" s="78" t="s">
-        <v>259</v>
-      </c>
-      <c r="E2" s="53" t="s">
-        <v>260</v>
-      </c>
-      <c r="F2" s="79" t="s">
-        <v>261</v>
-      </c>
-      <c r="G2" s="78" t="s">
+      <c r="B2" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="C2" s="76" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2" s="76" t="s">
+        <v>274</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="F2" s="77" t="s">
+        <v>276</v>
+      </c>
+      <c r="G2" s="76" t="s">
         <v>128</v>
       </c>
-      <c r="H2" s="67" t="s">
-        <v>262</v>
-      </c>
-      <c r="I2" s="77" t="s">
-        <v>263</v>
-      </c>
-      <c r="J2" s="67" t="s">
+      <c r="H2" s="65" t="s">
+        <v>277</v>
+      </c>
+      <c r="I2" s="75" t="s">
+        <v>278</v>
+      </c>
+      <c r="J2" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="80" t="s">
+      <c r="K2" s="78" t="s">
         <v>217</v>
       </c>
-      <c r="L2" s="80" t="s">
+      <c r="L2" s="78" t="s">
         <v>217</v>
       </c>
-      <c r="M2" s="80" t="s">
-        <v>264</v>
-      </c>
-      <c r="N2" s="80" t="s">
-        <v>264</v>
-      </c>
-      <c r="O2" s="78" t="s">
-        <v>265</v>
-      </c>
-      <c r="P2" s="78" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q2" s="78" t="s">
-        <v>267</v>
-      </c>
-      <c r="R2" s="78" t="s">
-        <v>266</v>
-      </c>
-      <c r="S2" s="78" t="s">
-        <v>268</v>
-      </c>
-      <c r="T2" s="78" t="s">
-        <v>262</v>
-      </c>
-      <c r="U2" s="81" t="s">
-        <v>269</v>
-      </c>
-      <c r="V2" s="78" t="s">
-        <v>266</v>
-      </c>
-      <c r="W2" s="78" t="s">
-        <v>487</v>
-      </c>
-      <c r="X2" s="78" t="s">
-        <v>488</v>
-      </c>
-      <c r="Y2" s="78" t="s">
-        <v>491</v>
-      </c>
-      <c r="Z2" s="80" t="s">
-        <v>493</v>
-      </c>
-      <c r="AA2" s="78" t="s">
+      <c r="M2" s="78" t="s">
+        <v>279</v>
+      </c>
+      <c r="N2" s="78" t="s">
+        <v>279</v>
+      </c>
+      <c r="O2" s="76" t="s">
+        <v>280</v>
+      </c>
+      <c r="P2" s="76" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q2" s="76" t="s">
+        <v>282</v>
+      </c>
+      <c r="R2" s="76" t="s">
+        <v>281</v>
+      </c>
+      <c r="S2" s="76" t="s">
+        <v>283</v>
+      </c>
+      <c r="T2" s="76" t="s">
+        <v>277</v>
+      </c>
+      <c r="U2" s="79" t="s">
+        <v>284</v>
+      </c>
+      <c r="V2" s="76" t="s">
+        <v>281</v>
+      </c>
+      <c r="W2" s="76" t="s">
+        <v>285</v>
+      </c>
+      <c r="X2" s="76" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y2" s="76" t="s">
+        <v>287</v>
+      </c>
+      <c r="Z2" s="78" t="s">
+        <v>288</v>
+      </c>
+      <c r="AA2" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="AB2" s="80" t="s">
-        <v>264</v>
-      </c>
-      <c r="AC2" s="80" t="s">
-        <v>472</v>
-      </c>
-      <c r="AD2" s="78" t="s">
+      <c r="AB2" s="78" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC2" s="78" t="s">
+        <v>289</v>
+      </c>
+      <c r="AD2" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="AE2" s="80" t="s">
-        <v>460</v>
-      </c>
-      <c r="AF2" s="80" t="s">
-        <v>482</v>
-      </c>
-      <c r="AG2" s="78" t="s">
+      <c r="AE2" s="78" t="s">
+        <v>290</v>
+      </c>
+      <c r="AF2" s="78" t="s">
+        <v>291</v>
+      </c>
+      <c r="AG2" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="AH2" s="80" t="s">
-        <v>483</v>
-      </c>
-      <c r="AI2" s="80" t="s">
-        <v>484</v>
-      </c>
-      <c r="AJ2" s="78" t="s">
+      <c r="AH2" s="78" t="s">
+        <v>292</v>
+      </c>
+      <c r="AI2" s="78" t="s">
+        <v>293</v>
+      </c>
+      <c r="AJ2" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="AK2" s="80" t="s">
-        <v>485</v>
-      </c>
-      <c r="AL2" s="78"/>
-      <c r="AM2" s="78"/>
+      <c r="AK2" s="78" t="s">
+        <v>294</v>
+      </c>
+      <c r="AL2" s="76"/>
+      <c r="AM2" s="76"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -3763,159 +3767,159 @@
   </sheetPr>
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="21.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="21" style="42" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28.140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="21.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="21" style="40" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28.140625" style="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36" t="s">
-        <v>270</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>274</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>275</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>276</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>277</v>
-      </c>
-      <c r="K1" s="36" t="s">
-        <v>278</v>
-      </c>
-      <c r="L1" s="36" t="s">
-        <v>279</v>
-      </c>
-      <c r="M1" s="36" t="s">
-        <v>468</v>
-      </c>
-      <c r="N1" s="36" t="s">
-        <v>469</v>
-      </c>
-      <c r="O1" s="36" t="s">
-        <v>280</v>
-      </c>
-      <c r="P1" s="36" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q1" s="36" t="s">
-        <v>282</v>
-      </c>
-      <c r="R1" s="36" t="s">
-        <v>283</v>
-      </c>
-      <c r="S1" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="T1" s="36" t="s">
-        <v>285</v>
+      <c r="C1" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>304</v>
+      </c>
+      <c r="M1" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="N1" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="O1" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="P1" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q1" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="R1" s="34" t="s">
+        <v>310</v>
+      </c>
+      <c r="S1" s="34" t="s">
+        <v>311</v>
+      </c>
+      <c r="T1" s="34" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="38" t="s">
-        <v>286</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>287</v>
-      </c>
-      <c r="D2" s="39" t="s">
+      <c r="B2" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="D2" s="37" t="s">
         <v>234</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="F2" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="G2" s="40" t="s">
-        <v>467</v>
-      </c>
-      <c r="H2" s="39" t="s">
-        <v>465</v>
+        <v>315</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>316</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>318</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="J2" s="39" t="s">
+        <v>319</v>
+      </c>
+      <c r="J2" s="37" t="s">
         <v>224</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="M2" s="33" t="s">
-        <v>470</v>
-      </c>
-      <c r="N2" s="33" t="s">
-        <v>471</v>
+        <v>315</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="M2" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="N2" s="32" t="s">
+        <v>322</v>
       </c>
       <c r="O2" t="s">
-        <v>291</v>
-      </c>
-      <c r="P2" s="33" t="s">
-        <v>464</v>
-      </c>
-      <c r="Q2" s="33" t="s">
-        <v>293</v>
-      </c>
-      <c r="R2" s="33" t="s">
-        <v>294</v>
+        <v>323</v>
+      </c>
+      <c r="P2" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q2" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="R2" s="32" t="s">
+        <v>326</v>
       </c>
       <c r="S2" t="s">
-        <v>295</v>
-      </c>
-      <c r="T2" s="33" t="s">
-        <v>296</v>
+        <v>327</v>
+      </c>
+      <c r="T2" s="32" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="26" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G26" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -3925,262 +3929,308 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AH3"/>
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:AN2"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AJ6" sqref="AJ6"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AL1" sqref="AL1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="71" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="71" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" style="71" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" style="71" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="71" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="71" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21" style="71" customWidth="1"/>
-    <col min="10" max="10" width="21" style="72" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.5703125" style="72" customWidth="1"/>
-    <col min="12" max="13" width="19.42578125" style="72" customWidth="1"/>
-    <col min="14" max="14" width="21.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.28515625" style="72" customWidth="1"/>
-    <col min="18" max="19" width="21.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.85546875" style="72" customWidth="1"/>
-    <col min="21" max="21" width="26.28515625" style="72" customWidth="1"/>
-    <col min="22" max="22" width="34.85546875" style="72" customWidth="1"/>
-    <col min="23" max="23" width="17.7109375" style="71" customWidth="1"/>
-    <col min="24" max="24" width="26.28515625" style="71" customWidth="1"/>
-    <col min="25" max="25" width="34.85546875" style="71" customWidth="1"/>
-    <col min="26" max="26" width="26.5703125" style="71" customWidth="1"/>
-    <col min="27" max="27" width="27.28515625" style="71" customWidth="1"/>
-    <col min="28" max="28" width="20" style="71" customWidth="1"/>
-    <col min="29" max="29" width="36.140625" style="71" customWidth="1"/>
-    <col min="30" max="30" width="18.140625" style="71" customWidth="1"/>
-    <col min="31" max="31" width="12.7109375" style="74" customWidth="1"/>
-    <col min="32" max="32" width="11.140625" style="74" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="23" style="71" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.85546875" style="71" bestFit="1" customWidth="1"/>
-    <col min="35" max="50" width="9.140625" style="75" customWidth="1"/>
-    <col min="51" max="16384" width="9.140625" style="75"/>
+    <col min="1" max="1" width="6.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" style="40" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="49.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32" style="40" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="27.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="28.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="38" style="40" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="27.140625" style="40" customWidth="1"/>
+    <col min="29" max="29" width="23" style="40" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="31.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20" style="40" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="23" style="40" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="31.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20" style="40" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="23" style="40" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="31.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="20" style="40" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23" style="40" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="31.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="20" style="40" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="9.140625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="60" t="s">
-        <v>147</v>
-      </c>
-      <c r="D1" s="60" t="s">
+      <c r="C1" s="48" t="s">
+        <v>237</v>
+      </c>
+      <c r="D1" s="49" t="s">
         <v>238</v>
       </c>
-      <c r="E1" s="61" t="s">
-        <v>298</v>
-      </c>
-      <c r="F1" s="61" t="s">
-        <v>299</v>
-      </c>
-      <c r="G1" s="61" t="s">
-        <v>300</v>
-      </c>
-      <c r="H1" s="61" t="s">
-        <v>301</v>
-      </c>
-      <c r="I1" s="61" t="s">
-        <v>302</v>
-      </c>
-      <c r="J1" s="61" t="s">
-        <v>303</v>
-      </c>
-      <c r="K1" s="62" t="s">
-        <v>304</v>
-      </c>
-      <c r="L1" s="62" t="s">
-        <v>305</v>
-      </c>
-      <c r="M1" s="62" t="s">
-        <v>306</v>
-      </c>
-      <c r="N1" s="62" t="s">
-        <v>307</v>
-      </c>
-      <c r="O1" s="62" t="s">
-        <v>308</v>
-      </c>
-      <c r="P1" s="62" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q1" s="62" t="s">
-        <v>310</v>
-      </c>
-      <c r="R1" s="62" t="s">
-        <v>311</v>
-      </c>
-      <c r="S1" s="62" t="s">
-        <v>312</v>
-      </c>
-      <c r="T1" s="62" t="s">
-        <v>165</v>
-      </c>
-      <c r="U1" s="62" t="s">
-        <v>313</v>
-      </c>
-      <c r="V1" s="62" t="s">
-        <v>314</v>
-      </c>
-      <c r="W1" s="61" t="s">
-        <v>315</v>
-      </c>
-      <c r="X1" s="61" t="s">
-        <v>313</v>
-      </c>
-      <c r="Y1" s="61" t="s">
-        <v>314</v>
-      </c>
-      <c r="Z1" s="61" t="s">
-        <v>316</v>
-      </c>
-      <c r="AA1" s="61" t="s">
-        <v>317</v>
-      </c>
-      <c r="AB1" s="61" t="s">
-        <v>318</v>
-      </c>
-      <c r="AC1" s="59" t="s">
-        <v>319</v>
-      </c>
-      <c r="AD1" s="59" t="s">
-        <v>320</v>
-      </c>
-      <c r="AE1" s="59" t="s">
-        <v>203</v>
-      </c>
-      <c r="AF1" s="59" t="s">
-        <v>204</v>
-      </c>
-      <c r="AG1" s="59" t="s">
-        <v>321</v>
-      </c>
-      <c r="AH1" s="59" t="s">
-        <v>322</v>
+      <c r="E1" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="F1" s="48" t="s">
+        <v>240</v>
+      </c>
+      <c r="G1" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="H1" s="59" t="s">
+        <v>242</v>
+      </c>
+      <c r="I1" s="59" t="s">
+        <v>243</v>
+      </c>
+      <c r="J1" s="59" t="s">
+        <v>244</v>
+      </c>
+      <c r="K1" s="48" t="s">
+        <v>245</v>
+      </c>
+      <c r="L1" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="M1" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="N1" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="O1" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="P1" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q1" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="R1" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="S1" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="T1" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="U1" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="V1" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="W1" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="X1" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y1" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z1" s="48" t="s">
+        <v>260</v>
+      </c>
+      <c r="AA1" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="AB1" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="AC1" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="AD1" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="AE1" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="AF1" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="AG1" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="AH1" s="48" t="s">
+        <v>268</v>
+      </c>
+      <c r="AI1" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="AJ1" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="AK1" s="48" t="s">
+        <v>271</v>
+      </c>
+      <c r="AL1" s="48" t="s">
+        <v>493</v>
+      </c>
+      <c r="AM1" s="48" t="s">
+        <v>494</v>
+      </c>
+      <c r="AN1" s="48" t="s">
+        <v>495</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="64" t="s">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A2" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="64" t="s">
-        <v>323</v>
-      </c>
-      <c r="C2" s="65" t="s">
-        <v>324</v>
-      </c>
-      <c r="D2" s="65" t="s">
-        <v>325</v>
-      </c>
-      <c r="E2" s="65" t="s">
-        <v>326</v>
-      </c>
-      <c r="F2" s="65" t="s">
-        <v>327</v>
-      </c>
-      <c r="G2" s="64" t="s">
-        <v>263</v>
-      </c>
-      <c r="H2" s="66" t="s">
-        <v>328</v>
-      </c>
-      <c r="I2" s="67" t="s">
+      <c r="B2" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="C2" s="76" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2" s="76" t="s">
+        <v>331</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="F2" s="77" t="s">
+        <v>332</v>
+      </c>
+      <c r="G2" s="76" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2" s="65" t="s">
+        <v>277</v>
+      </c>
+      <c r="I2" s="75" t="s">
+        <v>278</v>
+      </c>
+      <c r="J2" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="J2" s="67" t="s">
-        <v>112</v>
-      </c>
-      <c r="K2" s="67" t="s">
-        <v>329</v>
-      </c>
-      <c r="L2" s="67" t="s">
-        <v>330</v>
-      </c>
-      <c r="M2" s="67" t="s">
-        <v>331</v>
-      </c>
-      <c r="N2" s="67" t="s">
-        <v>332</v>
-      </c>
-      <c r="O2" s="68" t="s">
-        <v>333</v>
-      </c>
-      <c r="P2" s="67" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q2" s="67" t="s">
-        <v>335</v>
-      </c>
-      <c r="R2" s="69" t="s">
-        <v>215</v>
-      </c>
-      <c r="S2" s="67" t="s">
-        <v>336</v>
-      </c>
-      <c r="T2" s="67" t="s">
-        <v>337</v>
-      </c>
-      <c r="U2" s="67" t="s">
-        <v>338</v>
-      </c>
-      <c r="V2" s="67" t="s">
-        <v>107</v>
-      </c>
-      <c r="W2" s="67" t="s">
-        <v>337</v>
-      </c>
-      <c r="X2" s="67" t="s">
-        <v>338</v>
-      </c>
-      <c r="Y2" s="67" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z2" s="68" t="s">
-        <v>339</v>
-      </c>
-      <c r="AA2" s="70" t="s">
-        <v>340</v>
-      </c>
-      <c r="AB2" s="70" t="s">
-        <v>333</v>
-      </c>
-      <c r="AC2" s="69" t="s">
-        <v>341</v>
-      </c>
-      <c r="AD2" s="69" t="s">
-        <v>342</v>
-      </c>
-      <c r="AE2" s="70" t="s">
-        <v>333</v>
-      </c>
-      <c r="AF2" s="70" t="s">
-        <v>333</v>
-      </c>
-      <c r="AG2" s="69" t="s">
+      <c r="K2" s="78" t="s">
+        <v>217</v>
+      </c>
+      <c r="L2" s="78" t="s">
+        <v>217</v>
+      </c>
+      <c r="M2" s="78" t="s">
+        <v>279</v>
+      </c>
+      <c r="N2" s="78" t="s">
+        <v>279</v>
+      </c>
+      <c r="O2" s="76" t="s">
+        <v>280</v>
+      </c>
+      <c r="P2" s="76" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q2" s="76" t="s">
+        <v>282</v>
+      </c>
+      <c r="R2" s="76" t="s">
+        <v>281</v>
+      </c>
+      <c r="S2" s="76" t="s">
+        <v>283</v>
+      </c>
+      <c r="T2" s="76" t="s">
+        <v>277</v>
+      </c>
+      <c r="U2" s="79" t="s">
+        <v>284</v>
+      </c>
+      <c r="V2" s="76" t="s">
+        <v>281</v>
+      </c>
+      <c r="W2" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="AH2" s="69" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="P3" s="73"/>
+      <c r="X2" s="76" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y2" s="76" t="s">
+        <v>287</v>
+      </c>
+      <c r="Z2" s="78" t="s">
+        <v>490</v>
+      </c>
+      <c r="AA2" s="76" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB2" s="78" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC2" s="78" t="s">
+        <v>491</v>
+      </c>
+      <c r="AD2" s="76" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE2" s="78" t="s">
+        <v>290</v>
+      </c>
+      <c r="AF2" s="78" t="s">
+        <v>492</v>
+      </c>
+      <c r="AG2" s="76" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH2" s="78" t="s">
+        <v>292</v>
+      </c>
+      <c r="AI2" s="78" t="s">
+        <v>492</v>
+      </c>
+      <c r="AJ2" s="76" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK2" s="78" t="s">
+        <v>496</v>
+      </c>
+      <c r="AL2" s="78" t="s">
+        <v>497</v>
+      </c>
+      <c r="AM2" s="76" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN2" s="78" t="s">
+        <v>294</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation showInputMessage="1" showErrorMessage="1" promptTitle="Date Format" prompt="ddmmyy" sqref="K2:M2" xr:uid="{00000000-0002-0000-0400-000000000000}"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
@@ -4188,373 +4238,6 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AA2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="42" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.28515625" style="42" customWidth="1"/>
-    <col min="13" max="13" width="21.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21" style="42" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="37.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26" style="42" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="31.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.28515625" style="42" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>344</v>
-      </c>
-      <c r="E1" s="44" t="s">
-        <v>345</v>
-      </c>
-      <c r="F1" s="44" t="s">
-        <v>346</v>
-      </c>
-      <c r="G1" s="44" t="s">
-        <v>347</v>
-      </c>
-      <c r="H1" s="44" t="s">
-        <v>348</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>349</v>
-      </c>
-      <c r="J1" s="44" t="s">
-        <v>350</v>
-      </c>
-      <c r="K1" s="44" t="s">
-        <v>351</v>
-      </c>
-      <c r="L1" s="44" t="s">
-        <v>352</v>
-      </c>
-      <c r="M1" s="44" t="s">
-        <v>353</v>
-      </c>
-      <c r="N1" s="44" t="s">
-        <v>354</v>
-      </c>
-      <c r="O1" s="44" t="s">
-        <v>355</v>
-      </c>
-      <c r="P1" s="44" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q1" s="44" t="s">
-        <v>357</v>
-      </c>
-      <c r="R1" s="44" t="s">
-        <v>358</v>
-      </c>
-      <c r="S1" s="44" t="s">
-        <v>359</v>
-      </c>
-      <c r="T1" s="44" t="s">
-        <v>360</v>
-      </c>
-      <c r="U1" s="44" t="s">
-        <v>361</v>
-      </c>
-      <c r="V1" s="44" t="s">
-        <v>362</v>
-      </c>
-      <c r="W1" s="44" t="s">
-        <v>363</v>
-      </c>
-      <c r="X1" s="44" t="s">
-        <v>364</v>
-      </c>
-      <c r="Y1" s="44" t="s">
-        <v>365</v>
-      </c>
-      <c r="Z1" s="44" t="s">
-        <v>366</v>
-      </c>
-      <c r="AA1" s="44" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>368</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="E2" t="s">
-        <v>265</v>
-      </c>
-      <c r="F2" t="s">
-        <v>224</v>
-      </c>
-      <c r="G2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>370</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>371</v>
-      </c>
-      <c r="K2" t="s">
-        <v>372</v>
-      </c>
-      <c r="L2" t="s">
-        <v>120</v>
-      </c>
-      <c r="M2" t="s">
-        <v>373</v>
-      </c>
-      <c r="N2" s="33" t="s">
-        <v>374</v>
-      </c>
-      <c r="O2" t="s">
-        <v>375</v>
-      </c>
-      <c r="P2" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>377</v>
-      </c>
-      <c r="R2" s="33" t="s">
-        <v>370</v>
-      </c>
-      <c r="S2" s="33" t="s">
-        <v>370</v>
-      </c>
-      <c r="T2" s="33" t="s">
-        <v>370</v>
-      </c>
-      <c r="U2" s="33" t="s">
-        <v>370</v>
-      </c>
-      <c r="V2" s="33" t="s">
-        <v>378</v>
-      </c>
-      <c r="W2" s="33" t="s">
-        <v>379</v>
-      </c>
-      <c r="X2" s="33" t="s">
-        <v>380</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>381</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>382</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:S2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" style="42" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18" style="42" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="32" style="42" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.7109375" style="42" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>238</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>383</v>
-      </c>
-      <c r="C2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D2" t="s">
-        <v>385</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>386</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>387</v>
-      </c>
-      <c r="G2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>388</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>388</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>389</v>
-      </c>
-      <c r="K2" s="33" t="s">
-        <v>390</v>
-      </c>
-      <c r="L2" t="s">
-        <v>265</v>
-      </c>
-      <c r="M2" t="s">
-        <v>266</v>
-      </c>
-      <c r="N2" t="s">
-        <v>391</v>
-      </c>
-      <c r="O2" t="s">
-        <v>266</v>
-      </c>
-      <c r="P2" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>262</v>
-      </c>
-      <c r="R2" s="34" t="s">
-        <v>269</v>
-      </c>
-      <c r="S2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation showInputMessage="1" showErrorMessage="1" promptTitle="Date Format" prompt="ddmmyy" sqref="H2:K2" xr:uid="{00000000-0002-0000-0600-000000000000}"/>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -4566,250 +4249,250 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="31.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="30.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="31.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="27.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="30.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="22.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="39.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="36.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="33.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="38.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="39.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="18.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="22.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="21.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="18.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="39.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="36.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="33.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="38.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="39.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="22.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="21.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="21.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="24.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="25.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="23.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="29.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="19.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="28.140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="30.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="31.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="30.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="39.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="36.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="33.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="38.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="39.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="22.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="21.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="24.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="39.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="36.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="33.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="38.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="39.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="22.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="21.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="18.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="21.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="24.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="25.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="23.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="29.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="19.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="28.140625" style="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36" t="s">
-        <v>270</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>392</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>394</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>395</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>396</v>
-      </c>
-      <c r="K1" s="36" t="s">
-        <v>397</v>
-      </c>
-      <c r="L1" s="36" t="s">
-        <v>398</v>
-      </c>
-      <c r="M1" s="36" t="s">
-        <v>399</v>
-      </c>
-      <c r="N1" s="36" t="s">
-        <v>400</v>
-      </c>
-      <c r="O1" s="36" t="s">
-        <v>401</v>
-      </c>
-      <c r="P1" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q1" s="36" t="s">
-        <v>403</v>
-      </c>
-      <c r="R1" s="36" t="s">
-        <v>404</v>
-      </c>
-      <c r="S1" s="36" t="s">
-        <v>405</v>
-      </c>
-      <c r="T1" s="36" t="s">
-        <v>406</v>
-      </c>
-      <c r="U1" s="36" t="s">
-        <v>407</v>
-      </c>
-      <c r="V1" s="36" t="s">
-        <v>408</v>
-      </c>
-      <c r="W1" s="36" t="s">
-        <v>409</v>
-      </c>
-      <c r="X1" s="36" t="s">
-        <v>410</v>
-      </c>
-      <c r="Y1" s="36" t="s">
-        <v>411</v>
-      </c>
-      <c r="Z1" s="36" t="s">
-        <v>412</v>
-      </c>
-      <c r="AA1" s="36" t="s">
-        <v>413</v>
-      </c>
-      <c r="AB1" s="41" t="s">
-        <v>414</v>
-      </c>
-      <c r="AC1" s="41" t="s">
-        <v>415</v>
-      </c>
-      <c r="AD1" s="41" t="s">
-        <v>416</v>
-      </c>
-      <c r="AE1" s="41" t="s">
-        <v>417</v>
-      </c>
-      <c r="AF1" s="41" t="s">
-        <v>418</v>
-      </c>
-      <c r="AG1" s="41" t="s">
-        <v>419</v>
-      </c>
-      <c r="AH1" s="41" t="s">
-        <v>420</v>
-      </c>
-      <c r="AI1" s="41" t="s">
-        <v>421</v>
-      </c>
-      <c r="AJ1" s="41" t="s">
-        <v>422</v>
-      </c>
-      <c r="AK1" s="41" t="s">
-        <v>423</v>
-      </c>
-      <c r="AL1" s="41" t="s">
-        <v>424</v>
-      </c>
-      <c r="AM1" s="41" t="s">
-        <v>425</v>
-      </c>
-      <c r="AN1" s="41" t="s">
-        <v>426</v>
-      </c>
-      <c r="AO1" s="41" t="s">
-        <v>427</v>
-      </c>
-      <c r="AP1" s="41" t="s">
-        <v>428</v>
-      </c>
-      <c r="AQ1" s="41" t="s">
-        <v>429</v>
-      </c>
-      <c r="AR1" s="41" t="s">
-        <v>430</v>
-      </c>
-      <c r="AS1" s="41" t="s">
-        <v>431</v>
-      </c>
-      <c r="AT1" s="41" t="s">
-        <v>432</v>
-      </c>
-      <c r="AU1" s="41" t="s">
-        <v>433</v>
-      </c>
-      <c r="AV1" s="41" t="s">
-        <v>434</v>
-      </c>
-      <c r="AW1" s="41" t="s">
-        <v>435</v>
-      </c>
-      <c r="AX1" s="36" t="s">
-        <v>281</v>
-      </c>
-      <c r="AY1" s="36" t="s">
-        <v>282</v>
-      </c>
-      <c r="AZ1" s="36" t="s">
-        <v>283</v>
-      </c>
-      <c r="BA1" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="BB1" s="36" t="s">
-        <v>285</v>
+      <c r="C1" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>333</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>334</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>335</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>336</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>337</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>338</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="M1" s="34" t="s">
+        <v>340</v>
+      </c>
+      <c r="N1" s="34" t="s">
+        <v>341</v>
+      </c>
+      <c r="O1" s="34" t="s">
+        <v>342</v>
+      </c>
+      <c r="P1" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q1" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="R1" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="S1" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="T1" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="U1" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="V1" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="W1" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="X1" s="34" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y1" s="34" t="s">
+        <v>352</v>
+      </c>
+      <c r="Z1" s="34" t="s">
+        <v>353</v>
+      </c>
+      <c r="AA1" s="34" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB1" s="39" t="s">
+        <v>355</v>
+      </c>
+      <c r="AC1" s="39" t="s">
+        <v>356</v>
+      </c>
+      <c r="AD1" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="AE1" s="39" t="s">
+        <v>358</v>
+      </c>
+      <c r="AF1" s="39" t="s">
+        <v>359</v>
+      </c>
+      <c r="AG1" s="39" t="s">
+        <v>360</v>
+      </c>
+      <c r="AH1" s="39" t="s">
+        <v>361</v>
+      </c>
+      <c r="AI1" s="39" t="s">
+        <v>362</v>
+      </c>
+      <c r="AJ1" s="39" t="s">
+        <v>363</v>
+      </c>
+      <c r="AK1" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="AL1" s="39" t="s">
+        <v>365</v>
+      </c>
+      <c r="AM1" s="39" t="s">
+        <v>366</v>
+      </c>
+      <c r="AN1" s="39" t="s">
+        <v>367</v>
+      </c>
+      <c r="AO1" s="39" t="s">
+        <v>368</v>
+      </c>
+      <c r="AP1" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="AQ1" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="AR1" s="39" t="s">
+        <v>371</v>
+      </c>
+      <c r="AS1" s="39" t="s">
+        <v>372</v>
+      </c>
+      <c r="AT1" s="39" t="s">
+        <v>373</v>
+      </c>
+      <c r="AU1" s="39" t="s">
+        <v>374</v>
+      </c>
+      <c r="AV1" s="39" t="s">
+        <v>375</v>
+      </c>
+      <c r="AW1" s="39" t="s">
+        <v>376</v>
+      </c>
+      <c r="AX1" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="AY1" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="AZ1" s="34" t="s">
+        <v>310</v>
+      </c>
+      <c r="BA1" s="34" t="s">
+        <v>311</v>
+      </c>
+      <c r="BB1" s="34" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="38" t="s">
-        <v>436</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>287</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>437</v>
+      <c r="B2" s="36" t="s">
+        <v>377</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>378</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="F2" t="s">
-        <v>438</v>
+        <v>379</v>
       </c>
       <c r="G2" t="s">
-        <v>439</v>
+        <v>380</v>
       </c>
       <c r="H2" t="s">
-        <v>440</v>
+        <v>381</v>
       </c>
       <c r="I2" t="s">
         <v>129</v>
@@ -4823,20 +4506,20 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2" s="33" t="s">
-        <v>441</v>
-      </c>
-      <c r="N2" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="O2" s="39" t="s">
-        <v>442</v>
-      </c>
-      <c r="P2" s="40" t="s">
-        <v>443</v>
-      </c>
-      <c r="Q2" s="40" t="s">
-        <v>444</v>
+      <c r="M2" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="N2" s="37" t="s">
+        <v>316</v>
+      </c>
+      <c r="O2" s="37" t="s">
+        <v>383</v>
+      </c>
+      <c r="P2" s="38" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q2" s="38" t="s">
+        <v>385</v>
       </c>
       <c r="R2" t="s">
         <v>124</v>
@@ -4847,26 +4530,26 @@
       <c r="T2">
         <v>0</v>
       </c>
-      <c r="U2" s="33" t="s">
-        <v>441</v>
-      </c>
-      <c r="V2" s="33" t="s">
-        <v>445</v>
-      </c>
-      <c r="W2" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="X2" s="39" t="s">
-        <v>442</v>
-      </c>
-      <c r="Y2" s="40" t="s">
-        <v>443</v>
-      </c>
-      <c r="Z2" s="40" t="s">
-        <v>446</v>
+      <c r="U2" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="V2" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="W2" s="37" t="s">
+        <v>316</v>
+      </c>
+      <c r="X2" s="37" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y2" s="38" t="s">
+        <v>384</v>
+      </c>
+      <c r="Z2" s="38" t="s">
+        <v>387</v>
       </c>
       <c r="AA2" t="s">
-        <v>447</v>
+        <v>388</v>
       </c>
       <c r="AB2" t="s">
         <v>129</v>
@@ -4880,26 +4563,26 @@
       <c r="AE2">
         <v>0</v>
       </c>
-      <c r="AF2" s="33" t="s">
-        <v>441</v>
-      </c>
-      <c r="AG2" s="39" t="s">
-        <v>290</v>
-      </c>
-      <c r="AH2" s="39" t="s">
+      <c r="AF2" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="AG2" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="AH2" s="37" t="s">
         <v>224</v>
       </c>
-      <c r="AI2" s="39" t="s">
+      <c r="AI2" s="37" t="s">
         <v>224</v>
       </c>
-      <c r="AJ2" s="39" t="s">
-        <v>288</v>
-      </c>
-      <c r="AK2" s="40" t="s">
-        <v>448</v>
-      </c>
-      <c r="AL2" s="40" t="s">
-        <v>444</v>
+      <c r="AJ2" s="37" t="s">
+        <v>315</v>
+      </c>
+      <c r="AK2" s="38" t="s">
+        <v>389</v>
+      </c>
+      <c r="AL2" s="38" t="s">
+        <v>385</v>
       </c>
       <c r="AM2" t="s">
         <v>124</v>
@@ -4910,53 +4593,525 @@
       <c r="AO2">
         <v>0</v>
       </c>
-      <c r="AP2" s="33" t="s">
-        <v>441</v>
-      </c>
-      <c r="AQ2" s="33" t="s">
-        <v>445</v>
-      </c>
-      <c r="AR2" s="39" t="s">
-        <v>290</v>
-      </c>
-      <c r="AS2" s="39" t="s">
+      <c r="AP2" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="AQ2" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="AR2" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="AS2" s="37" t="s">
         <v>224</v>
       </c>
-      <c r="AT2" s="39" t="s">
+      <c r="AT2" s="37" t="s">
         <v>224</v>
       </c>
-      <c r="AU2" s="39" t="s">
-        <v>288</v>
-      </c>
-      <c r="AV2" s="40" t="s">
-        <v>448</v>
-      </c>
-      <c r="AW2" s="40" t="s">
-        <v>446</v>
-      </c>
-      <c r="AX2" s="33" t="s">
-        <v>449</v>
-      </c>
-      <c r="AY2" s="33" t="s">
-        <v>293</v>
-      </c>
-      <c r="AZ2" s="33" t="s">
-        <v>294</v>
+      <c r="AU2" s="37" t="s">
+        <v>315</v>
+      </c>
+      <c r="AV2" s="38" t="s">
+        <v>389</v>
+      </c>
+      <c r="AW2" s="38" t="s">
+        <v>387</v>
+      </c>
+      <c r="AX2" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="AY2" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="AZ2" s="32" t="s">
+        <v>326</v>
       </c>
       <c r="BA2" t="s">
-        <v>295</v>
-      </c>
-      <c r="BB2" s="33" t="s">
-        <v>296</v>
+        <v>327</v>
+      </c>
+      <c r="BB2" s="32" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="24" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G24" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:AH3"/>
+  <sheetViews>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AJ6" sqref="AJ6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" style="69" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="69" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="69" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" style="69" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="69" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="69" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.28515625" style="69" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="70" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21" style="69" customWidth="1"/>
+    <col min="10" max="10" width="21" style="70" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.5703125" style="70" customWidth="1"/>
+    <col min="12" max="13" width="19.42578125" style="70" customWidth="1"/>
+    <col min="14" max="14" width="21.140625" style="70" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.85546875" style="70" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.140625" style="70" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" style="70" customWidth="1"/>
+    <col min="18" max="19" width="21.7109375" style="70" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.85546875" style="70" customWidth="1"/>
+    <col min="21" max="21" width="26.28515625" style="70" customWidth="1"/>
+    <col min="22" max="22" width="34.85546875" style="70" customWidth="1"/>
+    <col min="23" max="23" width="17.7109375" style="69" customWidth="1"/>
+    <col min="24" max="24" width="26.28515625" style="69" customWidth="1"/>
+    <col min="25" max="25" width="34.85546875" style="69" customWidth="1"/>
+    <col min="26" max="26" width="26.5703125" style="69" customWidth="1"/>
+    <col min="27" max="27" width="27.28515625" style="69" customWidth="1"/>
+    <col min="28" max="28" width="20" style="69" customWidth="1"/>
+    <col min="29" max="29" width="36.140625" style="69" customWidth="1"/>
+    <col min="30" max="30" width="18.140625" style="69" customWidth="1"/>
+    <col min="31" max="31" width="12.7109375" style="72" customWidth="1"/>
+    <col min="32" max="32" width="11.140625" style="72" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="23" style="69" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.85546875" style="69" bestFit="1" customWidth="1"/>
+    <col min="35" max="51" width="9.140625" style="73" customWidth="1"/>
+    <col min="52" max="16384" width="9.140625" style="73"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="E1" s="59" t="s">
+        <v>391</v>
+      </c>
+      <c r="F1" s="59" t="s">
+        <v>392</v>
+      </c>
+      <c r="G1" s="59" t="s">
+        <v>393</v>
+      </c>
+      <c r="H1" s="59" t="s">
+        <v>394</v>
+      </c>
+      <c r="I1" s="59" t="s">
+        <v>395</v>
+      </c>
+      <c r="J1" s="59" t="s">
+        <v>396</v>
+      </c>
+      <c r="K1" s="60" t="s">
+        <v>397</v>
+      </c>
+      <c r="L1" s="60" t="s">
+        <v>398</v>
+      </c>
+      <c r="M1" s="60" t="s">
+        <v>399</v>
+      </c>
+      <c r="N1" s="60" t="s">
+        <v>400</v>
+      </c>
+      <c r="O1" s="60" t="s">
+        <v>401</v>
+      </c>
+      <c r="P1" s="60" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q1" s="60" t="s">
+        <v>403</v>
+      </c>
+      <c r="R1" s="60" t="s">
+        <v>404</v>
+      </c>
+      <c r="S1" s="60" t="s">
+        <v>405</v>
+      </c>
+      <c r="T1" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="U1" s="60" t="s">
+        <v>406</v>
+      </c>
+      <c r="V1" s="60" t="s">
+        <v>407</v>
+      </c>
+      <c r="W1" s="59" t="s">
+        <v>408</v>
+      </c>
+      <c r="X1" s="59" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y1" s="59" t="s">
+        <v>407</v>
+      </c>
+      <c r="Z1" s="59" t="s">
+        <v>409</v>
+      </c>
+      <c r="AA1" s="59" t="s">
+        <v>410</v>
+      </c>
+      <c r="AB1" s="59" t="s">
+        <v>411</v>
+      </c>
+      <c r="AC1" s="57" t="s">
+        <v>412</v>
+      </c>
+      <c r="AD1" s="57" t="s">
+        <v>413</v>
+      </c>
+      <c r="AE1" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="AF1" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="AG1" s="57" t="s">
+        <v>414</v>
+      </c>
+      <c r="AH1" s="57" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>416</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>417</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>418</v>
+      </c>
+      <c r="E2" s="63" t="s">
+        <v>419</v>
+      </c>
+      <c r="F2" s="63" t="s">
+        <v>420</v>
+      </c>
+      <c r="G2" s="62" t="s">
+        <v>278</v>
+      </c>
+      <c r="H2" s="64" t="s">
+        <v>421</v>
+      </c>
+      <c r="I2" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="J2" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="K2" s="65" t="s">
+        <v>422</v>
+      </c>
+      <c r="L2" s="65" t="s">
+        <v>423</v>
+      </c>
+      <c r="M2" s="65" t="s">
+        <v>424</v>
+      </c>
+      <c r="N2" s="65" t="s">
+        <v>425</v>
+      </c>
+      <c r="O2" s="66" t="s">
+        <v>426</v>
+      </c>
+      <c r="P2" s="65" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q2" s="65" t="s">
+        <v>428</v>
+      </c>
+      <c r="R2" s="67" t="s">
+        <v>215</v>
+      </c>
+      <c r="S2" s="65" t="s">
+        <v>429</v>
+      </c>
+      <c r="T2" s="65" t="s">
+        <v>430</v>
+      </c>
+      <c r="U2" s="65" t="s">
+        <v>431</v>
+      </c>
+      <c r="V2" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="W2" s="65" t="s">
+        <v>430</v>
+      </c>
+      <c r="X2" s="65" t="s">
+        <v>431</v>
+      </c>
+      <c r="Y2" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z2" s="66" t="s">
+        <v>432</v>
+      </c>
+      <c r="AA2" s="68" t="s">
+        <v>433</v>
+      </c>
+      <c r="AB2" s="68" t="s">
+        <v>426</v>
+      </c>
+      <c r="AC2" s="67" t="s">
+        <v>434</v>
+      </c>
+      <c r="AD2" s="67" t="s">
+        <v>435</v>
+      </c>
+      <c r="AE2" s="68" t="s">
+        <v>426</v>
+      </c>
+      <c r="AF2" s="68" t="s">
+        <v>426</v>
+      </c>
+      <c r="AG2" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH2" s="67" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="P3" s="71"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:AA2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.28515625" style="40" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21" style="40" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="37.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26" style="40" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.28515625" style="40" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>437</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>438</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>439</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>440</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>441</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>442</v>
+      </c>
+      <c r="J1" s="42" t="s">
+        <v>443</v>
+      </c>
+      <c r="K1" s="42" t="s">
+        <v>444</v>
+      </c>
+      <c r="L1" s="42" t="s">
+        <v>445</v>
+      </c>
+      <c r="M1" s="42" t="s">
+        <v>446</v>
+      </c>
+      <c r="N1" s="42" t="s">
+        <v>447</v>
+      </c>
+      <c r="O1" s="42" t="s">
+        <v>448</v>
+      </c>
+      <c r="P1" s="42" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q1" s="42" t="s">
+        <v>450</v>
+      </c>
+      <c r="R1" s="42" t="s">
+        <v>451</v>
+      </c>
+      <c r="S1" s="42" t="s">
+        <v>452</v>
+      </c>
+      <c r="T1" s="42" t="s">
+        <v>453</v>
+      </c>
+      <c r="U1" s="42" t="s">
+        <v>454</v>
+      </c>
+      <c r="V1" s="42" t="s">
+        <v>455</v>
+      </c>
+      <c r="W1" s="42" t="s">
+        <v>456</v>
+      </c>
+      <c r="X1" s="42" t="s">
+        <v>457</v>
+      </c>
+      <c r="Y1" s="42" t="s">
+        <v>458</v>
+      </c>
+      <c r="Z1" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="AA1" s="42" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>461</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31" t="s">
+        <v>462</v>
+      </c>
+      <c r="E2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="K2" t="s">
+        <v>466</v>
+      </c>
+      <c r="L2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M2" t="s">
+        <v>467</v>
+      </c>
+      <c r="N2" s="32" t="s">
+        <v>468</v>
+      </c>
+      <c r="O2" t="s">
+        <v>469</v>
+      </c>
+      <c r="P2" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>471</v>
+      </c>
+      <c r="R2" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="S2" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="T2" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="U2" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="V2" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="W2" s="32" t="s">
+        <v>473</v>
+      </c>
+      <c r="X2" s="32" t="s">
+        <v>474</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>475</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>476</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -4970,9 +5125,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="38.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" style="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -4983,10 +5138,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>450</v>
+        <v>477</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>451</v>
+        <v>478</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4994,7 +5149,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>452</v>
+        <v>479</v>
       </c>
       <c r="C2" t="s">
         <v>224</v>

--- a/DataSet/NewUATDeals_DataSet/Deal_PDS_SYND.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_PDS_SYND.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCED909B-B8FA-440C-9688-8C788FED83E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA0655E-79A5-4054-A8B8-13D855284D81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="877" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="877" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTY001_QuickPartyOnboarding" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="433">
   <si>
     <t>rowid</t>
   </si>
@@ -970,9 +970,6 @@
     <t>OngoingFee_AccrualEndDate</t>
   </si>
   <si>
-    <t>Establish Commitment</t>
-  </si>
-  <si>
     <t>Facility Ongoing Fee</t>
   </si>
   <si>
@@ -1006,523 +1003,331 @@
     <t>01-Sep-2019</t>
   </si>
   <si>
-    <t>01-Jan-2020</t>
+    <t>to the actual due date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>FACILITY_B_2018_</t>
+  </si>
+  <si>
+    <t>FACILITY_B_2018_20107</t>
+  </si>
+  <si>
+    <t>480,000,000.00</t>
+  </si>
+  <si>
+    <t>LenderType1</t>
+  </si>
+  <si>
+    <t>Primary_BuySellPrice</t>
+  </si>
+  <si>
+    <t>Expected_CloseDate</t>
+  </si>
+  <si>
+    <t>Primary_Portfolio</t>
+  </si>
+  <si>
+    <t>Primary_PortfolioBranch</t>
+  </si>
+  <si>
+    <t>Primary_RiskBook</t>
+  </si>
+  <si>
+    <t>Primary_PortfolioExpiryDate</t>
+  </si>
+  <si>
+    <t>Primary_CircledDate</t>
+  </si>
+  <si>
+    <t>ServicingGroupMember</t>
+  </si>
+  <si>
+    <t>IsLenderAHostBank</t>
+  </si>
+  <si>
+    <t>Host Bank</t>
+  </si>
+  <si>
+    <t>Origination</t>
+  </si>
+  <si>
+    <t>26-Nov-2018</t>
+  </si>
+  <si>
+    <t>RE_RES</t>
+  </si>
+  <si>
+    <t>Hold for Investment - Australia</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Loan_Alias</t>
+  </si>
+  <si>
+    <t>Outstanding_Type</t>
+  </si>
+  <si>
+    <t>Pricing_Option</t>
+  </si>
+  <si>
+    <t>Outstanding_Currency</t>
+  </si>
+  <si>
+    <t>Loan_RequestedAmount</t>
+  </si>
+  <si>
+    <t>Loan_EffectiveDate</t>
+  </si>
+  <si>
+    <t>Loan_MaturityDate</t>
+  </si>
+  <si>
+    <t>Loan_RepricingFrequency</t>
+  </si>
+  <si>
+    <t>Loan_IntCycleFrequency</t>
+  </si>
+  <si>
+    <t>Loan_Accrue</t>
+  </si>
+  <si>
+    <t>Loan_RepricingDate</t>
+  </si>
+  <si>
+    <t>Notice_Subject</t>
+  </si>
+  <si>
+    <t>Notice_Comment</t>
+  </si>
+  <si>
+    <t>AcceptRate_FromPricing</t>
+  </si>
+  <si>
+    <t>Expctd_LoanGlobalOriginal</t>
+  </si>
+  <si>
+    <t>Expctd_LoanGlobalCurrent</t>
+  </si>
+  <si>
+    <t>Expctd_LoanHostBankGross</t>
+  </si>
+  <si>
+    <t>Expctd_LoanHostBankNet</t>
+  </si>
+  <si>
+    <t>Expctd_LoanCurrentBaseRate</t>
+  </si>
+  <si>
+    <t>Expctd_LoanSpread</t>
+  </si>
+  <si>
+    <t>Expctd_LoanAllInRate</t>
+  </si>
+  <si>
+    <t>Loan_PaymentMode</t>
+  </si>
+  <si>
+    <t>Expctd_Loan_IntCycleFrequency</t>
+  </si>
+  <si>
+    <t>BorrowerBaseRate</t>
+  </si>
+  <si>
+    <t>Create Drawdown for Capitalization Facility</t>
+  </si>
+  <si>
+    <t>60001947</t>
+  </si>
+  <si>
+    <t>275,750.00</t>
+  </si>
+  <si>
+    <t>17-Dec-2019</t>
+  </si>
+  <si>
+    <t>17-Dec-2024</t>
+  </si>
+  <si>
+    <t>3 Months</t>
+  </si>
+  <si>
+    <t>to the adjusted due date</t>
+  </si>
+  <si>
+    <t>16-Mar-2020</t>
+  </si>
+  <si>
+    <t>Capitalizing Upfront Fee</t>
+  </si>
+  <si>
+    <t>The drawdown is capitalizing the upfront fee</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>0.950300%</t>
+  </si>
+  <si>
+    <t>2.000000%</t>
+  </si>
+  <si>
+    <t>2.950300%</t>
+  </si>
+  <si>
+    <t>Pay in Arrears</t>
+  </si>
+  <si>
+    <t>Quarterly</t>
+  </si>
+  <si>
+    <t>InterestPricingOption</t>
+  </si>
+  <si>
+    <t>Pricing_MatrixChangeAppMethod</t>
+  </si>
+  <si>
+    <t>Update Deal Pricing</t>
+  </si>
+  <si>
+    <t>UpfrontFee_Amount</t>
+  </si>
+  <si>
+    <t>UpfrontFee_EffectiveDate</t>
+  </si>
+  <si>
+    <t>Fee_Type</t>
+  </si>
+  <si>
+    <t>UpfrontFeePayment_Comment</t>
+  </si>
+  <si>
+    <t>UpfrontFeePayment_NoticeMethod</t>
+  </si>
+  <si>
+    <t>Charge Upfront fee</t>
+  </si>
+  <si>
+    <t>275,750</t>
+  </si>
+  <si>
+    <t>Establishment/Extension Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charging and Capitalizing the Upfront Fee </t>
+  </si>
+  <si>
+    <t>The Upfront Fee would be capitalized as a new drawdown</t>
+  </si>
+  <si>
+    <t>444,767,919.14</t>
+  </si>
+  <si>
+    <t>9,218,981.73</t>
+  </si>
+  <si>
+    <t>8,693,127.46</t>
+  </si>
+  <si>
+    <t>ScheduleItem_Amount4</t>
+  </si>
+  <si>
+    <t>ScheduleItem_PercentofCurrent4</t>
+  </si>
+  <si>
+    <t>ScheduleItem_Date4</t>
+  </si>
+  <si>
+    <t>18-Mar-2020</t>
+  </si>
+  <si>
+    <t>8,626,844.21</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>0.48%</t>
+  </si>
+  <si>
+    <t>0.480000</t>
+  </si>
+  <si>
+    <t>Sell_Amount1</t>
+  </si>
+  <si>
+    <t>Sell_Amount2</t>
+  </si>
+  <si>
+    <t>Primary_Contact</t>
+  </si>
+  <si>
+    <t>Primary_SGAlias</t>
+  </si>
+  <si>
+    <t>Primary_SGMember</t>
+  </si>
+  <si>
+    <t>76,787,301.59</t>
+  </si>
+  <si>
+    <t>57,600,000.00</t>
+  </si>
+  <si>
+    <t>Setup Primaries</t>
+  </si>
+  <si>
+    <t>Primaries_TransactionType</t>
+  </si>
+  <si>
+    <t>Real Estate and Infrastructure</t>
+  </si>
+  <si>
+    <t>Primary_Lender</t>
+  </si>
+  <si>
+    <t>Primary_LenderLoc</t>
+  </si>
+  <si>
+    <t>30-Dec-2019</t>
+  </si>
+  <si>
+    <t>12.389352041117</t>
+  </si>
+  <si>
+    <t>Primary_PctOfDeal</t>
+  </si>
+  <si>
+    <t>134,387,301.59</t>
+  </si>
+  <si>
+    <t>Primary_SellAmount</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>31-Dec-2020</t>
+  </si>
+  <si>
+    <t>30-Dec-2020</t>
+  </si>
+  <si>
+    <t>Establish Commitment Fee For Facility A</t>
+  </si>
+  <si>
+    <t>Establish Commitment Fee For Facility B</t>
+  </si>
+  <si>
+    <t>31-Dec-2019</t>
   </si>
   <si>
     <t>02-Jan-2020</t>
-  </si>
-  <si>
-    <t>to the actual due date</t>
-  </si>
-  <si>
-    <t>31-Dec-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>FACILITY_B_2018_</t>
-  </si>
-  <si>
-    <t>FACILITY_B_2018_20107</t>
-  </si>
-  <si>
-    <t>480,000,000.00</t>
-  </si>
-  <si>
-    <t>OngoingFee_Item</t>
-  </si>
-  <si>
-    <t>OngoingFee_ItemType</t>
-  </si>
-  <si>
-    <t>FinancialRatio_RatioType</t>
-  </si>
-  <si>
-    <t>FinancialRatio_MnemonicStatus1</t>
-  </si>
-  <si>
-    <t>FinancialRatio_GreaterThan1</t>
-  </si>
-  <si>
-    <t>FinancialRatio_LessThan1</t>
-  </si>
-  <si>
-    <t>FinancialRatio_MinimumValue1</t>
-  </si>
-  <si>
-    <t>FinancialRatio_MaximumValue1</t>
-  </si>
-  <si>
-    <t>OngoingFee_AfterItem1</t>
-  </si>
-  <si>
-    <t>OngoingFee_AfterItemType1</t>
-  </si>
-  <si>
-    <t>FormulaCategory_SpreadType1</t>
-  </si>
-  <si>
-    <t>Facility_Percent1</t>
-  </si>
-  <si>
-    <t>FinancialRatio_MnemonicStatus2</t>
-  </si>
-  <si>
-    <t>FinancialRatio_GreaterThan2</t>
-  </si>
-  <si>
-    <t>FinancialRatio_LessThan2</t>
-  </si>
-  <si>
-    <t>FinancialRatio_MinimumValue2</t>
-  </si>
-  <si>
-    <t>FinancialRatio_MaximumValue2</t>
-  </si>
-  <si>
-    <t>OngoingFee_AfterItem2</t>
-  </si>
-  <si>
-    <t>OngoingFee_AfterItemType2</t>
-  </si>
-  <si>
-    <t>FormulaCategory_SpreadType2</t>
-  </si>
-  <si>
-    <t>Facility_Percent2</t>
-  </si>
-  <si>
-    <t>FormulaCategory_Type</t>
-  </si>
-  <si>
-    <t>Interest_FinancialRatio_MnemonicStatus1</t>
-  </si>
-  <si>
-    <t>Interest_FinancialRatio_GreaterThan1</t>
-  </si>
-  <si>
-    <t>Interest_FinancialRatio_LessThan1</t>
-  </si>
-  <si>
-    <t>Interest_FinancialRatio_MinimumValue1</t>
-  </si>
-  <si>
-    <t>Interest_FinancialRatio_MaximumValue1</t>
-  </si>
-  <si>
-    <t>Interest_AfterItem1</t>
-  </si>
-  <si>
-    <t>Interest_AfterItemType1</t>
-  </si>
-  <si>
-    <t>Interest_OptionName1</t>
-  </si>
-  <si>
-    <t>Interest_RateBasis1</t>
-  </si>
-  <si>
-    <t>Interest_FormulaText1</t>
-  </si>
-  <si>
-    <t>Interest_Facility_Percent1</t>
-  </si>
-  <si>
-    <t>Interest_FinancialRatio_MnemonicStatus2</t>
-  </si>
-  <si>
-    <t>Interest_FinancialRatio_GreaterThan2</t>
-  </si>
-  <si>
-    <t>Interest_FinancialRatio_LessThan2</t>
-  </si>
-  <si>
-    <t>Interest_FinancialRatio_MinimumValue2</t>
-  </si>
-  <si>
-    <t>Interest_FinancialRatio_MaximumValue2</t>
-  </si>
-  <si>
-    <t>Interest_AfterItem2</t>
-  </si>
-  <si>
-    <t>Interest_AfterItemType2</t>
-  </si>
-  <si>
-    <t>Interest_OptionName2</t>
-  </si>
-  <si>
-    <t>Interest_RateBasis2</t>
-  </si>
-  <si>
-    <t>Interest_FormulaText2</t>
-  </si>
-  <si>
-    <t>Interest_Facility_Percent2</t>
-  </si>
-  <si>
-    <t>Establish Line Fee</t>
-  </si>
-  <si>
-    <t>Line Fee</t>
-  </si>
-  <si>
-    <t>Matrix</t>
-  </si>
-  <si>
-    <t>Financial Ratio</t>
-  </si>
-  <si>
-    <t>Leverage Ratio (LR)</t>
-  </si>
-  <si>
-    <t>0.45</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>Percent</t>
-  </si>
-  <si>
-    <t>0.725000</t>
-  </si>
-  <si>
-    <t>Maximum</t>
-  </si>
-  <si>
-    <t>0.775000</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>HigherOf(BBSY,0%)</t>
-  </si>
-  <si>
-    <t>01-Oct-2019</t>
-  </si>
-  <si>
-    <t>LenderType1</t>
-  </si>
-  <si>
-    <t>LenderType2</t>
-  </si>
-  <si>
-    <t>Primary_Lender1</t>
-  </si>
-  <si>
-    <t>Primary_Lender2</t>
-  </si>
-  <si>
-    <t>Primary_LenderLoc1</t>
-  </si>
-  <si>
-    <t>Primary_LenderLoc2</t>
-  </si>
-  <si>
-    <t>Primary_TransactionType</t>
-  </si>
-  <si>
-    <t>Primary_PctOfDeal1</t>
-  </si>
-  <si>
-    <t>Primary_PctOfDeal2</t>
-  </si>
-  <si>
-    <t>Primary_BuySellPrice</t>
-  </si>
-  <si>
-    <t>Expected_CloseDate</t>
-  </si>
-  <si>
-    <t>Primary_Contact1</t>
-  </si>
-  <si>
-    <t>Primary_Contact2</t>
-  </si>
-  <si>
-    <t>AdminAgent_SGAlias1</t>
-  </si>
-  <si>
-    <t>AdminAgent_SGAlias2</t>
-  </si>
-  <si>
-    <t>Primary_Portfolio</t>
-  </si>
-  <si>
-    <t>Primary_PortfolioBranch</t>
-  </si>
-  <si>
-    <t>Primary_RiskBook</t>
-  </si>
-  <si>
-    <t>Primary_PortfolioAllocation</t>
-  </si>
-  <si>
-    <t>Primary_PortfolioExpiryDate</t>
-  </si>
-  <si>
-    <t>Primary_CircledDate</t>
-  </si>
-  <si>
-    <t>PortfolioBranch</t>
-  </si>
-  <si>
-    <t>PortfolioAllocation</t>
-  </si>
-  <si>
-    <t>ServicingGroupMember</t>
-  </si>
-  <si>
-    <t>IsLenderAHostBank</t>
-  </si>
-  <si>
-    <t>Establish Primaries</t>
-  </si>
-  <si>
-    <t>LLA SYND DEAL AUD 500M 23NOV1841158</t>
-  </si>
-  <si>
-    <t>REVOLVING CASH ADV FAC47128</t>
-  </si>
-  <si>
-    <t>Host Bank</t>
-  </si>
-  <si>
-    <t>Non-Host Bank</t>
-  </si>
-  <si>
-    <t>LEND01292020</t>
-  </si>
-  <si>
-    <t>Origination</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>26-Nov-2018</t>
-  </si>
-  <si>
-    <t>AGENCY,  Lending and Leasing</t>
-  </si>
-  <si>
-    <t>KESO, MR KUYA</t>
-  </si>
-  <si>
-    <t>KK</t>
-  </si>
-  <si>
-    <t>RE_RES</t>
-  </si>
-  <si>
-    <t>Hold for Investment - Australia</t>
-  </si>
-  <si>
-    <t>150,000,000.00</t>
-  </si>
-  <si>
-    <t>13-Jun-2023</t>
-  </si>
-  <si>
-    <t>Commonwealth Bank of Australia -DBU</t>
-  </si>
-  <si>
-    <t>100,000.00</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Loan_Alias</t>
-  </si>
-  <si>
-    <t>Outstanding_Type</t>
-  </si>
-  <si>
-    <t>Pricing_Option</t>
-  </si>
-  <si>
-    <t>Outstanding_Currency</t>
-  </si>
-  <si>
-    <t>Loan_RequestedAmount</t>
-  </si>
-  <si>
-    <t>Loan_EffectiveDate</t>
-  </si>
-  <si>
-    <t>Loan_MaturityDate</t>
-  </si>
-  <si>
-    <t>Loan_RepricingFrequency</t>
-  </si>
-  <si>
-    <t>Loan_IntCycleFrequency</t>
-  </si>
-  <si>
-    <t>Loan_Accrue</t>
-  </si>
-  <si>
-    <t>Loan_RepricingDate</t>
-  </si>
-  <si>
-    <t>Notice_Subject</t>
-  </si>
-  <si>
-    <t>Notice_Comment</t>
-  </si>
-  <si>
-    <t>AcceptRate_FromPricing</t>
-  </si>
-  <si>
-    <t>Expctd_LoanGlobalOriginal</t>
-  </si>
-  <si>
-    <t>Expctd_LoanGlobalCurrent</t>
-  </si>
-  <si>
-    <t>Expctd_LoanHostBankGross</t>
-  </si>
-  <si>
-    <t>Expctd_LoanHostBankNet</t>
-  </si>
-  <si>
-    <t>Expctd_LoanCurrentBaseRate</t>
-  </si>
-  <si>
-    <t>Expctd_LoanSpread</t>
-  </si>
-  <si>
-    <t>Expctd_LoanAllInRate</t>
-  </si>
-  <si>
-    <t>Loan_PaymentMode</t>
-  </si>
-  <si>
-    <t>Expctd_Loan_IntCycleFrequency</t>
-  </si>
-  <si>
-    <t>BorrowerBaseRate</t>
-  </si>
-  <si>
-    <t>Create Drawdown for Capitalization Facility</t>
-  </si>
-  <si>
-    <t>60001947</t>
-  </si>
-  <si>
-    <t>275,750.00</t>
-  </si>
-  <si>
-    <t>17-Dec-2019</t>
-  </si>
-  <si>
-    <t>17-Dec-2024</t>
-  </si>
-  <si>
-    <t>3 Months</t>
-  </si>
-  <si>
-    <t>to the adjusted due date</t>
-  </si>
-  <si>
-    <t>16-Mar-2020</t>
-  </si>
-  <si>
-    <t>Capitalizing Upfront Fee</t>
-  </si>
-  <si>
-    <t>The drawdown is capitalizing the upfront fee</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>0.950300%</t>
-  </si>
-  <si>
-    <t>2.000000%</t>
-  </si>
-  <si>
-    <t>2.950300%</t>
-  </si>
-  <si>
-    <t>Pay in Arrears</t>
-  </si>
-  <si>
-    <t>Quarterly</t>
-  </si>
-  <si>
-    <t>InterestPricingOption</t>
-  </si>
-  <si>
-    <t>Pricing_MatrixChangeAppMethod</t>
-  </si>
-  <si>
-    <t>Update Deal Pricing</t>
-  </si>
-  <si>
-    <t>UpfrontFee_Amount</t>
-  </si>
-  <si>
-    <t>UpfrontFee_EffectiveDate</t>
-  </si>
-  <si>
-    <t>Fee_Type</t>
-  </si>
-  <si>
-    <t>UpfrontFeePayment_Comment</t>
-  </si>
-  <si>
-    <t>UpfrontFeePayment_NoticeMethod</t>
-  </si>
-  <si>
-    <t>Charge Upfront fee</t>
-  </si>
-  <si>
-    <t>275,750</t>
-  </si>
-  <si>
-    <t>Establishment/Extension Fee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charging and Capitalizing the Upfront Fee </t>
-  </si>
-  <si>
-    <t>The Upfront Fee would be capitalized as a new drawdown</t>
-  </si>
-  <si>
-    <t>444,767,919.14</t>
-  </si>
-  <si>
-    <t>9,218,981.73</t>
-  </si>
-  <si>
-    <t>8,693,127.46</t>
-  </si>
-  <si>
-    <t>ScheduleItem_Amount4</t>
-  </si>
-  <si>
-    <t>ScheduleItem_PercentofCurrent4</t>
-  </si>
-  <si>
-    <t>ScheduleItem_Date4</t>
-  </si>
-  <si>
-    <t>18-Mar-2020</t>
-  </si>
-  <si>
-    <t>8,626,844.21</t>
   </si>
 </sst>
 </file>
@@ -1624,7 +1429,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1667,6 +1472,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CC00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1700,7 +1511,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1754,7 +1565,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1781,25 +1591,16 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1820,9 +1621,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1837,6 +1635,19 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -1848,6 +1659,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF99CC00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2223,34 +2039,34 @@
     <col min="54" max="54" width="14" style="9" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="25.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="18.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="20.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="22.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="16" style="40" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="26" style="40" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="26.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="22.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="20.28515625" style="40" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="35.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="34.28515625" style="40" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="31.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="22" style="40" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="14.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="17.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="28.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="25.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="19.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="28.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="26.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="19.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="38.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="18.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="34.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="28.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="25.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="35.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="10.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="13.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="18.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="20.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="22.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="16" style="39" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="26" style="39" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="26.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="22.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="20.28515625" style="39" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="35.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="34.28515625" style="39" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="31.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="22" style="39" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="14.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="17.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="28.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="25.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="19.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="28.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="26.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="19.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="38.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="18.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="34.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="28.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="25.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="35.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="10.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="13.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="18.85546875" style="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:84" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2619,7 +2435,7 @@
       <c r="AM2" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="AN2" s="43" t="s">
+      <c r="AN2" s="42" t="s">
         <v>115</v>
       </c>
       <c r="AO2" s="9" t="s">
@@ -2673,7 +2489,7 @@
       <c r="BE2" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="BF2" s="43">
+      <c r="BF2" s="42">
         <v>11111111</v>
       </c>
       <c r="BG2" s="9" t="s">
@@ -2730,10 +2546,10 @@
       <c r="BX2" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="BY2" s="43" t="s">
+      <c r="BY2" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="BZ2" s="44" t="s">
+      <c r="BZ2" s="43" t="s">
         <v>137</v>
       </c>
       <c r="CA2" s="9" t="s">
@@ -2745,13 +2561,13 @@
       <c r="CC2" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="CD2" s="45" t="s">
+      <c r="CD2" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="CE2" s="45" t="s">
+      <c r="CE2" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="CF2" s="46" t="s">
+      <c r="CF2" s="45" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2842,14 +2658,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="38.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.42578125" style="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -2860,25 +2676,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>480</v>
+        <v>388</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>481</v>
+        <v>389</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>482</v>
+        <v>390</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>483</v>
+        <v>391</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>484</v>
+        <v>392</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>448</v>
+        <v>356</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>449</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -2886,28 +2702,28 @@
         <v>84</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>485</v>
+        <v>393</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>486</v>
+        <v>394</v>
       </c>
       <c r="D2" s="32" t="s">
         <v>290</v>
       </c>
       <c r="E2" t="s">
-        <v>487</v>
+        <v>395</v>
       </c>
       <c r="F2" t="s">
-        <v>488</v>
+        <v>396</v>
       </c>
       <c r="G2" t="s">
         <v>122</v>
       </c>
       <c r="H2" t="s">
-        <v>469</v>
+        <v>377</v>
       </c>
       <c r="I2" t="s">
-        <v>489</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -2922,8 +2738,8 @@
   </sheetPr>
   <dimension ref="A1:BU7"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView topLeftCell="BA1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BF3" sqref="BF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3002,380 +2818,380 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="M1" s="48" t="s">
+      <c r="M1" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="N1" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="O1" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="P1" s="48" t="s">
+      <c r="P1" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="Q1" s="48" t="s">
+      <c r="Q1" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="R1" s="48" t="s">
+      <c r="R1" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="S1" s="48" t="s">
+      <c r="S1" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="T1" s="48" t="s">
+      <c r="T1" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="U1" s="48" t="s">
+      <c r="U1" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="V1" s="48" t="s">
+      <c r="V1" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="W1" s="48" t="s">
+      <c r="W1" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="X1" s="48" t="s">
+      <c r="X1" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="Y1" s="48" t="s">
+      <c r="Y1" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="Z1" s="48" t="s">
+      <c r="Z1" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="AA1" s="48" t="s">
+      <c r="AA1" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="AB1" s="48" t="s">
+      <c r="AB1" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="AC1" s="48" t="s">
+      <c r="AC1" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="AD1" s="48" t="s">
+      <c r="AD1" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="AE1" s="48" t="s">
+      <c r="AE1" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="AF1" s="48" t="s">
+      <c r="AF1" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="AG1" s="48" t="s">
+      <c r="AG1" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="AH1" s="48" t="s">
+      <c r="AH1" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="AI1" s="48" t="s">
+      <c r="AI1" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="AJ1" s="48" t="s">
+      <c r="AJ1" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="AK1" s="48" t="s">
+      <c r="AK1" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="AL1" s="48" t="s">
+      <c r="AL1" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="AM1" s="48" t="s">
+      <c r="AM1" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="AN1" s="48" t="s">
+      <c r="AN1" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="AO1" s="48" t="s">
+      <c r="AO1" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="AP1" s="48" t="s">
+      <c r="AP1" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="AQ1" s="48" t="s">
+      <c r="AQ1" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="AR1" s="48" t="s">
+      <c r="AR1" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="AS1" s="48" t="s">
+      <c r="AS1" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="AT1" s="48" t="s">
+      <c r="AT1" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="AU1" s="48" t="s">
+      <c r="AU1" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="AV1" s="48" t="s">
+      <c r="AV1" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="AW1" s="48" t="s">
+      <c r="AW1" s="47" t="s">
         <v>191</v>
       </c>
-      <c r="AX1" s="48" t="s">
+      <c r="AX1" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="AY1" s="48" t="s">
+      <c r="AY1" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="AZ1" s="48" t="s">
+      <c r="AZ1" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="BA1" s="48" t="s">
+      <c r="BA1" s="47" t="s">
         <v>195</v>
       </c>
-      <c r="BB1" s="48" t="s">
+      <c r="BB1" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="BC1" s="48" t="s">
+      <c r="BC1" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="BD1" s="48" t="s">
+      <c r="BD1" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="BE1" s="48" t="s">
+      <c r="BE1" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="BF1" s="48" t="s">
+      <c r="BF1" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="BG1" s="48" t="s">
+      <c r="BG1" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="BH1" s="48" t="s">
+      <c r="BH1" s="47" t="s">
         <v>202</v>
       </c>
-      <c r="BI1" s="74" t="s">
+      <c r="BI1" s="69" t="s">
         <v>203</v>
       </c>
-      <c r="BJ1" s="74" t="s">
+      <c r="BJ1" s="69" t="s">
         <v>204</v>
       </c>
       <c r="BT1" s="4"/>
       <c r="BU1" s="4"/>
     </row>
     <row r="2" spans="1:73" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="50" t="s">
         <v>206</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="50" t="s">
         <v>209</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="J2" s="50" t="s">
         <v>211</v>
       </c>
-      <c r="K2" s="51" t="s">
+      <c r="K2" s="50" t="s">
         <v>212</v>
       </c>
-      <c r="L2" s="52" t="s">
+      <c r="L2" s="51" t="s">
         <v>213</v>
       </c>
-      <c r="M2" s="52" t="s">
+      <c r="M2" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="N2" s="51" t="s">
+      <c r="N2" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="O2" s="51" t="s">
+      <c r="O2" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="P2" s="51" t="s">
+      <c r="P2" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="Q2" s="51" t="s">
+      <c r="Q2" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="R2" s="52" t="s">
+      <c r="R2" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="S2" s="52" t="s">
+      <c r="S2" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="T2" s="53" t="s">
+      <c r="T2" s="52" t="s">
         <v>217</v>
       </c>
-      <c r="U2" s="53" t="s">
+      <c r="U2" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="V2" s="51" t="s">
+      <c r="V2" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="W2" s="51" t="s">
+      <c r="W2" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="X2" s="51" t="s">
+      <c r="X2" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="Y2" s="51" t="s">
+      <c r="Y2" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="Z2" s="51" t="s">
+      <c r="Z2" s="50" t="s">
         <v>221</v>
       </c>
-      <c r="AA2" s="51" t="s">
+      <c r="AA2" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="AB2" s="51" t="s">
+      <c r="AB2" s="50" t="s">
         <v>223</v>
       </c>
-      <c r="AC2" s="51" t="s">
+      <c r="AC2" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="AD2" s="51" t="s">
+      <c r="AD2" s="50" t="s">
         <v>225</v>
       </c>
-      <c r="AE2" s="51" t="s">
+      <c r="AE2" s="50" t="s">
         <v>225</v>
       </c>
-      <c r="AF2" s="50" t="s">
+      <c r="AF2" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="AG2" s="50" t="s">
+      <c r="AG2" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="AH2" s="50" t="s">
+      <c r="AH2" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="AI2" s="50" t="s">
+      <c r="AI2" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="AJ2" s="55" t="s">
+      <c r="AJ2" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="AK2" s="55" t="s">
+      <c r="AK2" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="AL2" s="55" t="s">
+      <c r="AL2" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="AM2" s="55" t="s">
+      <c r="AM2" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="AN2" s="55" t="s">
+      <c r="AN2" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="AO2" s="55" t="s">
+      <c r="AO2" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="AP2" s="50" t="s">
+      <c r="AP2" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="AQ2" s="50" t="s">
+      <c r="AQ2" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="AR2" s="55" t="s">
+      <c r="AR2" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="AS2" s="55" t="s">
+      <c r="AS2" s="54" t="s">
         <v>230</v>
       </c>
-      <c r="AT2" s="55" t="s">
+      <c r="AT2" s="54" t="s">
         <v>231</v>
       </c>
-      <c r="AU2" s="55" t="s">
+      <c r="AU2" s="54" t="s">
         <v>232</v>
       </c>
-      <c r="AV2" s="55" t="s">
+      <c r="AV2" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="AW2" s="55" t="s">
+      <c r="AW2" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="AX2" s="55" t="s">
+      <c r="AX2" s="54" t="s">
         <v>233</v>
       </c>
-      <c r="AY2" s="55" t="s">
+      <c r="AY2" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="AZ2" s="55" t="s">
+      <c r="AZ2" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="BA2" s="55" t="s">
+      <c r="BA2" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="BB2" s="55" t="s">
+      <c r="BB2" s="54" t="s">
         <v>231</v>
       </c>
-      <c r="BC2" s="55" t="s">
+      <c r="BC2" s="54" t="s">
         <v>232</v>
       </c>
-      <c r="BD2" s="50" t="s">
+      <c r="BD2" s="49" t="s">
         <v>234</v>
       </c>
-      <c r="BE2" s="50" t="s">
+      <c r="BE2" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="BF2" s="50" t="s">
+      <c r="BF2" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="BG2" s="50" t="s">
+      <c r="BG2" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="BH2" s="50" t="s">
+      <c r="BH2" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="BI2" s="54" t="s">
+      <c r="BI2" s="53" t="s">
         <v>236</v>
       </c>
-      <c r="BJ2" s="54" t="s">
+      <c r="BJ2" s="53" t="s">
         <v>236</v>
       </c>
       <c r="BK2" s="22"/>
@@ -3387,8 +3203,8 @@
       <c r="BQ2" s="27"/>
       <c r="BR2" s="28"/>
       <c r="BS2" s="29"/>
-      <c r="BT2" s="41"/>
-      <c r="BU2" s="41"/>
+      <c r="BT2" s="40"/>
+      <c r="BU2" s="40"/>
     </row>
     <row r="3" spans="1:73" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="25"/>
@@ -3474,282 +3290,282 @@
   </sheetPr>
   <dimension ref="A1:AM2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.28515625" style="40" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21" style="40" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.28515625" style="40" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="49.28515625" style="40" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="32" style="40" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="24.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="27.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="28.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="38" style="40" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="27.140625" style="40" customWidth="1"/>
-    <col min="29" max="29" width="23" style="40" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="31.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20" style="40" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="23" style="40" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="31.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="20" style="40" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="23" style="40" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="31.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="20" style="40" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="19.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="27.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.28515625" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" style="39" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" style="39" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="49.28515625" style="39" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32" style="39" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="27.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="28.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="38" style="39" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="27.140625" style="39" customWidth="1"/>
+    <col min="29" max="29" width="23" style="39" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="31.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20" style="39" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="23" style="39" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="31.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20" style="39" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="23" style="39" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="31.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="20" style="39" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="19.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="27.140625" style="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="47" t="s">
         <v>237</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="48" t="s">
         <v>238</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="47" t="s">
         <v>239</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="47" t="s">
         <v>240</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="47" t="s">
         <v>241</v>
       </c>
-      <c r="H1" s="59" t="s">
+      <c r="H1" s="57" t="s">
         <v>242</v>
       </c>
-      <c r="I1" s="59" t="s">
+      <c r="I1" s="57" t="s">
         <v>243</v>
       </c>
-      <c r="J1" s="59" t="s">
+      <c r="J1" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="47" t="s">
         <v>245</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="47" t="s">
         <v>246</v>
       </c>
-      <c r="M1" s="48" t="s">
+      <c r="M1" s="47" t="s">
         <v>247</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="N1" s="47" t="s">
         <v>248</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="O1" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="P1" s="48" t="s">
+      <c r="P1" s="47" t="s">
         <v>250</v>
       </c>
-      <c r="Q1" s="48" t="s">
+      <c r="Q1" s="47" t="s">
         <v>251</v>
       </c>
-      <c r="R1" s="48" t="s">
+      <c r="R1" s="47" t="s">
         <v>252</v>
       </c>
-      <c r="S1" s="48" t="s">
+      <c r="S1" s="47" t="s">
         <v>253</v>
       </c>
-      <c r="T1" s="48" t="s">
+      <c r="T1" s="47" t="s">
         <v>254</v>
       </c>
-      <c r="U1" s="48" t="s">
+      <c r="U1" s="47" t="s">
         <v>255</v>
       </c>
-      <c r="V1" s="48" t="s">
+      <c r="V1" s="47" t="s">
         <v>256</v>
       </c>
-      <c r="W1" s="48" t="s">
+      <c r="W1" s="47" t="s">
         <v>257</v>
       </c>
-      <c r="X1" s="48" t="s">
+      <c r="X1" s="47" t="s">
         <v>258</v>
       </c>
-      <c r="Y1" s="48" t="s">
+      <c r="Y1" s="47" t="s">
         <v>259</v>
       </c>
-      <c r="Z1" s="48" t="s">
+      <c r="Z1" s="47" t="s">
         <v>260</v>
       </c>
-      <c r="AA1" s="48" t="s">
+      <c r="AA1" s="47" t="s">
         <v>261</v>
       </c>
-      <c r="AB1" s="48" t="s">
+      <c r="AB1" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="AC1" s="48" t="s">
+      <c r="AC1" s="47" t="s">
         <v>263</v>
       </c>
-      <c r="AD1" s="48" t="s">
+      <c r="AD1" s="47" t="s">
         <v>264</v>
       </c>
-      <c r="AE1" s="48" t="s">
+      <c r="AE1" s="47" t="s">
         <v>265</v>
       </c>
-      <c r="AF1" s="48" t="s">
+      <c r="AF1" s="47" t="s">
         <v>266</v>
       </c>
-      <c r="AG1" s="48" t="s">
+      <c r="AG1" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="AH1" s="48" t="s">
+      <c r="AH1" s="47" t="s">
         <v>268</v>
       </c>
-      <c r="AI1" s="48" t="s">
+      <c r="AI1" s="47" t="s">
         <v>269</v>
       </c>
-      <c r="AJ1" s="48" t="s">
+      <c r="AJ1" s="47" t="s">
         <v>270</v>
       </c>
-      <c r="AK1" s="48" t="s">
+      <c r="AK1" s="47" t="s">
         <v>271</v>
       </c>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="71" t="s">
         <v>273</v>
       </c>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="71" t="s">
         <v>274</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="50" t="s">
         <v>275</v>
       </c>
-      <c r="F2" s="77" t="s">
+      <c r="F2" s="72" t="s">
         <v>276</v>
       </c>
-      <c r="G2" s="76" t="s">
+      <c r="G2" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="H2" s="65" t="s">
+      <c r="H2" s="61" t="s">
         <v>277</v>
       </c>
-      <c r="I2" s="75" t="s">
+      <c r="I2" s="70" t="s">
         <v>278</v>
       </c>
-      <c r="J2" s="65" t="s">
+      <c r="J2" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="78" t="s">
+      <c r="K2" s="73" t="s">
         <v>217</v>
       </c>
-      <c r="L2" s="78" t="s">
+      <c r="L2" s="73" t="s">
         <v>217</v>
       </c>
-      <c r="M2" s="78" t="s">
+      <c r="M2" s="73" t="s">
         <v>279</v>
       </c>
-      <c r="N2" s="78" t="s">
+      <c r="N2" s="73" t="s">
         <v>279</v>
       </c>
-      <c r="O2" s="76" t="s">
+      <c r="O2" s="71" t="s">
         <v>280</v>
       </c>
-      <c r="P2" s="76" t="s">
+      <c r="P2" s="71" t="s">
         <v>281</v>
       </c>
-      <c r="Q2" s="76" t="s">
+      <c r="Q2" s="71" t="s">
         <v>282</v>
       </c>
-      <c r="R2" s="76" t="s">
+      <c r="R2" s="71" t="s">
         <v>281</v>
       </c>
-      <c r="S2" s="76" t="s">
+      <c r="S2" s="71" t="s">
         <v>283</v>
       </c>
-      <c r="T2" s="76" t="s">
+      <c r="T2" s="71" t="s">
         <v>277</v>
       </c>
-      <c r="U2" s="79" t="s">
+      <c r="U2" s="74" t="s">
         <v>284</v>
       </c>
-      <c r="V2" s="76" t="s">
+      <c r="V2" s="71" t="s">
         <v>281</v>
       </c>
-      <c r="W2" s="76" t="s">
+      <c r="W2" s="71" t="s">
         <v>285</v>
       </c>
-      <c r="X2" s="76" t="s">
+      <c r="X2" s="71" t="s">
         <v>286</v>
       </c>
-      <c r="Y2" s="76" t="s">
+      <c r="Y2" s="71" t="s">
         <v>287</v>
       </c>
-      <c r="Z2" s="78" t="s">
+      <c r="Z2" s="73" t="s">
         <v>288</v>
       </c>
-      <c r="AA2" s="76" t="s">
+      <c r="AA2" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="AB2" s="78" t="s">
+      <c r="AB2" s="73" t="s">
         <v>279</v>
       </c>
-      <c r="AC2" s="78" t="s">
+      <c r="AC2" s="73" t="s">
         <v>289</v>
       </c>
-      <c r="AD2" s="76" t="s">
+      <c r="AD2" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="AE2" s="78" t="s">
-        <v>290</v>
-      </c>
-      <c r="AF2" s="78" t="s">
+      <c r="AE2" s="73" t="s">
+        <v>421</v>
+      </c>
+      <c r="AF2" s="73" t="s">
         <v>291</v>
       </c>
-      <c r="AG2" s="76" t="s">
+      <c r="AG2" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="AH2" s="78" t="s">
+      <c r="AH2" s="73" t="s">
         <v>292</v>
       </c>
-      <c r="AI2" s="78" t="s">
+      <c r="AI2" s="73" t="s">
         <v>293</v>
       </c>
-      <c r="AJ2" s="76" t="s">
+      <c r="AJ2" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="AK2" s="78" t="s">
+      <c r="AK2" s="73" t="s">
         <v>294</v>
       </c>
-      <c r="AL2" s="76"/>
-      <c r="AM2" s="76"/>
+      <c r="AL2" s="71"/>
+      <c r="AM2" s="71"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -3767,30 +3583,30 @@
   </sheetPr>
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="21.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" style="40" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="21" style="40" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.28515625" style="40" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="21.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" style="39" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="21" style="39" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.28515625" style="39" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28.140625" style="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
@@ -3860,66 +3676,66 @@
         <v>84</v>
       </c>
       <c r="B2" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>313</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>314</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>234</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="F2" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="G2" s="38" t="s">
         <v>316</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="H2" s="37" t="s">
         <v>317</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="I2" s="9" t="s">
         <v>318</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>319</v>
       </c>
       <c r="J2" s="37" t="s">
         <v>224</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L2" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="M2" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="N2" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="N2" s="32" t="s">
+      <c r="O2" t="s">
         <v>322</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" s="32" t="s">
         <v>323</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="Q2" s="32" t="s">
+        <v>427</v>
+      </c>
+      <c r="R2" s="32" t="s">
+        <v>428</v>
+      </c>
+      <c r="S2" t="s">
         <v>324</v>
       </c>
-      <c r="Q2" s="32" t="s">
-        <v>325</v>
-      </c>
-      <c r="R2" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="S2" t="s">
-        <v>327</v>
-      </c>
       <c r="T2" s="32" t="s">
-        <v>328</v>
+        <v>421</v>
       </c>
     </row>
     <row r="26" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G26" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -3934,296 +3750,296 @@
   </sheetPr>
   <dimension ref="A1:AN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AL1" sqref="AL1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.28515625" style="40" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21" style="40" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.28515625" style="40" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="49.28515625" style="40" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="32" style="40" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="24.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="27.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="28.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="38" style="40" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="27.140625" style="40" customWidth="1"/>
-    <col min="29" max="29" width="23" style="40" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="31.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20" style="40" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="23" style="40" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="31.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="20" style="40" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="23" style="40" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="31.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="20" style="40" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="23" style="40" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="31.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="20" style="40" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="9.140625" style="40"/>
+    <col min="1" max="1" width="6.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.28515625" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" style="39" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" style="39" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="49.28515625" style="39" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32" style="39" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="27.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="28.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="38" style="39" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="27.140625" style="39" customWidth="1"/>
+    <col min="29" max="29" width="23" style="39" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="31.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20" style="39" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="23" style="39" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="31.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20" style="39" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="23" style="39" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="31.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="20" style="39" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23" style="39" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="31.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="20" style="39" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="9.140625" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="47" t="s">
         <v>237</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="48" t="s">
         <v>238</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="47" t="s">
         <v>239</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="47" t="s">
         <v>240</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="47" t="s">
         <v>241</v>
       </c>
-      <c r="H1" s="59" t="s">
+      <c r="H1" s="57" t="s">
         <v>242</v>
       </c>
-      <c r="I1" s="59" t="s">
+      <c r="I1" s="57" t="s">
         <v>243</v>
       </c>
-      <c r="J1" s="59" t="s">
+      <c r="J1" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="47" t="s">
         <v>245</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="47" t="s">
         <v>246</v>
       </c>
-      <c r="M1" s="48" t="s">
+      <c r="M1" s="47" t="s">
         <v>247</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="N1" s="47" t="s">
         <v>248</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="O1" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="P1" s="48" t="s">
+      <c r="P1" s="47" t="s">
         <v>250</v>
       </c>
-      <c r="Q1" s="48" t="s">
+      <c r="Q1" s="47" t="s">
         <v>251</v>
       </c>
-      <c r="R1" s="48" t="s">
+      <c r="R1" s="47" t="s">
         <v>252</v>
       </c>
-      <c r="S1" s="48" t="s">
+      <c r="S1" s="47" t="s">
         <v>253</v>
       </c>
-      <c r="T1" s="48" t="s">
+      <c r="T1" s="47" t="s">
         <v>254</v>
       </c>
-      <c r="U1" s="48" t="s">
+      <c r="U1" s="47" t="s">
         <v>255</v>
       </c>
-      <c r="V1" s="48" t="s">
+      <c r="V1" s="47" t="s">
         <v>256</v>
       </c>
-      <c r="W1" s="48" t="s">
+      <c r="W1" s="47" t="s">
         <v>257</v>
       </c>
-      <c r="X1" s="48" t="s">
+      <c r="X1" s="47" t="s">
         <v>258</v>
       </c>
-      <c r="Y1" s="48" t="s">
+      <c r="Y1" s="47" t="s">
         <v>259</v>
       </c>
-      <c r="Z1" s="48" t="s">
+      <c r="Z1" s="47" t="s">
         <v>260</v>
       </c>
-      <c r="AA1" s="48" t="s">
+      <c r="AA1" s="47" t="s">
         <v>261</v>
       </c>
-      <c r="AB1" s="48" t="s">
+      <c r="AB1" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="AC1" s="48" t="s">
+      <c r="AC1" s="47" t="s">
         <v>263</v>
       </c>
-      <c r="AD1" s="48" t="s">
+      <c r="AD1" s="47" t="s">
         <v>264</v>
       </c>
-      <c r="AE1" s="48" t="s">
+      <c r="AE1" s="47" t="s">
         <v>265</v>
       </c>
-      <c r="AF1" s="48" t="s">
+      <c r="AF1" s="47" t="s">
         <v>266</v>
       </c>
-      <c r="AG1" s="48" t="s">
+      <c r="AG1" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="AH1" s="48" t="s">
+      <c r="AH1" s="47" t="s">
         <v>268</v>
       </c>
-      <c r="AI1" s="48" t="s">
+      <c r="AI1" s="47" t="s">
         <v>269</v>
       </c>
-      <c r="AJ1" s="48" t="s">
+      <c r="AJ1" s="47" t="s">
         <v>270</v>
       </c>
-      <c r="AK1" s="48" t="s">
+      <c r="AK1" s="47" t="s">
         <v>271</v>
       </c>
-      <c r="AL1" s="48" t="s">
-        <v>493</v>
-      </c>
-      <c r="AM1" s="48" t="s">
-        <v>494</v>
-      </c>
-      <c r="AN1" s="48" t="s">
-        <v>495</v>
+      <c r="AL1" s="47" t="s">
+        <v>401</v>
+      </c>
+      <c r="AM1" s="47" t="s">
+        <v>402</v>
+      </c>
+      <c r="AN1" s="47" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="76" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2" s="76" t="s">
-        <v>331</v>
-      </c>
-      <c r="E2" s="51" t="s">
+      <c r="C2" s="71" t="s">
+        <v>326</v>
+      </c>
+      <c r="D2" s="71" t="s">
+        <v>327</v>
+      </c>
+      <c r="E2" s="50" t="s">
         <v>275</v>
       </c>
-      <c r="F2" s="77" t="s">
-        <v>332</v>
-      </c>
-      <c r="G2" s="76" t="s">
+      <c r="F2" s="72" t="s">
+        <v>328</v>
+      </c>
+      <c r="G2" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="H2" s="65" t="s">
+      <c r="H2" s="61" t="s">
         <v>277</v>
       </c>
-      <c r="I2" s="75" t="s">
+      <c r="I2" s="70" t="s">
         <v>278</v>
       </c>
-      <c r="J2" s="65" t="s">
+      <c r="J2" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="78" t="s">
+      <c r="K2" s="73" t="s">
         <v>217</v>
       </c>
-      <c r="L2" s="78" t="s">
+      <c r="L2" s="73" t="s">
         <v>217</v>
       </c>
-      <c r="M2" s="78" t="s">
+      <c r="M2" s="73" t="s">
         <v>279</v>
       </c>
-      <c r="N2" s="78" t="s">
+      <c r="N2" s="73" t="s">
         <v>279</v>
       </c>
-      <c r="O2" s="76" t="s">
+      <c r="O2" s="71" t="s">
         <v>280</v>
       </c>
-      <c r="P2" s="76" t="s">
+      <c r="P2" s="71" t="s">
         <v>281</v>
       </c>
-      <c r="Q2" s="76" t="s">
+      <c r="Q2" s="71" t="s">
         <v>282</v>
       </c>
-      <c r="R2" s="76" t="s">
+      <c r="R2" s="71" t="s">
         <v>281</v>
       </c>
-      <c r="S2" s="76" t="s">
+      <c r="S2" s="71" t="s">
         <v>283</v>
       </c>
-      <c r="T2" s="76" t="s">
+      <c r="T2" s="71" t="s">
         <v>277</v>
       </c>
-      <c r="U2" s="79" t="s">
+      <c r="U2" s="74" t="s">
         <v>284</v>
       </c>
-      <c r="V2" s="76" t="s">
+      <c r="V2" s="71" t="s">
         <v>281</v>
       </c>
-      <c r="W2" s="76" t="s">
+      <c r="W2" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="X2" s="76" t="s">
+      <c r="X2" s="71" t="s">
         <v>286</v>
       </c>
-      <c r="Y2" s="76" t="s">
+      <c r="Y2" s="71" t="s">
         <v>287</v>
       </c>
-      <c r="Z2" s="78" t="s">
-        <v>490</v>
-      </c>
-      <c r="AA2" s="76" t="s">
+      <c r="Z2" s="73" t="s">
+        <v>398</v>
+      </c>
+      <c r="AA2" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="AB2" s="78" t="s">
+      <c r="AB2" s="73" t="s">
         <v>279</v>
       </c>
-      <c r="AC2" s="78" t="s">
-        <v>491</v>
-      </c>
-      <c r="AD2" s="76" t="s">
+      <c r="AC2" s="73" t="s">
+        <v>399</v>
+      </c>
+      <c r="AD2" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="AE2" s="78" t="s">
+      <c r="AE2" s="73" t="s">
         <v>290</v>
       </c>
-      <c r="AF2" s="78" t="s">
-        <v>492</v>
-      </c>
-      <c r="AG2" s="76" t="s">
+      <c r="AF2" s="73" t="s">
+        <v>400</v>
+      </c>
+      <c r="AG2" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="AH2" s="78" t="s">
+      <c r="AH2" s="73" t="s">
         <v>292</v>
       </c>
-      <c r="AI2" s="78" t="s">
-        <v>492</v>
-      </c>
-      <c r="AJ2" s="76" t="s">
+      <c r="AI2" s="73" t="s">
+        <v>400</v>
+      </c>
+      <c r="AJ2" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="AK2" s="78" t="s">
-        <v>496</v>
-      </c>
-      <c r="AL2" s="78" t="s">
-        <v>497</v>
-      </c>
-      <c r="AM2" s="76" t="s">
+      <c r="AK2" s="73" t="s">
+        <v>404</v>
+      </c>
+      <c r="AL2" s="73" t="s">
+        <v>405</v>
+      </c>
+      <c r="AM2" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="AN2" s="78" t="s">
+      <c r="AN2" s="73" t="s">
         <v>294</v>
       </c>
     </row>
@@ -4241,71 +4057,36 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:BB24"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.28515625" style="40" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="31.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="30.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="31.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="27.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="30.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="22.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="39.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="36.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="33.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="38.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="39.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="18.28515625" style="40" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="22.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="21.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="18.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="39.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="36.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="33.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="38.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="39.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18.28515625" style="40" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="22.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="21.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="21.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="24.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="25.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="23.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="29.28515625" style="40" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="19.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="28.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="21.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" style="39" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="21" style="39" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.28515625" style="39" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -4322,320 +4103,116 @@
         <v>297</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>334</v>
+        <v>299</v>
       </c>
       <c r="H1" s="34" t="s">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="I1" s="34" t="s">
-        <v>336</v>
+        <v>301</v>
       </c>
       <c r="J1" s="34" t="s">
-        <v>337</v>
+        <v>302</v>
       </c>
       <c r="K1" s="34" t="s">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="L1" s="34" t="s">
-        <v>339</v>
+        <v>304</v>
       </c>
       <c r="M1" s="34" t="s">
-        <v>340</v>
+        <v>305</v>
       </c>
       <c r="N1" s="34" t="s">
-        <v>341</v>
+        <v>306</v>
       </c>
       <c r="O1" s="34" t="s">
-        <v>342</v>
+        <v>307</v>
       </c>
       <c r="P1" s="34" t="s">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="Q1" s="34" t="s">
-        <v>344</v>
+        <v>309</v>
       </c>
       <c r="R1" s="34" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="S1" s="34" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="T1" s="34" t="s">
-        <v>347</v>
-      </c>
-      <c r="U1" s="34" t="s">
-        <v>348</v>
-      </c>
-      <c r="V1" s="34" t="s">
-        <v>349</v>
-      </c>
-      <c r="W1" s="34" t="s">
-        <v>350</v>
-      </c>
-      <c r="X1" s="34" t="s">
-        <v>351</v>
-      </c>
-      <c r="Y1" s="34" t="s">
-        <v>352</v>
-      </c>
-      <c r="Z1" s="34" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA1" s="34" t="s">
-        <v>354</v>
-      </c>
-      <c r="AB1" s="39" t="s">
-        <v>355</v>
-      </c>
-      <c r="AC1" s="39" t="s">
-        <v>356</v>
-      </c>
-      <c r="AD1" s="39" t="s">
-        <v>357</v>
-      </c>
-      <c r="AE1" s="39" t="s">
-        <v>358</v>
-      </c>
-      <c r="AF1" s="39" t="s">
-        <v>359</v>
-      </c>
-      <c r="AG1" s="39" t="s">
-        <v>360</v>
-      </c>
-      <c r="AH1" s="39" t="s">
-        <v>361</v>
-      </c>
-      <c r="AI1" s="39" t="s">
-        <v>362</v>
-      </c>
-      <c r="AJ1" s="39" t="s">
-        <v>363</v>
-      </c>
-      <c r="AK1" s="39" t="s">
-        <v>364</v>
-      </c>
-      <c r="AL1" s="39" t="s">
-        <v>365</v>
-      </c>
-      <c r="AM1" s="39" t="s">
-        <v>366</v>
-      </c>
-      <c r="AN1" s="39" t="s">
-        <v>367</v>
-      </c>
-      <c r="AO1" s="39" t="s">
-        <v>368</v>
-      </c>
-      <c r="AP1" s="39" t="s">
-        <v>369</v>
-      </c>
-      <c r="AQ1" s="39" t="s">
-        <v>370</v>
-      </c>
-      <c r="AR1" s="39" t="s">
-        <v>371</v>
-      </c>
-      <c r="AS1" s="39" t="s">
-        <v>372</v>
-      </c>
-      <c r="AT1" s="39" t="s">
-        <v>373</v>
-      </c>
-      <c r="AU1" s="39" t="s">
-        <v>374</v>
-      </c>
-      <c r="AV1" s="39" t="s">
-        <v>375</v>
-      </c>
-      <c r="AW1" s="39" t="s">
-        <v>376</v>
-      </c>
-      <c r="AX1" s="34" t="s">
-        <v>308</v>
-      </c>
-      <c r="AY1" s="34" t="s">
-        <v>309</v>
-      </c>
-      <c r="AZ1" s="34" t="s">
-        <v>310</v>
-      </c>
-      <c r="BA1" s="34" t="s">
-        <v>311</v>
-      </c>
-      <c r="BB1" s="34" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
         <v>84</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>377</v>
+        <v>430</v>
       </c>
       <c r="C2" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="D2" s="37" t="s">
-        <v>378</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="F2" t="s">
-        <v>379</v>
-      </c>
-      <c r="G2" t="s">
-        <v>380</v>
-      </c>
-      <c r="H2" t="s">
-        <v>381</v>
-      </c>
-      <c r="I2" t="s">
-        <v>129</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
+      <c r="G2" s="38" t="s">
+        <v>407</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>408</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>406</v>
       </c>
       <c r="M2" s="32" t="s">
-        <v>382</v>
-      </c>
-      <c r="N2" s="37" t="s">
-        <v>316</v>
-      </c>
-      <c r="O2" s="37" t="s">
-        <v>383</v>
-      </c>
-      <c r="P2" s="38" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q2" s="38" t="s">
-        <v>385</v>
-      </c>
-      <c r="R2" t="s">
-        <v>124</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2" s="32" t="s">
-        <v>382</v>
-      </c>
-      <c r="V2" s="32" t="s">
-        <v>386</v>
-      </c>
-      <c r="W2" s="37" t="s">
-        <v>316</v>
-      </c>
-      <c r="X2" s="37" t="s">
-        <v>383</v>
-      </c>
-      <c r="Y2" s="38" t="s">
-        <v>384</v>
-      </c>
-      <c r="Z2" s="38" t="s">
-        <v>387</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>388</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="32" t="s">
-        <v>382</v>
-      </c>
-      <c r="AG2" s="37" t="s">
-        <v>319</v>
-      </c>
-      <c r="AH2" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="AI2" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="AJ2" s="37" t="s">
-        <v>315</v>
-      </c>
-      <c r="AK2" s="38" t="s">
-        <v>389</v>
-      </c>
-      <c r="AL2" s="38" t="s">
-        <v>385</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AN2">
-        <v>1</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2" s="32" t="s">
-        <v>382</v>
-      </c>
-      <c r="AQ2" s="32" t="s">
-        <v>386</v>
-      </c>
-      <c r="AR2" s="37" t="s">
-        <v>319</v>
-      </c>
-      <c r="AS2" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="AT2" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="AU2" s="37" t="s">
-        <v>315</v>
-      </c>
-      <c r="AV2" s="38" t="s">
-        <v>389</v>
-      </c>
-      <c r="AW2" s="38" t="s">
-        <v>387</v>
-      </c>
-      <c r="AX2" s="32" t="s">
-        <v>390</v>
-      </c>
-      <c r="AY2" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="N2" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="O2" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="P2" s="32" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q2" s="32" t="s">
+        <v>431</v>
+      </c>
+      <c r="R2" s="32" t="s">
+        <v>432</v>
+      </c>
+      <c r="S2" s="39" t="s">
+        <v>324</v>
+      </c>
+      <c r="T2" s="32" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="26" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G26" s="39" t="s">
         <v>325</v>
-      </c>
-      <c r="AZ2" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>327</v>
-      </c>
-      <c r="BB2" s="32" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G24" t="s">
-        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -4645,260 +4222,248 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:AD9"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AJ6" sqref="AJ6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="69" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="69" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" style="69" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" style="69" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="69" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="69" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.28515625" style="69" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="70" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21" style="69" customWidth="1"/>
-    <col min="10" max="10" width="21" style="70" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.5703125" style="70" customWidth="1"/>
-    <col min="12" max="13" width="19.42578125" style="70" customWidth="1"/>
-    <col min="14" max="14" width="21.140625" style="70" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.85546875" style="70" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.140625" style="70" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.28515625" style="70" customWidth="1"/>
-    <col min="18" max="19" width="21.7109375" style="70" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.85546875" style="70" customWidth="1"/>
-    <col min="21" max="21" width="26.28515625" style="70" customWidth="1"/>
-    <col min="22" max="22" width="34.85546875" style="70" customWidth="1"/>
-    <col min="23" max="23" width="17.7109375" style="69" customWidth="1"/>
-    <col min="24" max="24" width="26.28515625" style="69" customWidth="1"/>
-    <col min="25" max="25" width="34.85546875" style="69" customWidth="1"/>
-    <col min="26" max="26" width="26.5703125" style="69" customWidth="1"/>
-    <col min="27" max="27" width="27.28515625" style="69" customWidth="1"/>
-    <col min="28" max="28" width="20" style="69" customWidth="1"/>
-    <col min="29" max="29" width="36.140625" style="69" customWidth="1"/>
-    <col min="30" max="30" width="18.140625" style="69" customWidth="1"/>
-    <col min="31" max="31" width="12.7109375" style="72" customWidth="1"/>
-    <col min="32" max="32" width="11.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="23" style="69" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.85546875" style="69" bestFit="1" customWidth="1"/>
-    <col min="35" max="51" width="9.140625" style="73" customWidth="1"/>
-    <col min="52" max="16384" width="9.140625" style="73"/>
+    <col min="1" max="1" width="6.140625" style="65" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="65" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="65" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" style="65" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="65" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" style="65" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" style="66" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" style="66" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" style="66" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.85546875" style="66" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.28515625" style="66" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="34.85546875" style="66" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.7109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.28515625" style="65" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20" style="65" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23" style="65" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.85546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.85546875" style="67" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.140625" style="67" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23" style="65" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.85546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="31" max="47" width="9.140625" style="68" customWidth="1"/>
+    <col min="48" max="16384" width="9.140625" style="68"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:30" s="76" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="D1" s="58" t="s">
-        <v>238</v>
-      </c>
-      <c r="E1" s="59" t="s">
-        <v>391</v>
-      </c>
-      <c r="F1" s="59" t="s">
-        <v>392</v>
-      </c>
-      <c r="G1" s="59" t="s">
-        <v>393</v>
-      </c>
-      <c r="H1" s="59" t="s">
-        <v>394</v>
-      </c>
-      <c r="I1" s="59" t="s">
-        <v>395</v>
-      </c>
-      <c r="J1" s="59" t="s">
-        <v>396</v>
-      </c>
-      <c r="K1" s="60" t="s">
-        <v>397</v>
-      </c>
-      <c r="L1" s="60" t="s">
-        <v>398</v>
-      </c>
-      <c r="M1" s="60" t="s">
-        <v>399</v>
-      </c>
-      <c r="N1" s="60" t="s">
-        <v>400</v>
-      </c>
-      <c r="O1" s="60" t="s">
-        <v>401</v>
-      </c>
-      <c r="P1" s="60" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q1" s="60" t="s">
-        <v>403</v>
-      </c>
-      <c r="R1" s="60" t="s">
-        <v>404</v>
-      </c>
-      <c r="S1" s="60" t="s">
-        <v>405</v>
-      </c>
-      <c r="T1" s="60" t="s">
+      <c r="C1" s="79" t="s">
+        <v>334</v>
+      </c>
+      <c r="D1" s="79" t="s">
+        <v>417</v>
+      </c>
+      <c r="E1" s="81" t="s">
+        <v>329</v>
+      </c>
+      <c r="F1" s="81" t="s">
+        <v>419</v>
+      </c>
+      <c r="G1" s="81" t="s">
+        <v>420</v>
+      </c>
+      <c r="H1" s="79" t="s">
+        <v>423</v>
+      </c>
+      <c r="I1" s="79" t="s">
+        <v>425</v>
+      </c>
+      <c r="J1" s="79" t="s">
+        <v>330</v>
+      </c>
+      <c r="K1" s="75" t="s">
+        <v>409</v>
+      </c>
+      <c r="L1" s="75" t="s">
+        <v>410</v>
+      </c>
+      <c r="M1" s="58" t="s">
+        <v>331</v>
+      </c>
+      <c r="N1" s="75" t="s">
+        <v>411</v>
+      </c>
+      <c r="O1" s="75" t="s">
+        <v>413</v>
+      </c>
+      <c r="P1" s="75" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q1" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="U1" s="60" t="s">
-        <v>406</v>
-      </c>
-      <c r="V1" s="60" t="s">
-        <v>407</v>
-      </c>
-      <c r="W1" s="59" t="s">
-        <v>408</v>
-      </c>
-      <c r="X1" s="59" t="s">
-        <v>406</v>
-      </c>
-      <c r="Y1" s="59" t="s">
-        <v>407</v>
-      </c>
-      <c r="Z1" s="59" t="s">
-        <v>409</v>
-      </c>
-      <c r="AA1" s="59" t="s">
-        <v>410</v>
-      </c>
-      <c r="AB1" s="59" t="s">
-        <v>411</v>
-      </c>
-      <c r="AC1" s="57" t="s">
-        <v>412</v>
-      </c>
-      <c r="AD1" s="57" t="s">
-        <v>413</v>
-      </c>
-      <c r="AE1" s="57" t="s">
+      <c r="R1" s="58" t="s">
+        <v>332</v>
+      </c>
+      <c r="S1" s="58" t="s">
+        <v>333</v>
+      </c>
+      <c r="T1" s="57" t="s">
+        <v>334</v>
+      </c>
+      <c r="U1" s="57" t="s">
+        <v>335</v>
+      </c>
+      <c r="V1" s="57" t="s">
+        <v>336</v>
+      </c>
+      <c r="W1" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="AF1" s="57" t="s">
+      <c r="X1" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="AG1" s="57" t="s">
+      <c r="Y1" s="56" t="s">
+        <v>337</v>
+      </c>
+      <c r="Z1" s="56" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>416</v>
+      </c>
+      <c r="C2" s="71" t="s">
+        <v>418</v>
+      </c>
+      <c r="D2" s="71" t="s">
+        <v>340</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>339</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>278</v>
+      </c>
+      <c r="G2" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="80" t="s">
+        <v>422</v>
+      </c>
+      <c r="I2" s="73" t="s">
+        <v>424</v>
+      </c>
+      <c r="J2" s="73" t="s">
+        <v>426</v>
+      </c>
+      <c r="K2" s="78" t="s">
         <v>414</v>
       </c>
-      <c r="AH1" s="57" t="s">
+      <c r="L2" s="78" t="s">
         <v>415</v>
       </c>
+      <c r="M2" s="62" t="s">
+        <v>217</v>
+      </c>
+      <c r="N2" s="77" t="s">
+        <v>277</v>
+      </c>
+      <c r="O2" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="P2" s="77" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q2" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="R2" s="61" t="s">
+        <v>343</v>
+      </c>
+      <c r="S2" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="T2" s="61" t="s">
+        <v>342</v>
+      </c>
+      <c r="U2" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="V2" s="64" t="s">
+        <v>217</v>
+      </c>
+      <c r="W2" s="64" t="s">
+        <v>341</v>
+      </c>
+      <c r="X2" s="64" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y2" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z2" s="63" t="s">
+        <v>344</v>
+      </c>
     </row>
-    <row r="2" spans="1:34" s="69" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="62" t="s">
-        <v>416</v>
-      </c>
-      <c r="C2" s="63" t="s">
-        <v>417</v>
-      </c>
-      <c r="D2" s="63" t="s">
-        <v>418</v>
-      </c>
-      <c r="E2" s="63" t="s">
-        <v>419</v>
-      </c>
-      <c r="F2" s="63" t="s">
-        <v>420</v>
-      </c>
-      <c r="G2" s="62" t="s">
-        <v>278</v>
-      </c>
-      <c r="H2" s="64" t="s">
-        <v>421</v>
-      </c>
-      <c r="I2" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="J2" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="K2" s="65" t="s">
-        <v>422</v>
-      </c>
-      <c r="L2" s="65" t="s">
-        <v>423</v>
-      </c>
-      <c r="M2" s="65" t="s">
-        <v>424</v>
-      </c>
-      <c r="N2" s="65" t="s">
-        <v>425</v>
-      </c>
-      <c r="O2" s="66" t="s">
-        <v>426</v>
-      </c>
-      <c r="P2" s="65" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q2" s="65" t="s">
-        <v>428</v>
-      </c>
-      <c r="R2" s="67" t="s">
-        <v>215</v>
-      </c>
-      <c r="S2" s="65" t="s">
-        <v>429</v>
-      </c>
-      <c r="T2" s="65" t="s">
-        <v>430</v>
-      </c>
-      <c r="U2" s="65" t="s">
-        <v>431</v>
-      </c>
-      <c r="V2" s="65" t="s">
-        <v>107</v>
-      </c>
-      <c r="W2" s="65" t="s">
-        <v>430</v>
-      </c>
-      <c r="X2" s="65" t="s">
-        <v>431</v>
-      </c>
-      <c r="Y2" s="65" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z2" s="66" t="s">
-        <v>432</v>
-      </c>
-      <c r="AA2" s="68" t="s">
-        <v>433</v>
-      </c>
-      <c r="AB2" s="68" t="s">
-        <v>426</v>
-      </c>
-      <c r="AC2" s="67" t="s">
-        <v>434</v>
-      </c>
-      <c r="AD2" s="67" t="s">
-        <v>435</v>
-      </c>
-      <c r="AE2" s="68" t="s">
-        <v>426</v>
-      </c>
-      <c r="AF2" s="68" t="s">
-        <v>426</v>
-      </c>
-      <c r="AG2" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="AH2" s="67" t="s">
-        <v>436</v>
-      </c>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="Z3" s="67"/>
+      <c r="AB3" s="65"/>
+      <c r="AD3" s="68"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="P3" s="71"/>
+    <row r="4" spans="1:30" s="39" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:30" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="I8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="X8" s="67"/>
+      <c r="Y8" s="67"/>
+      <c r="AA8" s="65"/>
+      <c r="AB8" s="68"/>
+      <c r="AC8" s="68"/>
+      <c r="AD8" s="68"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="I9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="X9" s="67"/>
+      <c r="Y9" s="67"/>
+      <c r="AA9" s="65"/>
+      <c r="AB9" s="68"/>
+      <c r="AC9" s="68"/>
+      <c r="AD9" s="68"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4916,33 +4481,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="40" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.28515625" style="40" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.28515625" style="40" customWidth="1"/>
-    <col min="13" max="13" width="21.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21" style="40" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="37.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26" style="40" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="31.28515625" style="40" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="39" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" style="39" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.28515625" style="39" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21" style="39" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="37.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26" style="39" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.28515625" style="39" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.28515625" style="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
@@ -4956,76 +4521,76 @@
         <v>147</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>437</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>438</v>
-      </c>
-      <c r="F1" s="42" t="s">
-        <v>439</v>
-      </c>
-      <c r="G1" s="42" t="s">
-        <v>440</v>
-      </c>
-      <c r="H1" s="42" t="s">
-        <v>441</v>
-      </c>
-      <c r="I1" s="42" t="s">
-        <v>442</v>
-      </c>
-      <c r="J1" s="42" t="s">
-        <v>443</v>
-      </c>
-      <c r="K1" s="42" t="s">
-        <v>444</v>
-      </c>
-      <c r="L1" s="42" t="s">
-        <v>445</v>
-      </c>
-      <c r="M1" s="42" t="s">
-        <v>446</v>
-      </c>
-      <c r="N1" s="42" t="s">
-        <v>447</v>
-      </c>
-      <c r="O1" s="42" t="s">
-        <v>448</v>
-      </c>
-      <c r="P1" s="42" t="s">
-        <v>449</v>
-      </c>
-      <c r="Q1" s="42" t="s">
-        <v>450</v>
-      </c>
-      <c r="R1" s="42" t="s">
-        <v>451</v>
-      </c>
-      <c r="S1" s="42" t="s">
-        <v>452</v>
-      </c>
-      <c r="T1" s="42" t="s">
-        <v>453</v>
-      </c>
-      <c r="U1" s="42" t="s">
-        <v>454</v>
-      </c>
-      <c r="V1" s="42" t="s">
-        <v>455</v>
-      </c>
-      <c r="W1" s="42" t="s">
-        <v>456</v>
-      </c>
-      <c r="X1" s="42" t="s">
-        <v>457</v>
-      </c>
-      <c r="Y1" s="42" t="s">
-        <v>458</v>
-      </c>
-      <c r="Z1" s="42" t="s">
-        <v>459</v>
-      </c>
-      <c r="AA1" s="42" t="s">
-        <v>460</v>
+        <v>345</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>346</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>347</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>348</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>349</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>350</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>351</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>352</v>
+      </c>
+      <c r="L1" s="41" t="s">
+        <v>353</v>
+      </c>
+      <c r="M1" s="41" t="s">
+        <v>354</v>
+      </c>
+      <c r="N1" s="41" t="s">
+        <v>355</v>
+      </c>
+      <c r="O1" s="41" t="s">
+        <v>356</v>
+      </c>
+      <c r="P1" s="41" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q1" s="41" t="s">
+        <v>358</v>
+      </c>
+      <c r="R1" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="S1" s="41" t="s">
+        <v>360</v>
+      </c>
+      <c r="T1" s="41" t="s">
+        <v>361</v>
+      </c>
+      <c r="U1" s="41" t="s">
+        <v>362</v>
+      </c>
+      <c r="V1" s="41" t="s">
+        <v>363</v>
+      </c>
+      <c r="W1" s="41" t="s">
+        <v>364</v>
+      </c>
+      <c r="X1" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y1" s="41" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z1" s="41" t="s">
+        <v>367</v>
+      </c>
+      <c r="AA1" s="41" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
@@ -5033,11 +4598,11 @@
         <v>84</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>461</v>
+        <v>369</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31" t="s">
-        <v>462</v>
+        <v>370</v>
       </c>
       <c r="E2" t="s">
         <v>280</v>
@@ -5049,61 +4614,61 @@
         <v>128</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>463</v>
+        <v>371</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>464</v>
+        <v>372</v>
       </c>
       <c r="J2" s="32" t="s">
-        <v>465</v>
+        <v>373</v>
       </c>
       <c r="K2" t="s">
-        <v>466</v>
+        <v>374</v>
       </c>
       <c r="L2" t="s">
         <v>120</v>
       </c>
       <c r="M2" t="s">
-        <v>467</v>
+        <v>375</v>
       </c>
       <c r="N2" s="32" t="s">
-        <v>468</v>
+        <v>376</v>
       </c>
       <c r="O2" t="s">
-        <v>469</v>
+        <v>377</v>
       </c>
       <c r="P2" t="s">
-        <v>470</v>
+        <v>378</v>
       </c>
       <c r="Q2" t="s">
-        <v>471</v>
+        <v>379</v>
       </c>
       <c r="R2" s="32" t="s">
-        <v>463</v>
+        <v>371</v>
       </c>
       <c r="S2" s="32" t="s">
-        <v>463</v>
+        <v>371</v>
       </c>
       <c r="T2" s="32" t="s">
-        <v>463</v>
+        <v>371</v>
       </c>
       <c r="U2" s="32" t="s">
-        <v>463</v>
+        <v>371</v>
       </c>
       <c r="V2" s="32" t="s">
-        <v>472</v>
+        <v>380</v>
       </c>
       <c r="W2" s="32" t="s">
-        <v>473</v>
+        <v>381</v>
       </c>
       <c r="X2" s="32" t="s">
-        <v>474</v>
+        <v>382</v>
       </c>
       <c r="Y2" t="s">
-        <v>475</v>
+        <v>383</v>
       </c>
       <c r="Z2" t="s">
-        <v>476</v>
+        <v>384</v>
       </c>
       <c r="AA2" t="s">
         <v>120</v>
@@ -5125,9 +4690,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="38.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" style="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -5138,10 +4703,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>477</v>
+        <v>385</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>478</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5149,7 +4714,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>479</v>
+        <v>387</v>
       </c>
       <c r="C2" t="s">
         <v>224</v>

--- a/DataSet/NewUATDeals_DataSet/Deal_PDS_SYND.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_PDS_SYND.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA0655E-79A5-4054-A8B8-13D855284D81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F7B503-0782-44A8-A9B1-52BE3FB5A5F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="877" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-2730" windowWidth="29040" windowHeight="16440" tabRatio="877" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTY001_QuickPartyOnboarding" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="441">
   <si>
     <t>rowid</t>
   </si>
@@ -1138,9 +1138,6 @@
     <t>BorrowerBaseRate</t>
   </si>
   <si>
-    <t>Create Drawdown for Capitalization Facility</t>
-  </si>
-  <si>
     <t>60001947</t>
   </si>
   <si>
@@ -1328,6 +1325,33 @@
   </si>
   <si>
     <t>02-Jan-2020</t>
+  </si>
+  <si>
+    <t>Create Drawdown – Outstanding A1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Create Drawdown – Outstanding B1</t>
+  </si>
+  <si>
+    <t>640,700,000.00</t>
+  </si>
+  <si>
+    <t>18-Sep-2019</t>
+  </si>
+  <si>
+    <t>18-Feb-2021</t>
+  </si>
+  <si>
+    <t>1.04170%</t>
+  </si>
+  <si>
+    <t>0.90000%</t>
+  </si>
+  <si>
+    <t>1.94170%</t>
   </si>
 </sst>
 </file>
@@ -1429,7 +1453,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1478,6 +1502,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1511,7 +1541,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1555,16 +1585,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1648,6 +1668,18 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -2039,34 +2071,34 @@
     <col min="54" max="54" width="14" style="9" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="25.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="18.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="20.5703125" style="39" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="22.5703125" style="39" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="16" style="39" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="26" style="39" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="26.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="22.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="20.28515625" style="39" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="35.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="34.28515625" style="39" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="31.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="22" style="39" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="14.5703125" style="39" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="17.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="28.5703125" style="39" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="25.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="19.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="28.5703125" style="39" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="26.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="19.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="38.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="18.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="34.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="28.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="25.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="35.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="10.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="13.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="18.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="20.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="22.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="16" style="33" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="26" style="33" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="26.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="22.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="20.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="35.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="34.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="31.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="22" style="33" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="14.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="17.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="28.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="25.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="19.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="28.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="26.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="19.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="38.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="18.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="34.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="28.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="25.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="35.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="10.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="13.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="18.85546875" style="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:84" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2435,7 +2467,7 @@
       <c r="AM2" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="AN2" s="42" t="s">
+      <c r="AN2" s="36" t="s">
         <v>115</v>
       </c>
       <c r="AO2" s="9" t="s">
@@ -2489,7 +2521,7 @@
       <c r="BE2" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="BF2" s="42">
+      <c r="BF2" s="36">
         <v>11111111</v>
       </c>
       <c r="BG2" s="9" t="s">
@@ -2546,10 +2578,10 @@
       <c r="BX2" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="BY2" s="42" t="s">
+      <c r="BY2" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="BZ2" s="43" t="s">
+      <c r="BZ2" s="37" t="s">
         <v>137</v>
       </c>
       <c r="CA2" s="9" t="s">
@@ -2561,13 +2593,13 @@
       <c r="CC2" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="CD2" s="44" t="s">
+      <c r="CD2" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="CE2" s="44" t="s">
+      <c r="CE2" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="CF2" s="45" t="s">
+      <c r="CF2" s="39" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2658,14 +2690,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="38.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.42578125" style="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -2676,19 +2708,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>389</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>390</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>391</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>392</v>
       </c>
       <c r="H1" s="21" t="s">
         <v>356</v>
@@ -2702,28 +2734,28 @@
         <v>84</v>
       </c>
       <c r="B2" s="31" t="s">
+        <v>392</v>
+      </c>
+      <c r="C2" s="32" t="s">
         <v>393</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>394</v>
       </c>
       <c r="D2" s="32" t="s">
         <v>290</v>
       </c>
       <c r="E2" t="s">
+        <v>394</v>
+      </c>
+      <c r="F2" t="s">
         <v>395</v>
-      </c>
-      <c r="F2" t="s">
-        <v>396</v>
       </c>
       <c r="G2" t="s">
         <v>122</v>
       </c>
       <c r="H2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -2818,380 +2850,380 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="L1" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="N1" s="47" t="s">
+      <c r="N1" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="O1" s="47" t="s">
+      <c r="O1" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="P1" s="47" t="s">
+      <c r="P1" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="Q1" s="47" t="s">
+      <c r="Q1" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="R1" s="47" t="s">
+      <c r="R1" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="S1" s="47" t="s">
+      <c r="S1" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="T1" s="47" t="s">
+      <c r="T1" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="U1" s="47" t="s">
+      <c r="U1" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="V1" s="47" t="s">
+      <c r="V1" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="W1" s="47" t="s">
+      <c r="W1" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="X1" s="47" t="s">
+      <c r="X1" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="Y1" s="47" t="s">
+      <c r="Y1" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="Z1" s="47" t="s">
+      <c r="Z1" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="AA1" s="47" t="s">
+      <c r="AA1" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="AB1" s="47" t="s">
+      <c r="AB1" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="AC1" s="47" t="s">
+      <c r="AC1" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="AD1" s="47" t="s">
+      <c r="AD1" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="AE1" s="47" t="s">
+      <c r="AE1" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="AF1" s="47" t="s">
+      <c r="AF1" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="AG1" s="47" t="s">
+      <c r="AG1" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="AH1" s="47" t="s">
+      <c r="AH1" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="AI1" s="47" t="s">
+      <c r="AI1" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="AJ1" s="47" t="s">
+      <c r="AJ1" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="AK1" s="47" t="s">
+      <c r="AK1" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="AL1" s="47" t="s">
+      <c r="AL1" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="AM1" s="47" t="s">
+      <c r="AM1" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="AN1" s="47" t="s">
+      <c r="AN1" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="AO1" s="47" t="s">
+      <c r="AO1" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="AP1" s="47" t="s">
+      <c r="AP1" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="AQ1" s="47" t="s">
+      <c r="AQ1" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="AR1" s="47" t="s">
+      <c r="AR1" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="AS1" s="47" t="s">
+      <c r="AS1" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="AT1" s="47" t="s">
+      <c r="AT1" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="AU1" s="47" t="s">
+      <c r="AU1" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="AV1" s="47" t="s">
+      <c r="AV1" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="AW1" s="47" t="s">
+      <c r="AW1" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="AX1" s="47" t="s">
+      <c r="AX1" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="AY1" s="47" t="s">
+      <c r="AY1" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="AZ1" s="47" t="s">
+      <c r="AZ1" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="BA1" s="47" t="s">
+      <c r="BA1" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="BB1" s="47" t="s">
+      <c r="BB1" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="BC1" s="47" t="s">
+      <c r="BC1" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="BD1" s="47" t="s">
+      <c r="BD1" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="BE1" s="47" t="s">
+      <c r="BE1" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="BF1" s="47" t="s">
+      <c r="BF1" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="BG1" s="47" t="s">
+      <c r="BG1" s="41" t="s">
         <v>201</v>
       </c>
-      <c r="BH1" s="47" t="s">
+      <c r="BH1" s="41" t="s">
         <v>202</v>
       </c>
-      <c r="BI1" s="69" t="s">
+      <c r="BI1" s="63" t="s">
         <v>203</v>
       </c>
-      <c r="BJ1" s="69" t="s">
+      <c r="BJ1" s="63" t="s">
         <v>204</v>
       </c>
       <c r="BT1" s="4"/>
       <c r="BU1" s="4"/>
     </row>
     <row r="2" spans="1:73" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="44" t="s">
         <v>206</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="44" t="s">
         <v>209</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="44" t="s">
         <v>210</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="J2" s="50" t="s">
+      <c r="J2" s="44" t="s">
         <v>211</v>
       </c>
-      <c r="K2" s="50" t="s">
+      <c r="K2" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="L2" s="51" t="s">
+      <c r="L2" s="45" t="s">
         <v>213</v>
       </c>
-      <c r="M2" s="51" t="s">
+      <c r="M2" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="N2" s="50" t="s">
+      <c r="N2" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="O2" s="50" t="s">
+      <c r="O2" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="P2" s="50" t="s">
+      <c r="P2" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="Q2" s="50" t="s">
+      <c r="Q2" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="R2" s="51" t="s">
+      <c r="R2" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="S2" s="51" t="s">
+      <c r="S2" s="45" t="s">
         <v>216</v>
       </c>
-      <c r="T2" s="52" t="s">
+      <c r="T2" s="46" t="s">
         <v>217</v>
       </c>
-      <c r="U2" s="52" t="s">
+      <c r="U2" s="46" t="s">
         <v>218</v>
       </c>
-      <c r="V2" s="50" t="s">
+      <c r="V2" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="W2" s="50" t="s">
+      <c r="W2" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="X2" s="50" t="s">
+      <c r="X2" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="Y2" s="50" t="s">
+      <c r="Y2" s="44" t="s">
         <v>220</v>
       </c>
-      <c r="Z2" s="50" t="s">
+      <c r="Z2" s="44" t="s">
         <v>221</v>
       </c>
-      <c r="AA2" s="50" t="s">
+      <c r="AA2" s="44" t="s">
         <v>222</v>
       </c>
-      <c r="AB2" s="50" t="s">
+      <c r="AB2" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="AC2" s="50" t="s">
+      <c r="AC2" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AD2" s="50" t="s">
+      <c r="AD2" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="AE2" s="50" t="s">
+      <c r="AE2" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="AF2" s="49" t="s">
+      <c r="AF2" s="43" t="s">
         <v>226</v>
       </c>
-      <c r="AG2" s="49" t="s">
+      <c r="AG2" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="AH2" s="49" t="s">
+      <c r="AH2" s="43" t="s">
         <v>228</v>
       </c>
-      <c r="AI2" s="49" t="s">
+      <c r="AI2" s="43" t="s">
         <v>229</v>
       </c>
-      <c r="AJ2" s="54" t="s">
+      <c r="AJ2" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="AK2" s="54" t="s">
+      <c r="AK2" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="AL2" s="54" t="s">
+      <c r="AL2" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="AM2" s="54" t="s">
+      <c r="AM2" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="AN2" s="54" t="s">
+      <c r="AN2" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="AO2" s="54" t="s">
+      <c r="AO2" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="AP2" s="49" t="s">
+      <c r="AP2" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="AQ2" s="49" t="s">
+      <c r="AQ2" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="AR2" s="54" t="s">
+      <c r="AR2" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="AS2" s="54" t="s">
+      <c r="AS2" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="AT2" s="54" t="s">
+      <c r="AT2" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="AU2" s="54" t="s">
+      <c r="AU2" s="48" t="s">
         <v>232</v>
       </c>
-      <c r="AV2" s="54" t="s">
+      <c r="AV2" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="AW2" s="54" t="s">
+      <c r="AW2" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="AX2" s="54" t="s">
+      <c r="AX2" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="AY2" s="54" t="s">
+      <c r="AY2" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="AZ2" s="54" t="s">
+      <c r="AZ2" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="BA2" s="54" t="s">
+      <c r="BA2" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="BB2" s="54" t="s">
+      <c r="BB2" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="BC2" s="54" t="s">
+      <c r="BC2" s="48" t="s">
         <v>232</v>
       </c>
-      <c r="BD2" s="49" t="s">
+      <c r="BD2" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="BE2" s="49" t="s">
+      <c r="BE2" s="43" t="s">
         <v>235</v>
       </c>
-      <c r="BF2" s="49" t="s">
+      <c r="BF2" s="43" t="s">
         <v>226</v>
       </c>
-      <c r="BG2" s="49" t="s">
+      <c r="BG2" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="BH2" s="49" t="s">
+      <c r="BH2" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="BI2" s="53" t="s">
+      <c r="BI2" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="BJ2" s="53" t="s">
+      <c r="BJ2" s="47" t="s">
         <v>236</v>
       </c>
       <c r="BK2" s="22"/>
@@ -3203,8 +3235,8 @@
       <c r="BQ2" s="27"/>
       <c r="BR2" s="28"/>
       <c r="BS2" s="29"/>
-      <c r="BT2" s="40"/>
-      <c r="BU2" s="40"/>
+      <c r="BT2" s="34"/>
+      <c r="BU2" s="34"/>
     </row>
     <row r="3" spans="1:73" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="25"/>
@@ -3290,282 +3322,282 @@
   </sheetPr>
   <dimension ref="A1:AM2"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.28515625" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21" style="39" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.28515625" style="39" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="49.28515625" style="39" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="32" style="39" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="24.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.5703125" style="39" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="27.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="28.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="38" style="39" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="27.140625" style="39" customWidth="1"/>
-    <col min="29" max="29" width="23" style="39" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="31.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20" style="39" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="23" style="39" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="31.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="20" style="39" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="23" style="39" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="31.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="20" style="39" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="19.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="27.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="49.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32" style="33" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="27.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="28.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="38" style="33" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="27.140625" style="33" customWidth="1"/>
+    <col min="29" max="29" width="23" style="33" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="31.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20" style="33" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="23" style="33" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="31.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20" style="33" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="23" style="33" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="31.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="20" style="33" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="19.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="27.140625" style="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="41" t="s">
         <v>240</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="51" t="s">
         <v>244</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="L1" s="41" t="s">
         <v>246</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="41" t="s">
         <v>247</v>
       </c>
-      <c r="N1" s="47" t="s">
+      <c r="N1" s="41" t="s">
         <v>248</v>
       </c>
-      <c r="O1" s="47" t="s">
+      <c r="O1" s="41" t="s">
         <v>249</v>
       </c>
-      <c r="P1" s="47" t="s">
+      <c r="P1" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="Q1" s="47" t="s">
+      <c r="Q1" s="41" t="s">
         <v>251</v>
       </c>
-      <c r="R1" s="47" t="s">
+      <c r="R1" s="41" t="s">
         <v>252</v>
       </c>
-      <c r="S1" s="47" t="s">
+      <c r="S1" s="41" t="s">
         <v>253</v>
       </c>
-      <c r="T1" s="47" t="s">
+      <c r="T1" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="U1" s="47" t="s">
+      <c r="U1" s="41" t="s">
         <v>255</v>
       </c>
-      <c r="V1" s="47" t="s">
+      <c r="V1" s="41" t="s">
         <v>256</v>
       </c>
-      <c r="W1" s="47" t="s">
+      <c r="W1" s="41" t="s">
         <v>257</v>
       </c>
-      <c r="X1" s="47" t="s">
+      <c r="X1" s="41" t="s">
         <v>258</v>
       </c>
-      <c r="Y1" s="47" t="s">
+      <c r="Y1" s="41" t="s">
         <v>259</v>
       </c>
-      <c r="Z1" s="47" t="s">
+      <c r="Z1" s="41" t="s">
         <v>260</v>
       </c>
-      <c r="AA1" s="47" t="s">
+      <c r="AA1" s="41" t="s">
         <v>261</v>
       </c>
-      <c r="AB1" s="47" t="s">
+      <c r="AB1" s="41" t="s">
         <v>262</v>
       </c>
-      <c r="AC1" s="47" t="s">
+      <c r="AC1" s="41" t="s">
         <v>263</v>
       </c>
-      <c r="AD1" s="47" t="s">
+      <c r="AD1" s="41" t="s">
         <v>264</v>
       </c>
-      <c r="AE1" s="47" t="s">
+      <c r="AE1" s="41" t="s">
         <v>265</v>
       </c>
-      <c r="AF1" s="47" t="s">
+      <c r="AF1" s="41" t="s">
         <v>266</v>
       </c>
-      <c r="AG1" s="47" t="s">
+      <c r="AG1" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="AH1" s="47" t="s">
+      <c r="AH1" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="AI1" s="47" t="s">
+      <c r="AI1" s="41" t="s">
         <v>269</v>
       </c>
-      <c r="AJ1" s="47" t="s">
+      <c r="AJ1" s="41" t="s">
         <v>270</v>
       </c>
-      <c r="AK1" s="47" t="s">
+      <c r="AK1" s="41" t="s">
         <v>271</v>
       </c>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="44" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="65" t="s">
         <v>273</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="65" t="s">
         <v>274</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="44" t="s">
         <v>275</v>
       </c>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="66" t="s">
         <v>276</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="H2" s="61" t="s">
+      <c r="H2" s="55" t="s">
         <v>277</v>
       </c>
-      <c r="I2" s="70" t="s">
+      <c r="I2" s="64" t="s">
         <v>278</v>
       </c>
-      <c r="J2" s="61" t="s">
+      <c r="J2" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="73" t="s">
+      <c r="K2" s="67" t="s">
         <v>217</v>
       </c>
-      <c r="L2" s="73" t="s">
+      <c r="L2" s="67" t="s">
         <v>217</v>
       </c>
-      <c r="M2" s="73" t="s">
+      <c r="M2" s="67" t="s">
         <v>279</v>
       </c>
-      <c r="N2" s="73" t="s">
+      <c r="N2" s="67" t="s">
         <v>279</v>
       </c>
-      <c r="O2" s="71" t="s">
+      <c r="O2" s="65" t="s">
         <v>280</v>
       </c>
-      <c r="P2" s="71" t="s">
+      <c r="P2" s="65" t="s">
         <v>281</v>
       </c>
-      <c r="Q2" s="71" t="s">
+      <c r="Q2" s="65" t="s">
         <v>282</v>
       </c>
-      <c r="R2" s="71" t="s">
+      <c r="R2" s="65" t="s">
         <v>281</v>
       </c>
-      <c r="S2" s="71" t="s">
+      <c r="S2" s="65" t="s">
         <v>283</v>
       </c>
-      <c r="T2" s="71" t="s">
+      <c r="T2" s="65" t="s">
         <v>277</v>
       </c>
-      <c r="U2" s="74" t="s">
+      <c r="U2" s="68" t="s">
         <v>284</v>
       </c>
-      <c r="V2" s="71" t="s">
+      <c r="V2" s="65" t="s">
         <v>281</v>
       </c>
-      <c r="W2" s="71" t="s">
+      <c r="W2" s="65" t="s">
         <v>285</v>
       </c>
-      <c r="X2" s="71" t="s">
+      <c r="X2" s="65" t="s">
         <v>286</v>
       </c>
-      <c r="Y2" s="71" t="s">
+      <c r="Y2" s="65" t="s">
         <v>287</v>
       </c>
-      <c r="Z2" s="73" t="s">
+      <c r="Z2" s="67" t="s">
         <v>288</v>
       </c>
-      <c r="AA2" s="71" t="s">
+      <c r="AA2" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="AB2" s="73" t="s">
+      <c r="AB2" s="67" t="s">
         <v>279</v>
       </c>
-      <c r="AC2" s="73" t="s">
+      <c r="AC2" s="67" t="s">
         <v>289</v>
       </c>
-      <c r="AD2" s="71" t="s">
+      <c r="AD2" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="AE2" s="73" t="s">
-        <v>421</v>
-      </c>
-      <c r="AF2" s="73" t="s">
+      <c r="AE2" s="67" t="s">
+        <v>420</v>
+      </c>
+      <c r="AF2" s="67" t="s">
         <v>291</v>
       </c>
-      <c r="AG2" s="71" t="s">
+      <c r="AG2" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="AH2" s="73" t="s">
+      <c r="AH2" s="67" t="s">
         <v>292</v>
       </c>
-      <c r="AI2" s="73" t="s">
+      <c r="AI2" s="67" t="s">
         <v>293</v>
       </c>
-      <c r="AJ2" s="71" t="s">
+      <c r="AJ2" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="AK2" s="73" t="s">
+      <c r="AK2" s="67" t="s">
         <v>294</v>
       </c>
-      <c r="AL2" s="71"/>
-      <c r="AM2" s="71"/>
+      <c r="AL2" s="65"/>
+      <c r="AM2" s="65"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -3581,156 +3613,162 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="21.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" style="39" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="21" style="39" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.5703125" style="39" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.28515625" style="39" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="21.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="21" style="33" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28.140625" style="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:21" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="D1" s="73" t="s">
         <v>295</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="E1" s="73" t="s">
         <v>296</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="F1" s="73" t="s">
         <v>297</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="G1" s="73" t="s">
         <v>298</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="H1" s="73" t="s">
         <v>299</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="I1" s="73" t="s">
         <v>300</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="J1" s="73" t="s">
         <v>301</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="K1" s="73" t="s">
         <v>302</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="L1" s="73" t="s">
         <v>303</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="M1" s="73" t="s">
         <v>304</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="N1" s="73" t="s">
         <v>305</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="O1" s="73" t="s">
         <v>306</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="P1" s="73" t="s">
         <v>307</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="Q1" s="73" t="s">
         <v>308</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="R1" s="73" t="s">
         <v>309</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="S1" s="73" t="s">
         <v>310</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="T1" s="73" t="s">
         <v>311</v>
       </c>
-      <c r="T1" s="34" t="s">
+      <c r="U1" s="73" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:21" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="C2" s="37" t="s">
+      <c r="B2" s="79" t="s">
+        <v>428</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" s="80" t="s">
         <v>313</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="E2" s="80" t="s">
         <v>234</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="81" t="s">
         <v>314</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="G2" s="80" t="s">
         <v>315</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="H2" s="82" t="s">
         <v>316</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="I2" s="80" t="s">
         <v>317</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="83" t="s">
         <v>318</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="K2" s="80" t="s">
         <v>224</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="83" t="s">
         <v>314</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="M2" s="67" t="s">
         <v>319</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="N2" s="67" t="s">
         <v>320</v>
       </c>
-      <c r="N2" s="32" t="s">
+      <c r="O2" s="67" t="s">
         <v>321</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" s="65" t="s">
         <v>322</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="Q2" s="67" t="s">
         <v>323</v>
       </c>
-      <c r="Q2" s="32" t="s">
+      <c r="R2" s="67" t="s">
+        <v>426</v>
+      </c>
+      <c r="S2" s="67" t="s">
         <v>427</v>
       </c>
-      <c r="R2" s="32" t="s">
-        <v>428</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="T2" s="65" t="s">
         <v>324</v>
       </c>
-      <c r="T2" s="32" t="s">
-        <v>421</v>
+      <c r="U2" s="67" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="26" spans="7:7" x14ac:dyDescent="0.2">
@@ -3751,295 +3789,295 @@
   <dimension ref="A1:AN2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.28515625" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21" style="39" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.28515625" style="39" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="49.28515625" style="39" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="32" style="39" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="24.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.5703125" style="39" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="27.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="28.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="38" style="39" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="27.140625" style="39" customWidth="1"/>
-    <col min="29" max="29" width="23" style="39" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="31.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20" style="39" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="23" style="39" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="31.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="20" style="39" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="23" style="39" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="31.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="20" style="39" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="23" style="39" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="31.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="20" style="39" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="9.140625" style="39"/>
+    <col min="1" max="1" width="6.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="49.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32" style="33" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="27.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="28.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="38" style="33" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="27.140625" style="33" customWidth="1"/>
+    <col min="29" max="29" width="23" style="33" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="31.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20" style="33" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="23" style="33" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="31.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20" style="33" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="23" style="33" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="31.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="20" style="33" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23" style="33" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="31.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="20" style="33" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="9.140625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="41" t="s">
         <v>240</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="51" t="s">
         <v>244</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="L1" s="41" t="s">
         <v>246</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="41" t="s">
         <v>247</v>
       </c>
-      <c r="N1" s="47" t="s">
+      <c r="N1" s="41" t="s">
         <v>248</v>
       </c>
-      <c r="O1" s="47" t="s">
+      <c r="O1" s="41" t="s">
         <v>249</v>
       </c>
-      <c r="P1" s="47" t="s">
+      <c r="P1" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="Q1" s="47" t="s">
+      <c r="Q1" s="41" t="s">
         <v>251</v>
       </c>
-      <c r="R1" s="47" t="s">
+      <c r="R1" s="41" t="s">
         <v>252</v>
       </c>
-      <c r="S1" s="47" t="s">
+      <c r="S1" s="41" t="s">
         <v>253</v>
       </c>
-      <c r="T1" s="47" t="s">
+      <c r="T1" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="U1" s="47" t="s">
+      <c r="U1" s="41" t="s">
         <v>255</v>
       </c>
-      <c r="V1" s="47" t="s">
+      <c r="V1" s="41" t="s">
         <v>256</v>
       </c>
-      <c r="W1" s="47" t="s">
+      <c r="W1" s="41" t="s">
         <v>257</v>
       </c>
-      <c r="X1" s="47" t="s">
+      <c r="X1" s="41" t="s">
         <v>258</v>
       </c>
-      <c r="Y1" s="47" t="s">
+      <c r="Y1" s="41" t="s">
         <v>259</v>
       </c>
-      <c r="Z1" s="47" t="s">
+      <c r="Z1" s="41" t="s">
         <v>260</v>
       </c>
-      <c r="AA1" s="47" t="s">
+      <c r="AA1" s="41" t="s">
         <v>261</v>
       </c>
-      <c r="AB1" s="47" t="s">
+      <c r="AB1" s="41" t="s">
         <v>262</v>
       </c>
-      <c r="AC1" s="47" t="s">
+      <c r="AC1" s="41" t="s">
         <v>263</v>
       </c>
-      <c r="AD1" s="47" t="s">
+      <c r="AD1" s="41" t="s">
         <v>264</v>
       </c>
-      <c r="AE1" s="47" t="s">
+      <c r="AE1" s="41" t="s">
         <v>265</v>
       </c>
-      <c r="AF1" s="47" t="s">
+      <c r="AF1" s="41" t="s">
         <v>266</v>
       </c>
-      <c r="AG1" s="47" t="s">
+      <c r="AG1" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="AH1" s="47" t="s">
+      <c r="AH1" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="AI1" s="47" t="s">
+      <c r="AI1" s="41" t="s">
         <v>269</v>
       </c>
-      <c r="AJ1" s="47" t="s">
+      <c r="AJ1" s="41" t="s">
         <v>270</v>
       </c>
-      <c r="AK1" s="47" t="s">
+      <c r="AK1" s="41" t="s">
         <v>271</v>
       </c>
-      <c r="AL1" s="47" t="s">
+      <c r="AL1" s="41" t="s">
+        <v>400</v>
+      </c>
+      <c r="AM1" s="41" t="s">
         <v>401</v>
       </c>
-      <c r="AM1" s="47" t="s">
+      <c r="AN1" s="41" t="s">
         <v>402</v>
-      </c>
-      <c r="AN1" s="47" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="44" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="65" t="s">
         <v>326</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="65" t="s">
         <v>327</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="44" t="s">
         <v>275</v>
       </c>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="66" t="s">
         <v>328</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="H2" s="61" t="s">
+      <c r="H2" s="55" t="s">
         <v>277</v>
       </c>
-      <c r="I2" s="70" t="s">
+      <c r="I2" s="64" t="s">
         <v>278</v>
       </c>
-      <c r="J2" s="61" t="s">
+      <c r="J2" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="73" t="s">
+      <c r="K2" s="67" t="s">
         <v>217</v>
       </c>
-      <c r="L2" s="73" t="s">
+      <c r="L2" s="67" t="s">
         <v>217</v>
       </c>
-      <c r="M2" s="73" t="s">
+      <c r="M2" s="67" t="s">
         <v>279</v>
       </c>
-      <c r="N2" s="73" t="s">
+      <c r="N2" s="67" t="s">
         <v>279</v>
       </c>
-      <c r="O2" s="71" t="s">
+      <c r="O2" s="65" t="s">
         <v>280</v>
       </c>
-      <c r="P2" s="71" t="s">
+      <c r="P2" s="65" t="s">
         <v>281</v>
       </c>
-      <c r="Q2" s="71" t="s">
+      <c r="Q2" s="65" t="s">
         <v>282</v>
       </c>
-      <c r="R2" s="71" t="s">
+      <c r="R2" s="65" t="s">
         <v>281</v>
       </c>
-      <c r="S2" s="71" t="s">
+      <c r="S2" s="65" t="s">
         <v>283</v>
       </c>
-      <c r="T2" s="71" t="s">
+      <c r="T2" s="65" t="s">
         <v>277</v>
       </c>
-      <c r="U2" s="74" t="s">
+      <c r="U2" s="68" t="s">
         <v>284</v>
       </c>
-      <c r="V2" s="71" t="s">
+      <c r="V2" s="65" t="s">
         <v>281</v>
       </c>
-      <c r="W2" s="71" t="s">
+      <c r="W2" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="X2" s="71" t="s">
+      <c r="X2" s="65" t="s">
         <v>286</v>
       </c>
-      <c r="Y2" s="71" t="s">
+      <c r="Y2" s="65" t="s">
         <v>287</v>
       </c>
-      <c r="Z2" s="73" t="s">
+      <c r="Z2" s="67" t="s">
+        <v>397</v>
+      </c>
+      <c r="AA2" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB2" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC2" s="67" t="s">
         <v>398</v>
       </c>
-      <c r="AA2" s="71" t="s">
+      <c r="AD2" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="AB2" s="73" t="s">
-        <v>279</v>
-      </c>
-      <c r="AC2" s="73" t="s">
+      <c r="AE2" s="67" t="s">
+        <v>290</v>
+      </c>
+      <c r="AF2" s="67" t="s">
         <v>399</v>
       </c>
-      <c r="AD2" s="71" t="s">
+      <c r="AG2" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="AE2" s="73" t="s">
-        <v>290</v>
-      </c>
-      <c r="AF2" s="73" t="s">
-        <v>400</v>
-      </c>
-      <c r="AG2" s="71" t="s">
+      <c r="AH2" s="67" t="s">
+        <v>292</v>
+      </c>
+      <c r="AI2" s="67" t="s">
+        <v>399</v>
+      </c>
+      <c r="AJ2" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="AH2" s="73" t="s">
-        <v>292</v>
-      </c>
-      <c r="AI2" s="73" t="s">
-        <v>400</v>
-      </c>
-      <c r="AJ2" s="71" t="s">
+      <c r="AK2" s="67" t="s">
+        <v>403</v>
+      </c>
+      <c r="AL2" s="67" t="s">
+        <v>404</v>
+      </c>
+      <c r="AM2" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="AK2" s="73" t="s">
-        <v>404</v>
-      </c>
-      <c r="AL2" s="73" t="s">
-        <v>405</v>
-      </c>
-      <c r="AM2" s="71" t="s">
-        <v>120</v>
-      </c>
-      <c r="AN2" s="73" t="s">
+      <c r="AN2" s="67" t="s">
         <v>294</v>
       </c>
     </row>
@@ -4057,161 +4095,168 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="21.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" style="39" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="21" style="39" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.5703125" style="39" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.28515625" style="39" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="39"/>
+    <col min="1" max="1" width="6.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="21.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="21" style="33" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:21" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="D1" s="73" t="s">
         <v>295</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="E1" s="73" t="s">
         <v>296</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="F1" s="73" t="s">
         <v>297</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="G1" s="73" t="s">
         <v>298</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="H1" s="73" t="s">
         <v>299</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="I1" s="73" t="s">
         <v>300</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="J1" s="73" t="s">
         <v>301</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="K1" s="73" t="s">
         <v>302</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="L1" s="73" t="s">
         <v>303</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="M1" s="73" t="s">
         <v>304</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="N1" s="73" t="s">
         <v>305</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="O1" s="73" t="s">
         <v>306</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="P1" s="73" t="s">
         <v>307</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="Q1" s="73" t="s">
         <v>308</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="R1" s="73" t="s">
         <v>309</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="S1" s="73" t="s">
         <v>310</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="T1" s="73" t="s">
         <v>311</v>
       </c>
-      <c r="T1" s="34" t="s">
+      <c r="U1" s="73" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:21" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="79" t="s">
+        <v>429</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2" s="80" t="s">
+        <v>313</v>
+      </c>
+      <c r="E2" s="80" t="s">
+        <v>234</v>
+      </c>
+      <c r="F2" s="81" t="s">
+        <v>314</v>
+      </c>
+      <c r="G2" s="80" t="s">
+        <v>315</v>
+      </c>
+      <c r="H2" s="82" t="s">
+        <v>406</v>
+      </c>
+      <c r="I2" s="80" t="s">
+        <v>407</v>
+      </c>
+      <c r="J2" s="83" t="s">
+        <v>318</v>
+      </c>
+      <c r="K2" s="80" t="s">
+        <v>224</v>
+      </c>
+      <c r="L2" s="83" t="s">
+        <v>314</v>
+      </c>
+      <c r="M2" s="67" t="s">
+        <v>405</v>
+      </c>
+      <c r="N2" s="67" t="s">
+        <v>320</v>
+      </c>
+      <c r="O2" s="67" t="s">
+        <v>321</v>
+      </c>
+      <c r="P2" s="65" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q2" s="67" t="s">
+        <v>323</v>
+      </c>
+      <c r="R2" s="67" t="s">
         <v>430</v>
       </c>
-      <c r="C2" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>234</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>315</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>407</v>
-      </c>
-      <c r="H2" s="37" t="s">
-        <v>408</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="J2" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="L2" s="32" t="s">
-        <v>406</v>
-      </c>
-      <c r="M2" s="32" t="s">
-        <v>320</v>
-      </c>
-      <c r="N2" s="32" t="s">
-        <v>321</v>
-      </c>
-      <c r="O2" s="39" t="s">
-        <v>322</v>
-      </c>
-      <c r="P2" s="32" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q2" s="32" t="s">
+      <c r="S2" s="67" t="s">
         <v>431</v>
       </c>
-      <c r="R2" s="32" t="s">
-        <v>432</v>
-      </c>
-      <c r="S2" s="39" t="s">
+      <c r="T2" s="65" t="s">
         <v>324</v>
       </c>
-      <c r="T2" s="32" t="s">
-        <v>421</v>
+      <c r="U2" s="67" t="s">
+        <v>420</v>
       </c>
     </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G26" s="39" t="s">
+    <row r="26" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H26" s="33" t="s">
         <v>325</v>
       </c>
     </row>
@@ -4224,212 +4269,212 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AD9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="65" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="65" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="65" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.28515625" style="65" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" style="65" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20" style="65" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" style="66" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="65" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" style="66" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" style="66" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" style="66" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5703125" style="66" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" style="66" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.85546875" style="66" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.28515625" style="66" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="34.85546875" style="66" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.7109375" style="66" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27.28515625" style="65" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20" style="65" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" style="65" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="23" style="65" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.85546875" style="65" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.85546875" style="67" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.140625" style="67" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23" style="65" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.85546875" style="65" bestFit="1" customWidth="1"/>
-    <col min="31" max="47" width="9.140625" style="68" customWidth="1"/>
-    <col min="48" max="16384" width="9.140625" style="68"/>
+    <col min="1" max="1" width="6.140625" style="59" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="59" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="59" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="59" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="59" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="59" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" style="59" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="59" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" style="59" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" style="60" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="59" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" style="60" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" style="60" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" style="60" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" style="60" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" style="60" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.85546875" style="60" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.28515625" style="60" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="34.85546875" style="60" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.7109375" style="60" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.28515625" style="59" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20" style="59" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" style="59" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.140625" style="59" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23" style="59" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.85546875" style="59" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23" style="59" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.85546875" style="59" bestFit="1" customWidth="1"/>
+    <col min="31" max="47" width="9.140625" style="62" customWidth="1"/>
+    <col min="48" max="16384" width="9.140625" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="76" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:30" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="73" t="s">
         <v>334</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="73" t="s">
+        <v>416</v>
+      </c>
+      <c r="E1" s="75" t="s">
+        <v>329</v>
+      </c>
+      <c r="F1" s="75" t="s">
+        <v>418</v>
+      </c>
+      <c r="G1" s="75" t="s">
+        <v>419</v>
+      </c>
+      <c r="H1" s="73" t="s">
+        <v>422</v>
+      </c>
+      <c r="I1" s="73" t="s">
+        <v>424</v>
+      </c>
+      <c r="J1" s="73" t="s">
+        <v>330</v>
+      </c>
+      <c r="K1" s="69" t="s">
+        <v>408</v>
+      </c>
+      <c r="L1" s="69" t="s">
+        <v>409</v>
+      </c>
+      <c r="M1" s="52" t="s">
+        <v>331</v>
+      </c>
+      <c r="N1" s="69" t="s">
+        <v>410</v>
+      </c>
+      <c r="O1" s="69" t="s">
+        <v>412</v>
+      </c>
+      <c r="P1" s="69" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q1" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="R1" s="52" t="s">
+        <v>332</v>
+      </c>
+      <c r="S1" s="52" t="s">
+        <v>333</v>
+      </c>
+      <c r="T1" s="51" t="s">
+        <v>334</v>
+      </c>
+      <c r="U1" s="51" t="s">
+        <v>335</v>
+      </c>
+      <c r="V1" s="51" t="s">
+        <v>336</v>
+      </c>
+      <c r="W1" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="X1" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y1" s="50" t="s">
+        <v>337</v>
+      </c>
+      <c r="Z1" s="50" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>415</v>
+      </c>
+      <c r="C2" s="65" t="s">
         <v>417</v>
       </c>
-      <c r="E1" s="81" t="s">
-        <v>329</v>
-      </c>
-      <c r="F1" s="81" t="s">
-        <v>419</v>
-      </c>
-      <c r="G1" s="81" t="s">
-        <v>420</v>
-      </c>
-      <c r="H1" s="79" t="s">
+      <c r="D2" s="65" t="s">
+        <v>340</v>
+      </c>
+      <c r="E2" s="54" t="s">
+        <v>339</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>278</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="74" t="s">
+        <v>421</v>
+      </c>
+      <c r="I2" s="67" t="s">
         <v>423</v>
       </c>
-      <c r="I1" s="79" t="s">
+      <c r="J2" s="67" t="s">
         <v>425</v>
       </c>
-      <c r="J1" s="79" t="s">
-        <v>330</v>
-      </c>
-      <c r="K1" s="75" t="s">
-        <v>409</v>
-      </c>
-      <c r="L1" s="75" t="s">
-        <v>410</v>
-      </c>
-      <c r="M1" s="58" t="s">
-        <v>331</v>
-      </c>
-      <c r="N1" s="75" t="s">
-        <v>411</v>
-      </c>
-      <c r="O1" s="75" t="s">
+      <c r="K2" s="72" t="s">
         <v>413</v>
       </c>
-      <c r="P1" s="75" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q1" s="58" t="s">
-        <v>165</v>
-      </c>
-      <c r="R1" s="58" t="s">
-        <v>332</v>
-      </c>
-      <c r="S1" s="58" t="s">
-        <v>333</v>
-      </c>
-      <c r="T1" s="57" t="s">
-        <v>334</v>
-      </c>
-      <c r="U1" s="57" t="s">
-        <v>335</v>
-      </c>
-      <c r="V1" s="57" t="s">
-        <v>336</v>
-      </c>
-      <c r="W1" s="56" t="s">
-        <v>203</v>
-      </c>
-      <c r="X1" s="56" t="s">
-        <v>204</v>
-      </c>
-      <c r="Y1" s="56" t="s">
-        <v>337</v>
-      </c>
-      <c r="Z1" s="56" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="59" t="s">
-        <v>416</v>
-      </c>
-      <c r="C2" s="71" t="s">
-        <v>418</v>
-      </c>
-      <c r="D2" s="71" t="s">
-        <v>340</v>
-      </c>
-      <c r="E2" s="60" t="s">
-        <v>339</v>
-      </c>
-      <c r="F2" s="59" t="s">
-        <v>278</v>
-      </c>
-      <c r="G2" s="61" t="s">
-        <v>112</v>
-      </c>
-      <c r="H2" s="80" t="s">
-        <v>422</v>
-      </c>
-      <c r="I2" s="73" t="s">
-        <v>424</v>
-      </c>
-      <c r="J2" s="73" t="s">
-        <v>426</v>
-      </c>
-      <c r="K2" s="78" t="s">
+      <c r="L2" s="72" t="s">
         <v>414</v>
       </c>
-      <c r="L2" s="78" t="s">
-        <v>415</v>
-      </c>
-      <c r="M2" s="62" t="s">
+      <c r="M2" s="56" t="s">
         <v>217</v>
       </c>
-      <c r="N2" s="77" t="s">
+      <c r="N2" s="71" t="s">
         <v>277</v>
       </c>
-      <c r="O2" s="77" t="s">
+      <c r="O2" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="P2" s="77" t="s">
+      <c r="P2" s="71" t="s">
         <v>277</v>
       </c>
-      <c r="Q2" s="61" t="s">
+      <c r="Q2" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="R2" s="61" t="s">
+      <c r="R2" s="55" t="s">
         <v>343</v>
       </c>
-      <c r="S2" s="61" t="s">
+      <c r="S2" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="T2" s="61" t="s">
+      <c r="T2" s="55" t="s">
         <v>342</v>
       </c>
-      <c r="U2" s="64" t="s">
+      <c r="U2" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="V2" s="64" t="s">
+      <c r="V2" s="58" t="s">
         <v>217</v>
       </c>
-      <c r="W2" s="64" t="s">
+      <c r="W2" s="58" t="s">
         <v>341</v>
       </c>
-      <c r="X2" s="64" t="s">
+      <c r="X2" s="58" t="s">
         <v>341</v>
       </c>
-      <c r="Y2" s="63" t="s">
+      <c r="Y2" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="Z2" s="63" t="s">
+      <c r="Z2" s="57" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="Z3" s="67"/>
-      <c r="AB3" s="65"/>
-      <c r="AD3" s="68"/>
+      <c r="Z3" s="61"/>
+      <c r="AB3" s="59"/>
+      <c r="AD3" s="62"/>
     </row>
-    <row r="4" spans="1:30" s="39" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -4437,33 +4482,33 @@
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:30" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
+    <row r="5" spans="1:30" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="I8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="X8" s="67"/>
-      <c r="Y8" s="67"/>
-      <c r="AA8" s="65"/>
-      <c r="AB8" s="68"/>
-      <c r="AC8" s="68"/>
-      <c r="AD8" s="68"/>
+      <c r="I8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="X8" s="61"/>
+      <c r="Y8" s="61"/>
+      <c r="AA8" s="59"/>
+      <c r="AB8" s="62"/>
+      <c r="AC8" s="62"/>
+      <c r="AD8" s="62"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="I9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="X9" s="67"/>
-      <c r="Y9" s="67"/>
-      <c r="AA9" s="65"/>
-      <c r="AB9" s="68"/>
-      <c r="AC9" s="68"/>
-      <c r="AD9" s="68"/>
+      <c r="I9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="X9" s="61"/>
+      <c r="Y9" s="61"/>
+      <c r="AA9" s="59"/>
+      <c r="AB9" s="62"/>
+      <c r="AC9" s="62"/>
+      <c r="AD9" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4473,165 +4518,163 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="39" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.28515625" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.28515625" style="39" customWidth="1"/>
-    <col min="13" max="13" width="21.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21" style="39" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="37.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.5703125" style="39" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26" style="39" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.5703125" style="39" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.5703125" style="39" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.5703125" style="39" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="31.28515625" style="39" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.28515625" style="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" style="33" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21" style="33" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="37.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26" style="33" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="31.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.28515625" style="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="D1" s="30" t="s">
+      <c r="C1" s="30" t="s">
         <v>345</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="D1" s="35" t="s">
         <v>346</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="E1" s="35" t="s">
         <v>347</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="F1" s="35" t="s">
         <v>348</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="G1" s="35" t="s">
         <v>349</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="35" t="s">
         <v>350</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="I1" s="35" t="s">
         <v>351</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="J1" s="35" t="s">
         <v>352</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="K1" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="L1" s="35" t="s">
         <v>354</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="M1" s="35" t="s">
         <v>355</v>
       </c>
-      <c r="O1" s="41" t="s">
+      <c r="N1" s="76" t="s">
         <v>356</v>
       </c>
-      <c r="P1" s="41" t="s">
+      <c r="O1" s="76" t="s">
         <v>357</v>
       </c>
-      <c r="Q1" s="41" t="s">
+      <c r="P1" s="35" t="s">
         <v>358</v>
       </c>
-      <c r="R1" s="41" t="s">
+      <c r="Q1" s="35" t="s">
         <v>359</v>
       </c>
-      <c r="S1" s="41" t="s">
+      <c r="R1" s="35" t="s">
         <v>360</v>
       </c>
-      <c r="T1" s="41" t="s">
+      <c r="S1" s="35" t="s">
         <v>361</v>
       </c>
-      <c r="U1" s="41" t="s">
+      <c r="T1" s="35" t="s">
         <v>362</v>
       </c>
-      <c r="V1" s="41" t="s">
+      <c r="U1" s="35" t="s">
         <v>363</v>
       </c>
-      <c r="W1" s="41" t="s">
+      <c r="V1" s="35" t="s">
         <v>364</v>
       </c>
-      <c r="X1" s="41" t="s">
+      <c r="W1" s="35" t="s">
         <v>365</v>
       </c>
-      <c r="Y1" s="41" t="s">
+      <c r="X1" s="35" t="s">
         <v>366</v>
       </c>
-      <c r="Z1" s="41" t="s">
+      <c r="Y1" s="35" t="s">
         <v>367</v>
       </c>
-      <c r="AA1" s="41" t="s">
+      <c r="Z1" s="35" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>84</v>
       </c>
       <c r="B2" s="31" t="s">
+        <v>432</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>369</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31" t="s">
-        <v>370</v>
+      <c r="D2" t="s">
+        <v>280</v>
       </c>
       <c r="E2" t="s">
-        <v>280</v>
+        <v>224</v>
       </c>
       <c r="F2" t="s">
-        <v>224</v>
-      </c>
-      <c r="G2" t="s">
         <v>128</v>
       </c>
+      <c r="G2" s="32" t="s">
+        <v>435</v>
+      </c>
       <c r="H2" s="32" t="s">
-        <v>371</v>
+        <v>436</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="J2" s="32" t="s">
+        <v>437</v>
+      </c>
+      <c r="J2" t="s">
         <v>373</v>
       </c>
       <c r="K2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L2" t="s">
         <v>374</v>
       </c>
-      <c r="L2" t="s">
-        <v>120</v>
-      </c>
-      <c r="M2" t="s">
-        <v>375</v>
-      </c>
-      <c r="N2" s="32" t="s">
+      <c r="M2" s="32" t="s">
+        <v>420</v>
+      </c>
+      <c r="N2" t="s">
         <v>376</v>
       </c>
       <c r="O2" t="s">
@@ -4640,37 +4683,114 @@
       <c r="P2" t="s">
         <v>378</v>
       </c>
-      <c r="Q2" t="s">
-        <v>379</v>
+      <c r="Q2" s="32" t="s">
+        <v>435</v>
       </c>
       <c r="R2" s="32" t="s">
-        <v>371</v>
+        <v>435</v>
       </c>
       <c r="S2" s="32" t="s">
-        <v>371</v>
+        <v>435</v>
       </c>
       <c r="T2" s="32" t="s">
-        <v>371</v>
+        <v>435</v>
       </c>
       <c r="U2" s="32" t="s">
-        <v>371</v>
+        <v>438</v>
       </c>
       <c r="V2" s="32" t="s">
-        <v>380</v>
+        <v>439</v>
       </c>
       <c r="W2" s="32" t="s">
-        <v>381</v>
-      </c>
-      <c r="X2" s="32" t="s">
+        <v>440</v>
+      </c>
+      <c r="X2" t="s">
         <v>382</v>
       </c>
       <c r="Y2" t="s">
         <v>383</v>
       </c>
       <c r="Z2" t="s">
-        <v>384</v>
-      </c>
-      <c r="AA2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
+        <v>433</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>434</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>374</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>376</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>377</v>
+      </c>
+      <c r="P3" s="33" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q3" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="R3" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="S3" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="T3" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="U3" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="V3" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="W3" s="32" t="s">
+        <v>381</v>
+      </c>
+      <c r="X3" s="33" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y3" s="33" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z3" s="33" t="s">
         <v>120</v>
       </c>
     </row>
@@ -4690,9 +4810,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="38.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" style="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -4703,10 +4823,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>385</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4714,7 +4834,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C2" t="s">
         <v>224</v>

--- a/DataSet/NewUATDeals_DataSet/Deal_PDS_SYND.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_PDS_SYND.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F7B503-0782-44A8-A9B1-52BE3FB5A5F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4F96F7-1030-4E60-A69D-65376E5C5D95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-2730" windowWidth="29040" windowHeight="16440" tabRatio="877" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="18000" windowHeight="9360" tabRatio="877" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTY001_QuickPartyOnboarding" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="436">
   <si>
     <t>rowid</t>
   </si>
@@ -655,10 +655,10 @@
     <t>PDS FINCO SYND_</t>
   </si>
   <si>
-    <t>PDS FINCO SYND DEAL AUD1.1B 28FEB182501</t>
-  </si>
-  <si>
-    <t>PDS FINCO SYND_2503</t>
+    <t>PDS FINCO SYND DEAL AUD1.1B 28FEB185108</t>
+  </si>
+  <si>
+    <t>PDS FINCO SYND_5111</t>
   </si>
   <si>
     <t>Global</t>
@@ -853,7 +853,7 @@
     <t>FACILITY_A_2018_</t>
   </si>
   <si>
-    <t>FACILITY_A_2018_01155</t>
+    <t>FACILITY_A_2018_05155</t>
   </si>
   <si>
     <t>Term</t>
@@ -901,457 +901,442 @@
     <t>11,615,916.98</t>
   </si>
   <si>
+    <t>30-Dec-2019</t>
+  </si>
+  <si>
+    <t>10,953,340.60</t>
+  </si>
+  <si>
+    <t>20-Jan-2020</t>
+  </si>
+  <si>
+    <t>12,123,123.23</t>
+  </si>
+  <si>
+    <t>18-Jun-2020</t>
+  </si>
+  <si>
+    <t>OngoingFee_Category</t>
+  </si>
+  <si>
+    <t>OngoingFee_Type</t>
+  </si>
+  <si>
+    <t>OngoingFee_RateBasis</t>
+  </si>
+  <si>
+    <t>OngoingFee_AfterItem</t>
+  </si>
+  <si>
+    <t>Facility_PercentWhole</t>
+  </si>
+  <si>
+    <t>Facility_Percent</t>
+  </si>
+  <si>
+    <t>Interest_AddItem</t>
+  </si>
+  <si>
+    <t>Interest_OptionName</t>
+  </si>
+  <si>
+    <t>Interest_RateBasis</t>
+  </si>
+  <si>
+    <t>Interest_SpreadAmt</t>
+  </si>
+  <si>
+    <t>PenaltySpread_Value</t>
+  </si>
+  <si>
+    <t>PenaltySpread_Status</t>
+  </si>
+  <si>
+    <t>Interest_BaseRateCode</t>
+  </si>
+  <si>
+    <t>OngoingFee_EffectiveDate</t>
+  </si>
+  <si>
+    <t>OngoingFee_ActualDate</t>
+  </si>
+  <si>
+    <t>OngoingFee_AdjustedDueDate</t>
+  </si>
+  <si>
+    <t>OngoingFee_Accrue</t>
+  </si>
+  <si>
+    <t>OngoingFee_AccrualEndDate</t>
+  </si>
+  <si>
+    <t>Establish Commitment Fee For Facility A</t>
+  </si>
+  <si>
+    <t>Facility Ongoing Fee</t>
+  </si>
+  <si>
+    <t>Actual/365</t>
+  </si>
+  <si>
+    <t>FormulaCategory</t>
+  </si>
+  <si>
+    <t>0.36%</t>
+  </si>
+  <si>
+    <t>0.360000</t>
+  </si>
+  <si>
+    <t>Option</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>BBSY</t>
+  </si>
+  <si>
+    <t>01-Sep-2019</t>
+  </si>
+  <si>
+    <t>31-Dec-2020</t>
+  </si>
+  <si>
+    <t>30-Dec-2020</t>
+  </si>
+  <si>
+    <t>to the actual due date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>ScheduleItem_Amount4</t>
+  </si>
+  <si>
+    <t>ScheduleItem_PercentofCurrent4</t>
+  </si>
+  <si>
+    <t>ScheduleItem_Date4</t>
+  </si>
+  <si>
+    <t>FACILITY_B_2018_</t>
+  </si>
+  <si>
+    <t>FACILITY_B_2018_28139</t>
+  </si>
+  <si>
+    <t>480,000,000.00</t>
+  </si>
+  <si>
+    <t>444,767,919.14</t>
+  </si>
+  <si>
+    <t>9,218,981.73</t>
+  </si>
+  <si>
+    <t>8,693,127.46</t>
+  </si>
+  <si>
+    <t>18-Mar-2020</t>
+  </si>
+  <si>
+    <t>8,626,844.21</t>
+  </si>
+  <si>
+    <t>Establish Commitment Fee For Facility B</t>
+  </si>
+  <si>
+    <t>0.48%</t>
+  </si>
+  <si>
+    <t>0.480000</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>31-Dec-2019</t>
+  </si>
+  <si>
+    <t>02-Jan-2020</t>
+  </si>
+  <si>
+    <t>Primary_RiskBook</t>
+  </si>
+  <si>
+    <t>Primaries_TransactionType</t>
+  </si>
+  <si>
+    <t>LenderType1</t>
+  </si>
+  <si>
+    <t>Primary_Lender</t>
+  </si>
+  <si>
+    <t>Primary_LenderLoc</t>
+  </si>
+  <si>
+    <t>Primary_PctOfDeal</t>
+  </si>
+  <si>
+    <t>Primary_SellAmount</t>
+  </si>
+  <si>
+    <t>Primary_BuySellPrice</t>
+  </si>
+  <si>
+    <t>Sell_Amount1</t>
+  </si>
+  <si>
+    <t>Sell_Amount2</t>
+  </si>
+  <si>
+    <t>Expected_CloseDate</t>
+  </si>
+  <si>
+    <t>Primary_Contact</t>
+  </si>
+  <si>
+    <t>Primary_SGMember</t>
+  </si>
+  <si>
+    <t>Primary_SGAlias</t>
+  </si>
+  <si>
+    <t>Primary_Portfolio</t>
+  </si>
+  <si>
+    <t>Primary_PortfolioBranch</t>
+  </si>
+  <si>
+    <t>Primary_PortfolioExpiryDate</t>
+  </si>
+  <si>
+    <t>Primary_CircledDate</t>
+  </si>
+  <si>
+    <t>ServicingGroupMember</t>
+  </si>
+  <si>
+    <t>IsLenderAHostBank</t>
+  </si>
+  <si>
+    <t>Setup Primaries</t>
+  </si>
+  <si>
+    <t>Real Estate and Infrastructure</t>
+  </si>
+  <si>
+    <t>Origination</t>
+  </si>
+  <si>
+    <t>Host Bank</t>
+  </si>
+  <si>
+    <t>12.389352041117</t>
+  </si>
+  <si>
+    <t>134,387,301.59</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>76,787,301.59</t>
+  </si>
+  <si>
+    <t>57,600,000.00</t>
+  </si>
+  <si>
+    <t>Hold for Investment - Australia</t>
+  </si>
+  <si>
+    <t>RE_RES</t>
+  </si>
+  <si>
+    <t>26-Nov-2018</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Loan_Alias</t>
+  </si>
+  <si>
+    <t>Outstanding_Type</t>
+  </si>
+  <si>
+    <t>Pricing_Option</t>
+  </si>
+  <si>
+    <t>Outstanding_Currency</t>
+  </si>
+  <si>
+    <t>Loan_RequestedAmount</t>
+  </si>
+  <si>
+    <t>Loan_EffectiveDate</t>
+  </si>
+  <si>
+    <t>Loan_MaturityDate</t>
+  </si>
+  <si>
+    <t>Loan_RepricingFrequency</t>
+  </si>
+  <si>
+    <t>Loan_IntCycleFrequency</t>
+  </si>
+  <si>
+    <t>Loan_Accrue</t>
+  </si>
+  <si>
+    <t>Loan_RepricingDate</t>
+  </si>
+  <si>
+    <t>Remittance_Description</t>
+  </si>
+  <si>
+    <t>Remittance_Instruction</t>
+  </si>
+  <si>
+    <t>AcceptRate_FromPricing</t>
+  </si>
+  <si>
+    <t>Expctd_LoanGlobalOriginal</t>
+  </si>
+  <si>
+    <t>Expctd_LoanGlobalCurrent</t>
+  </si>
+  <si>
+    <t>Expctd_LoanHostBankGross</t>
+  </si>
+  <si>
+    <t>Expctd_LoanHostBankNet</t>
+  </si>
+  <si>
+    <t>Expctd_LoanCurrentBaseRate</t>
+  </si>
+  <si>
+    <t>Expctd_LoanSpread</t>
+  </si>
+  <si>
+    <t>Expctd_LoanAllInRate</t>
+  </si>
+  <si>
+    <t>Loan_PaymentMode</t>
+  </si>
+  <si>
+    <t>Expctd_Loan_IntCycleFrequency</t>
+  </si>
+  <si>
+    <t>Borrower_BaseRate</t>
+  </si>
+  <si>
+    <t>Create Drawdown – Outstanding A</t>
+  </si>
+  <si>
+    <t>60003093</t>
+  </si>
+  <si>
+    <t>18-Sep-2019</t>
+  </si>
+  <si>
+    <t>3 Months</t>
+  </si>
+  <si>
+    <t>to the adjusted due date</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>1.041700%</t>
+  </si>
+  <si>
+    <t>0.900000%</t>
+  </si>
+  <si>
+    <t>1.941700%</t>
+  </si>
+  <si>
+    <t>Pay in Arrears</t>
+  </si>
+  <si>
+    <t>Quarterly</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Create Drawdown – Outstanding B</t>
+  </si>
+  <si>
+    <t>60003096</t>
+  </si>
+  <si>
+    <t>1.200000%</t>
+  </si>
+  <si>
+    <t>2.241700%</t>
+  </si>
+  <si>
+    <t>InterestPricingOption</t>
+  </si>
+  <si>
+    <t>Pricing_MatrixChangeAppMethod</t>
+  </si>
+  <si>
+    <t>Update Deal Pricing</t>
+  </si>
+  <si>
+    <t>UpfrontFee_Amount</t>
+  </si>
+  <si>
+    <t>UpfrontFee_EffectiveDate</t>
+  </si>
+  <si>
+    <t>Fee_Type</t>
+  </si>
+  <si>
+    <t>UpfrontFeePayment_Comment</t>
+  </si>
+  <si>
+    <t>UpfrontFeePayment_NoticeMethod</t>
+  </si>
+  <si>
+    <t>Notice_Subject</t>
+  </si>
+  <si>
+    <t>Notice_Comment</t>
+  </si>
+  <si>
+    <t>Charge Upfront fee</t>
+  </si>
+  <si>
+    <t>275,750</t>
+  </si>
+  <si>
     <t>27-Dec-2019</t>
   </si>
   <si>
-    <t>10,953,340.60</t>
-  </si>
-  <si>
-    <t>20-Jan-2020</t>
-  </si>
-  <si>
-    <t>12,123,123.23</t>
-  </si>
-  <si>
-    <t>18-Jun-2020</t>
-  </si>
-  <si>
-    <t>OngoingFee_Category</t>
-  </si>
-  <si>
-    <t>OngoingFee_Type</t>
-  </si>
-  <si>
-    <t>OngoingFee_RateBasis</t>
-  </si>
-  <si>
-    <t>OngoingFee_AfterItem</t>
-  </si>
-  <si>
-    <t>Facility_PercentWhole</t>
-  </si>
-  <si>
-    <t>Facility_Percent</t>
-  </si>
-  <si>
-    <t>Interest_AddItem</t>
-  </si>
-  <si>
-    <t>Interest_OptionName</t>
-  </si>
-  <si>
-    <t>Interest_RateBasis</t>
-  </si>
-  <si>
-    <t>Interest_SpreadAmt</t>
-  </si>
-  <si>
-    <t>PenaltySpread_Value</t>
-  </si>
-  <si>
-    <t>PenaltySpread_Status</t>
-  </si>
-  <si>
-    <t>Interest_BaseRateCode</t>
-  </si>
-  <si>
-    <t>OngoingFee_EffectiveDate</t>
-  </si>
-  <si>
-    <t>OngoingFee_ActualDate</t>
-  </si>
-  <si>
-    <t>OngoingFee_AdjustedDueDate</t>
-  </si>
-  <si>
-    <t>OngoingFee_Accrue</t>
-  </si>
-  <si>
-    <t>OngoingFee_AccrualEndDate</t>
-  </si>
-  <si>
-    <t>Facility Ongoing Fee</t>
-  </si>
-  <si>
-    <t>Actual/365</t>
-  </si>
-  <si>
-    <t>FormulaCategory</t>
-  </si>
-  <si>
-    <t>0.36%</t>
-  </si>
-  <si>
-    <t>0.360000</t>
-  </si>
-  <si>
-    <t>Option</t>
-  </si>
-  <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>Off</t>
-  </si>
-  <si>
-    <t>BBSY</t>
-  </si>
-  <si>
-    <t>01-Sep-2019</t>
-  </si>
-  <si>
-    <t>to the actual due date</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>FACILITY_B_2018_</t>
-  </si>
-  <si>
-    <t>FACILITY_B_2018_20107</t>
-  </si>
-  <si>
-    <t>480,000,000.00</t>
-  </si>
-  <si>
-    <t>LenderType1</t>
-  </si>
-  <si>
-    <t>Primary_BuySellPrice</t>
-  </si>
-  <si>
-    <t>Expected_CloseDate</t>
-  </si>
-  <si>
-    <t>Primary_Portfolio</t>
-  </si>
-  <si>
-    <t>Primary_PortfolioBranch</t>
-  </si>
-  <si>
-    <t>Primary_RiskBook</t>
-  </si>
-  <si>
-    <t>Primary_PortfolioExpiryDate</t>
-  </si>
-  <si>
-    <t>Primary_CircledDate</t>
-  </si>
-  <si>
-    <t>ServicingGroupMember</t>
-  </si>
-  <si>
-    <t>IsLenderAHostBank</t>
-  </si>
-  <si>
-    <t>Host Bank</t>
-  </si>
-  <si>
-    <t>Origination</t>
-  </si>
-  <si>
-    <t>26-Nov-2018</t>
-  </si>
-  <si>
-    <t>RE_RES</t>
-  </si>
-  <si>
-    <t>Hold for Investment - Australia</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Loan_Alias</t>
-  </si>
-  <si>
-    <t>Outstanding_Type</t>
-  </si>
-  <si>
-    <t>Pricing_Option</t>
-  </si>
-  <si>
-    <t>Outstanding_Currency</t>
-  </si>
-  <si>
-    <t>Loan_RequestedAmount</t>
-  </si>
-  <si>
-    <t>Loan_EffectiveDate</t>
-  </si>
-  <si>
-    <t>Loan_MaturityDate</t>
-  </si>
-  <si>
-    <t>Loan_RepricingFrequency</t>
-  </si>
-  <si>
-    <t>Loan_IntCycleFrequency</t>
-  </si>
-  <si>
-    <t>Loan_Accrue</t>
-  </si>
-  <si>
-    <t>Loan_RepricingDate</t>
-  </si>
-  <si>
-    <t>Notice_Subject</t>
-  </si>
-  <si>
-    <t>Notice_Comment</t>
-  </si>
-  <si>
-    <t>AcceptRate_FromPricing</t>
-  </si>
-  <si>
-    <t>Expctd_LoanGlobalOriginal</t>
-  </si>
-  <si>
-    <t>Expctd_LoanGlobalCurrent</t>
-  </si>
-  <si>
-    <t>Expctd_LoanHostBankGross</t>
-  </si>
-  <si>
-    <t>Expctd_LoanHostBankNet</t>
-  </si>
-  <si>
-    <t>Expctd_LoanCurrentBaseRate</t>
-  </si>
-  <si>
-    <t>Expctd_LoanSpread</t>
-  </si>
-  <si>
-    <t>Expctd_LoanAllInRate</t>
-  </si>
-  <si>
-    <t>Loan_PaymentMode</t>
-  </si>
-  <si>
-    <t>Expctd_Loan_IntCycleFrequency</t>
-  </si>
-  <si>
-    <t>BorrowerBaseRate</t>
-  </si>
-  <si>
-    <t>60001947</t>
-  </si>
-  <si>
-    <t>275,750.00</t>
-  </si>
-  <si>
-    <t>17-Dec-2019</t>
-  </si>
-  <si>
-    <t>17-Dec-2024</t>
-  </si>
-  <si>
-    <t>3 Months</t>
-  </si>
-  <si>
-    <t>to the adjusted due date</t>
-  </si>
-  <si>
-    <t>16-Mar-2020</t>
+    <t>Establishment/Extension Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charging and Capitalizing the Upfront Fee </t>
   </si>
   <si>
     <t>Capitalizing Upfront Fee</t>
   </si>
   <si>
-    <t>The drawdown is capitalizing the upfront fee</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>0.950300%</t>
-  </si>
-  <si>
-    <t>2.000000%</t>
-  </si>
-  <si>
-    <t>2.950300%</t>
-  </si>
-  <si>
-    <t>Pay in Arrears</t>
-  </si>
-  <si>
-    <t>Quarterly</t>
-  </si>
-  <si>
-    <t>InterestPricingOption</t>
-  </si>
-  <si>
-    <t>Pricing_MatrixChangeAppMethod</t>
-  </si>
-  <si>
-    <t>Update Deal Pricing</t>
-  </si>
-  <si>
-    <t>UpfrontFee_Amount</t>
-  </si>
-  <si>
-    <t>UpfrontFee_EffectiveDate</t>
-  </si>
-  <si>
-    <t>Fee_Type</t>
-  </si>
-  <si>
-    <t>UpfrontFeePayment_Comment</t>
-  </si>
-  <si>
-    <t>UpfrontFeePayment_NoticeMethod</t>
-  </si>
-  <si>
-    <t>Charge Upfront fee</t>
-  </si>
-  <si>
-    <t>275,750</t>
-  </si>
-  <si>
-    <t>Establishment/Extension Fee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charging and Capitalizing the Upfront Fee </t>
-  </si>
-  <si>
     <t>The Upfront Fee would be capitalized as a new drawdown</t>
-  </si>
-  <si>
-    <t>444,767,919.14</t>
-  </si>
-  <si>
-    <t>9,218,981.73</t>
-  </si>
-  <si>
-    <t>8,693,127.46</t>
-  </si>
-  <si>
-    <t>ScheduleItem_Amount4</t>
-  </si>
-  <si>
-    <t>ScheduleItem_PercentofCurrent4</t>
-  </si>
-  <si>
-    <t>ScheduleItem_Date4</t>
-  </si>
-  <si>
-    <t>18-Mar-2020</t>
-  </si>
-  <si>
-    <t>8,626,844.21</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>0.48%</t>
-  </si>
-  <si>
-    <t>0.480000</t>
-  </si>
-  <si>
-    <t>Sell_Amount1</t>
-  </si>
-  <si>
-    <t>Sell_Amount2</t>
-  </si>
-  <si>
-    <t>Primary_Contact</t>
-  </si>
-  <si>
-    <t>Primary_SGAlias</t>
-  </si>
-  <si>
-    <t>Primary_SGMember</t>
-  </si>
-  <si>
-    <t>76,787,301.59</t>
-  </si>
-  <si>
-    <t>57,600,000.00</t>
-  </si>
-  <si>
-    <t>Setup Primaries</t>
-  </si>
-  <si>
-    <t>Primaries_TransactionType</t>
-  </si>
-  <si>
-    <t>Real Estate and Infrastructure</t>
-  </si>
-  <si>
-    <t>Primary_Lender</t>
-  </si>
-  <si>
-    <t>Primary_LenderLoc</t>
-  </si>
-  <si>
-    <t>30-Dec-2019</t>
-  </si>
-  <si>
-    <t>12.389352041117</t>
-  </si>
-  <si>
-    <t>Primary_PctOfDeal</t>
-  </si>
-  <si>
-    <t>134,387,301.59</t>
-  </si>
-  <si>
-    <t>Primary_SellAmount</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>31-Dec-2020</t>
-  </si>
-  <si>
-    <t>30-Dec-2020</t>
-  </si>
-  <si>
-    <t>Establish Commitment Fee For Facility A</t>
-  </si>
-  <si>
-    <t>Establish Commitment Fee For Facility B</t>
-  </si>
-  <si>
-    <t>31-Dec-2019</t>
-  </si>
-  <si>
-    <t>02-Jan-2020</t>
-  </si>
-  <si>
-    <t>Create Drawdown – Outstanding A1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Create Drawdown – Outstanding B1</t>
-  </si>
-  <si>
-    <t>640,700,000.00</t>
-  </si>
-  <si>
-    <t>18-Sep-2019</t>
-  </si>
-  <si>
-    <t>18-Feb-2021</t>
-  </si>
-  <si>
-    <t>1.04170%</t>
-  </si>
-  <si>
-    <t>0.90000%</t>
-  </si>
-  <si>
-    <t>1.94170%</t>
   </si>
 </sst>
 </file>
@@ -1453,7 +1438,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1499,12 +1484,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF99CC00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1668,7 +1647,6 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
@@ -1680,6 +1658,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -1691,11 +1672,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FF99CC00"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2011,8 +1987,8 @@
   <dimension ref="A1:CF23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="BN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AJ6" sqref="AJ6"/>
+      <pane xSplit="2" topLeftCell="BO1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BS1" sqref="BS1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2708,25 +2684,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>387</v>
+        <v>422</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>388</v>
+        <v>423</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>389</v>
+        <v>424</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>390</v>
+        <v>425</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>391</v>
+        <v>426</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>356</v>
+        <v>427</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>357</v>
+        <v>428</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -2734,28 +2710,28 @@
         <v>84</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>392</v>
+        <v>429</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>393</v>
+        <v>430</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>290</v>
+        <v>431</v>
       </c>
       <c r="E2" t="s">
-        <v>394</v>
+        <v>432</v>
       </c>
       <c r="F2" t="s">
-        <v>395</v>
+        <v>433</v>
       </c>
       <c r="G2" t="s">
         <v>122</v>
       </c>
       <c r="H2" t="s">
-        <v>376</v>
+        <v>434</v>
       </c>
       <c r="I2" t="s">
-        <v>396</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -2770,8 +2746,8 @@
   </sheetPr>
   <dimension ref="A1:BU7"/>
   <sheetViews>
-    <sheetView topLeftCell="BA1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BF3" sqref="BF3"/>
+    <sheetView topLeftCell="BK1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2845,8 +2821,8 @@
     <col min="70" max="70" width="24" style="27" bestFit="1" customWidth="1"/>
     <col min="71" max="71" width="13.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="11.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="73" max="101" width="9.140625" style="27" customWidth="1"/>
-    <col min="102" max="16384" width="9.140625" style="27"/>
+    <col min="73" max="113" width="9.140625" style="27" customWidth="1"/>
+    <col min="114" max="16384" width="9.140625" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:73" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3322,8 +3298,8 @@
   </sheetPr>
   <dimension ref="A1:AM2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D2"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AE3" sqref="AE3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3576,7 +3552,7 @@
         <v>120</v>
       </c>
       <c r="AE2" s="67" t="s">
-        <v>420</v>
+        <v>290</v>
       </c>
       <c r="AF2" s="67" t="s">
         <v>291</v>
@@ -3615,8 +3591,8 @@
   </sheetPr>
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3636,13 +3612,12 @@
     <col min="15" max="15" width="22.42578125" style="33" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25.5703125" style="33" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="23.42578125" style="33" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.28515625" style="33" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.7109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="29.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="28.140625" style="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="73" t="s">
@@ -3707,73 +3682,73 @@
       </c>
     </row>
     <row r="2" spans="1:21" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="79" t="s">
-        <v>428</v>
+      <c r="B2" s="78" t="s">
+        <v>313</v>
       </c>
       <c r="C2" s="65" t="s">
         <v>274</v>
       </c>
-      <c r="D2" s="80" t="s">
-        <v>313</v>
-      </c>
-      <c r="E2" s="80" t="s">
+      <c r="D2" s="79" t="s">
+        <v>314</v>
+      </c>
+      <c r="E2" s="79" t="s">
         <v>234</v>
       </c>
-      <c r="F2" s="81" t="s">
-        <v>314</v>
-      </c>
-      <c r="G2" s="80" t="s">
+      <c r="F2" s="80" t="s">
         <v>315</v>
       </c>
-      <c r="H2" s="82" t="s">
+      <c r="G2" s="79" t="s">
         <v>316</v>
       </c>
-      <c r="I2" s="80" t="s">
+      <c r="H2" s="81" t="s">
         <v>317</v>
       </c>
-      <c r="J2" s="83" t="s">
+      <c r="I2" s="79" t="s">
         <v>318</v>
       </c>
-      <c r="K2" s="80" t="s">
+      <c r="J2" s="82" t="s">
+        <v>319</v>
+      </c>
+      <c r="K2" s="79" t="s">
         <v>224</v>
       </c>
-      <c r="L2" s="83" t="s">
-        <v>314</v>
+      <c r="L2" s="82" t="s">
+        <v>315</v>
       </c>
       <c r="M2" s="67" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N2" s="67" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O2" s="67" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P2" s="65" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q2" s="67" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="R2" s="67" t="s">
-        <v>426</v>
+        <v>325</v>
       </c>
       <c r="S2" s="67" t="s">
-        <v>427</v>
+        <v>326</v>
       </c>
       <c r="T2" s="65" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="U2" s="67" t="s">
-        <v>420</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G26" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -3788,8 +3763,8 @@
   </sheetPr>
   <dimension ref="A1:AN2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D2"/>
+    <sheetView topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3834,7 +3809,8 @@
     <col min="38" max="38" width="23" style="33" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="31.7109375" style="33" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="20" style="33" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="9.140625" style="33"/>
+    <col min="41" max="52" width="9.140625" style="33" customWidth="1"/>
+    <col min="53" max="16384" width="9.140625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.2">
@@ -3950,13 +3926,13 @@
         <v>271</v>
       </c>
       <c r="AL1" s="41" t="s">
-        <v>400</v>
+        <v>329</v>
       </c>
       <c r="AM1" s="41" t="s">
-        <v>401</v>
+        <v>330</v>
       </c>
       <c r="AN1" s="41" t="s">
-        <v>402</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.2">
@@ -3967,16 +3943,16 @@
         <v>272</v>
       </c>
       <c r="C2" s="65" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="D2" s="65" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="E2" s="44" t="s">
         <v>275</v>
       </c>
       <c r="F2" s="66" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="G2" s="65" t="s">
         <v>128</v>
@@ -4036,7 +4012,7 @@
         <v>287</v>
       </c>
       <c r="Z2" s="67" t="s">
-        <v>397</v>
+        <v>335</v>
       </c>
       <c r="AA2" s="65" t="s">
         <v>120</v>
@@ -4045,7 +4021,7 @@
         <v>279</v>
       </c>
       <c r="AC2" s="67" t="s">
-        <v>398</v>
+        <v>336</v>
       </c>
       <c r="AD2" s="65" t="s">
         <v>120</v>
@@ -4054,7 +4030,7 @@
         <v>290</v>
       </c>
       <c r="AF2" s="67" t="s">
-        <v>399</v>
+        <v>337</v>
       </c>
       <c r="AG2" s="65" t="s">
         <v>120</v>
@@ -4063,16 +4039,16 @@
         <v>292</v>
       </c>
       <c r="AI2" s="67" t="s">
-        <v>399</v>
+        <v>337</v>
       </c>
       <c r="AJ2" s="65" t="s">
         <v>120</v>
       </c>
       <c r="AK2" s="67" t="s">
-        <v>403</v>
+        <v>338</v>
       </c>
       <c r="AL2" s="67" t="s">
-        <v>404</v>
+        <v>339</v>
       </c>
       <c r="AM2" s="65" t="s">
         <v>120</v>
@@ -4122,11 +4098,12 @@
     <col min="19" max="19" width="29.28515625" style="33" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="19.7109375" style="33" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="28.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="33"/>
+    <col min="22" max="33" width="9.140625" style="33" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="73" t="s">
@@ -4191,73 +4168,73 @@
       </c>
     </row>
     <row r="2" spans="1:21" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="79" t="s">
-        <v>429</v>
+      <c r="B2" s="78" t="s">
+        <v>340</v>
       </c>
       <c r="C2" s="65" t="s">
+        <v>333</v>
+      </c>
+      <c r="D2" s="79" t="s">
+        <v>314</v>
+      </c>
+      <c r="E2" s="79" t="s">
+        <v>234</v>
+      </c>
+      <c r="F2" s="80" t="s">
+        <v>315</v>
+      </c>
+      <c r="G2" s="79" t="s">
+        <v>316</v>
+      </c>
+      <c r="H2" s="81" t="s">
+        <v>341</v>
+      </c>
+      <c r="I2" s="79" t="s">
+        <v>342</v>
+      </c>
+      <c r="J2" s="82" t="s">
+        <v>319</v>
+      </c>
+      <c r="K2" s="79" t="s">
+        <v>224</v>
+      </c>
+      <c r="L2" s="82" t="s">
+        <v>315</v>
+      </c>
+      <c r="M2" s="67" t="s">
+        <v>343</v>
+      </c>
+      <c r="N2" s="67" t="s">
+        <v>321</v>
+      </c>
+      <c r="O2" s="67" t="s">
+        <v>322</v>
+      </c>
+      <c r="P2" s="65" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q2" s="67" t="s">
+        <v>324</v>
+      </c>
+      <c r="R2" s="67" t="s">
+        <v>344</v>
+      </c>
+      <c r="S2" s="67" t="s">
+        <v>345</v>
+      </c>
+      <c r="T2" s="65" t="s">
         <v>327</v>
       </c>
-      <c r="D2" s="80" t="s">
-        <v>313</v>
-      </c>
-      <c r="E2" s="80" t="s">
-        <v>234</v>
-      </c>
-      <c r="F2" s="81" t="s">
-        <v>314</v>
-      </c>
-      <c r="G2" s="80" t="s">
-        <v>315</v>
-      </c>
-      <c r="H2" s="82" t="s">
-        <v>406</v>
-      </c>
-      <c r="I2" s="80" t="s">
-        <v>407</v>
-      </c>
-      <c r="J2" s="83" t="s">
-        <v>318</v>
-      </c>
-      <c r="K2" s="80" t="s">
-        <v>224</v>
-      </c>
-      <c r="L2" s="83" t="s">
-        <v>314</v>
-      </c>
-      <c r="M2" s="67" t="s">
-        <v>405</v>
-      </c>
-      <c r="N2" s="67" t="s">
-        <v>320</v>
-      </c>
-      <c r="O2" s="67" t="s">
-        <v>321</v>
-      </c>
-      <c r="P2" s="65" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q2" s="67" t="s">
-        <v>323</v>
-      </c>
-      <c r="R2" s="67" t="s">
-        <v>430</v>
-      </c>
-      <c r="S2" s="67" t="s">
-        <v>431</v>
-      </c>
-      <c r="T2" s="65" t="s">
-        <v>324</v>
-      </c>
       <c r="U2" s="67" t="s">
-        <v>420</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H26" s="33" t="s">
-        <v>325</v>
+      <c r="H26" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -4305,8 +4282,8 @@
     <col min="28" max="28" width="11.140625" style="61" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="23" style="59" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="18.85546875" style="59" bestFit="1" customWidth="1"/>
-    <col min="31" max="47" width="9.140625" style="62" customWidth="1"/>
-    <col min="48" max="16384" width="9.140625" style="62"/>
+    <col min="31" max="59" width="9.140625" style="62" customWidth="1"/>
+    <col min="60" max="16384" width="9.140625" style="62"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4317,64 +4294,64 @@
         <v>1</v>
       </c>
       <c r="C1" s="73" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="D1" s="73" t="s">
-        <v>416</v>
+        <v>347</v>
       </c>
       <c r="E1" s="75" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="F1" s="75" t="s">
-        <v>418</v>
+        <v>349</v>
       </c>
       <c r="G1" s="75" t="s">
-        <v>419</v>
+        <v>350</v>
       </c>
       <c r="H1" s="73" t="s">
-        <v>422</v>
+        <v>351</v>
       </c>
       <c r="I1" s="73" t="s">
-        <v>424</v>
+        <v>352</v>
       </c>
       <c r="J1" s="73" t="s">
-        <v>330</v>
+        <v>353</v>
       </c>
       <c r="K1" s="69" t="s">
-        <v>408</v>
+        <v>354</v>
       </c>
       <c r="L1" s="69" t="s">
-        <v>409</v>
+        <v>355</v>
       </c>
       <c r="M1" s="52" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="N1" s="69" t="s">
-        <v>410</v>
+        <v>357</v>
       </c>
       <c r="O1" s="69" t="s">
-        <v>412</v>
+        <v>358</v>
       </c>
       <c r="P1" s="69" t="s">
-        <v>411</v>
+        <v>359</v>
       </c>
       <c r="Q1" s="52" t="s">
         <v>165</v>
       </c>
       <c r="R1" s="52" t="s">
-        <v>332</v>
+        <v>360</v>
       </c>
       <c r="S1" s="52" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="T1" s="51" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="U1" s="51" t="s">
-        <v>335</v>
+        <v>362</v>
       </c>
       <c r="V1" s="51" t="s">
-        <v>336</v>
+        <v>363</v>
       </c>
       <c r="W1" s="50" t="s">
         <v>203</v>
@@ -4383,10 +4360,10 @@
         <v>204</v>
       </c>
       <c r="Y1" s="50" t="s">
-        <v>337</v>
+        <v>364</v>
       </c>
       <c r="Z1" s="50" t="s">
-        <v>338</v>
+        <v>365</v>
       </c>
     </row>
     <row r="2" spans="1:30" s="53" customFormat="1" x14ac:dyDescent="0.2">
@@ -4394,16 +4371,16 @@
         <v>84</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>415</v>
+        <v>366</v>
       </c>
       <c r="C2" s="65" t="s">
-        <v>417</v>
+        <v>367</v>
       </c>
       <c r="D2" s="65" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="E2" s="54" t="s">
-        <v>339</v>
+        <v>369</v>
       </c>
       <c r="F2" s="53" t="s">
         <v>278</v>
@@ -4412,19 +4389,19 @@
         <v>112</v>
       </c>
       <c r="H2" s="74" t="s">
-        <v>421</v>
+        <v>370</v>
       </c>
       <c r="I2" s="67" t="s">
-        <v>423</v>
+        <v>371</v>
       </c>
       <c r="J2" s="67" t="s">
-        <v>425</v>
+        <v>372</v>
       </c>
       <c r="K2" s="72" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="L2" s="72" t="s">
-        <v>414</v>
+        <v>374</v>
       </c>
       <c r="M2" s="56" t="s">
         <v>217</v>
@@ -4442,13 +4419,13 @@
         <v>109</v>
       </c>
       <c r="R2" s="55" t="s">
-        <v>343</v>
+        <v>375</v>
       </c>
       <c r="S2" s="55" t="s">
         <v>107</v>
       </c>
       <c r="T2" s="55" t="s">
-        <v>342</v>
+        <v>376</v>
       </c>
       <c r="U2" s="58" t="s">
         <v>120</v>
@@ -4457,16 +4434,16 @@
         <v>217</v>
       </c>
       <c r="W2" s="58" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="X2" s="58" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="Y2" s="57" t="s">
         <v>120</v>
       </c>
       <c r="Z2" s="57" t="s">
-        <v>344</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
@@ -4474,7 +4451,7 @@
       <c r="AB3" s="59"/>
       <c r="AD3" s="62"/>
     </row>
-    <row r="4" spans="1:30" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -4482,14 +4459,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:30" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-    </row>
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="I8" s="60"/>
       <c r="K8" s="60"/>
@@ -4520,8 +4490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Z4" sqref="Z4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4539,8 +4509,8 @@
     <col min="11" max="11" width="25.28515625" style="33" customWidth="1"/>
     <col min="12" max="12" width="21.42578125" style="33" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.7109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21" style="33" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="37.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.140625" style="33" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23.85546875" style="33" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="26.5703125" style="33" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="26" style="33" bestFit="1" customWidth="1"/>
@@ -4562,76 +4532,76 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>348</v>
+        <v>382</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>349</v>
+        <v>383</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>350</v>
+        <v>384</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>351</v>
+        <v>385</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>352</v>
+        <v>386</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>353</v>
+        <v>387</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>354</v>
+        <v>388</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>355</v>
-      </c>
-      <c r="N1" s="76" t="s">
-        <v>356</v>
-      </c>
-      <c r="O1" s="76" t="s">
-        <v>357</v>
+        <v>389</v>
+      </c>
+      <c r="N1" s="35" t="s">
+        <v>390</v>
+      </c>
+      <c r="O1" s="83" t="s">
+        <v>391</v>
       </c>
       <c r="P1" s="35" t="s">
-        <v>358</v>
+        <v>392</v>
       </c>
       <c r="Q1" s="35" t="s">
-        <v>359</v>
+        <v>393</v>
       </c>
       <c r="R1" s="35" t="s">
-        <v>360</v>
+        <v>394</v>
       </c>
       <c r="S1" s="35" t="s">
-        <v>361</v>
+        <v>395</v>
       </c>
       <c r="T1" s="35" t="s">
-        <v>362</v>
+        <v>396</v>
       </c>
       <c r="U1" s="35" t="s">
-        <v>363</v>
+        <v>397</v>
       </c>
       <c r="V1" s="35" t="s">
-        <v>364</v>
+        <v>398</v>
       </c>
       <c r="W1" s="35" t="s">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="X1" s="35" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="Y1" s="35" t="s">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="Z1" s="35" t="s">
-        <v>368</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
@@ -4639,10 +4609,10 @@
         <v>84</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>432</v>
+        <v>403</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="D2" t="s">
         <v>280</v>
@@ -4654,144 +4624,144 @@
         <v>128</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>435</v>
+        <v>276</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>436</v>
+        <v>405</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>437</v>
+        <v>279</v>
       </c>
       <c r="J2" t="s">
-        <v>373</v>
+        <v>406</v>
       </c>
       <c r="K2" t="s">
         <v>120</v>
       </c>
       <c r="L2" t="s">
+        <v>407</v>
+      </c>
+      <c r="M2" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="N2" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="O2" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="P2" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q2" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="R2" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="S2" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="T2" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="U2" s="32" t="s">
+        <v>409</v>
+      </c>
+      <c r="V2" s="32" t="s">
+        <v>410</v>
+      </c>
+      <c r="W2" s="32" t="s">
+        <v>411</v>
+      </c>
+      <c r="X2" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>413</v>
+      </c>
+      <c r="Z2" s="32" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
+        <v>414</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>415</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>416</v>
+      </c>
+      <c r="D3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>405</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="J3" t="s">
+        <v>406</v>
+      </c>
+      <c r="K3" t="s">
+        <v>120</v>
+      </c>
+      <c r="L3" t="s">
+        <v>407</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="N3" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="O3" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="P3" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q3" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="R3" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="S3" s="32" t="s">
         <v>374</v>
       </c>
-      <c r="M2" s="32" t="s">
-        <v>420</v>
-      </c>
-      <c r="N2" t="s">
-        <v>376</v>
-      </c>
-      <c r="O2" t="s">
-        <v>377</v>
-      </c>
-      <c r="P2" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q2" s="32" t="s">
-        <v>435</v>
-      </c>
-      <c r="R2" s="32" t="s">
-        <v>435</v>
-      </c>
-      <c r="S2" s="32" t="s">
-        <v>435</v>
-      </c>
-      <c r="T2" s="32" t="s">
-        <v>435</v>
-      </c>
-      <c r="U2" s="32" t="s">
-        <v>438</v>
-      </c>
-      <c r="V2" s="32" t="s">
-        <v>439</v>
-      </c>
-      <c r="W2" s="32" t="s">
-        <v>440</v>
-      </c>
-      <c r="X2" t="s">
-        <v>382</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>383</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
-        <v>433</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>434</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>280</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>370</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>373</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="L3" s="33" t="s">
+      <c r="T3" s="32" t="s">
         <v>374</v>
       </c>
-      <c r="M3" s="32" t="s">
-        <v>375</v>
-      </c>
-      <c r="N3" s="33" t="s">
-        <v>376</v>
-      </c>
-      <c r="O3" s="33" t="s">
-        <v>377</v>
-      </c>
-      <c r="P3" s="33" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q3" s="32" t="s">
-        <v>370</v>
-      </c>
-      <c r="R3" s="32" t="s">
-        <v>370</v>
-      </c>
-      <c r="S3" s="32" t="s">
-        <v>370</v>
-      </c>
-      <c r="T3" s="32" t="s">
-        <v>370</v>
-      </c>
       <c r="U3" s="32" t="s">
-        <v>379</v>
+        <v>409</v>
       </c>
       <c r="V3" s="32" t="s">
-        <v>380</v>
+        <v>417</v>
       </c>
       <c r="W3" s="32" t="s">
-        <v>381</v>
-      </c>
-      <c r="X3" s="33" t="s">
-        <v>382</v>
-      </c>
-      <c r="Y3" s="33" t="s">
-        <v>383</v>
-      </c>
-      <c r="Z3" s="33" t="s">
-        <v>120</v>
+        <v>418</v>
+      </c>
+      <c r="X3" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>413</v>
+      </c>
+      <c r="Z3" s="32" t="s">
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -4823,10 +4793,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>385</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4834,7 +4804,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>386</v>
+        <v>421</v>
       </c>
       <c r="C2" t="s">
         <v>224</v>

--- a/DataSet/NewUATDeals_DataSet/Deal_PDS_SYND.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_PDS_SYND.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4F96F7-1030-4E60-A69D-65376E5C5D95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A53B21E-03A4-4446-B4F0-4A1C352C9739}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="18000" windowHeight="9360" tabRatio="877" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="877" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTY001_QuickPartyOnboarding" sheetId="1" r:id="rId1"/>
@@ -21,15 +21,16 @@
     <sheet name="CRED08_OngoingFeeSetup_B" sheetId="6" r:id="rId6"/>
     <sheet name="SYND02_PrimaryAllocation" sheetId="7" r:id="rId7"/>
     <sheet name="SERV01_LoanDrawdown" sheetId="8" r:id="rId8"/>
-    <sheet name="CRED01_DealPricingSetup" sheetId="9" r:id="rId9"/>
-    <sheet name="CRED07_UpfrontFee_Payment" sheetId="10" r:id="rId10"/>
+    <sheet name="SERV08_ComprehensiveRepricing" sheetId="11" r:id="rId9"/>
+    <sheet name="CRED01_DealPricingSetup" sheetId="9" r:id="rId10"/>
+    <sheet name="CRED07_UpfrontFee_Payment" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="465">
   <si>
     <t>rowid</t>
   </si>
@@ -1337,6 +1338,93 @@
   </si>
   <si>
     <t>The Upfront Fee would be capitalized as a new drawdown</t>
+  </si>
+  <si>
+    <t>2.073300%</t>
+  </si>
+  <si>
+    <t>1.650000%</t>
+  </si>
+  <si>
+    <t>0.423300%</t>
+  </si>
+  <si>
+    <t>30-Jun-2020</t>
+  </si>
+  <si>
+    <t>31-Mar-2020</t>
+  </si>
+  <si>
+    <t>286.44</t>
+  </si>
+  <si>
+    <t>1.36</t>
+  </si>
+  <si>
+    <t>21,758.52</t>
+  </si>
+  <si>
+    <t>Rollover/Conversion to New:</t>
+  </si>
+  <si>
+    <t>Comprehensive Repricing</t>
+  </si>
+  <si>
+    <t>3,451,465.91</t>
+  </si>
+  <si>
+    <t>3,429,419.59</t>
+  </si>
+  <si>
+    <t>60002722</t>
+  </si>
+  <si>
+    <t>Combine All Loans and Capitalize Interest</t>
+  </si>
+  <si>
+    <t>Comprehensive Repricing for Loan 1</t>
+  </si>
+  <si>
+    <t>Loan3_InterestAmt</t>
+  </si>
+  <si>
+    <t>Loan2_InterestAmt</t>
+  </si>
+  <si>
+    <t>Loan1_InterestAmt</t>
+  </si>
+  <si>
+    <t>InterestCapitalization_Status</t>
+  </si>
+  <si>
+    <t>Base_Rate</t>
+  </si>
+  <si>
+    <t>Repricing_Frequency</t>
+  </si>
+  <si>
+    <t>Repricing_Add_Option_Setup</t>
+  </si>
+  <si>
+    <t>Repricing_Type</t>
+  </si>
+  <si>
+    <t>Capitalize_PercentOfPayment</t>
+  </si>
+  <si>
+    <t>LoanAmt_WithInterest</t>
+  </si>
+  <si>
+    <t>New_LoanAmount</t>
+  </si>
+  <si>
+    <t>NewLoan_Alias</t>
+  </si>
+  <si>
+    <t>OutstandingSelect_Type</t>
+  </si>
+  <si>
+    <t>593,084,083.02</t>
   </si>
 </sst>
 </file>
@@ -1346,11 +1434,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1437,8 +1532,30 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1487,8 +1604,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1511,164 +1634,239 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" quotePrefix="1"/>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" quotePrefix="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="6" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Normal 3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 4" xfId="6" xr:uid="{AEF88A2F-2FC8-47E3-B2F0-91BC980E8928}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2657,6 +2855,54 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="38.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" style="33" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>421</v>
+      </c>
+      <c r="C2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -2746,8 +2992,8 @@
   </sheetPr>
   <dimension ref="A1:BU7"/>
   <sheetViews>
-    <sheetView topLeftCell="BK1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3591,7 +3837,7 @@
   </sheetPr>
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
@@ -4490,8 +4736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4771,49 +5017,242 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3DDE3D-43BA-409A-AB53-F1E79580FCD2}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="84" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" style="84" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" style="84" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="85" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="84" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="84" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" style="84" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26" style="84" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.7109375" style="84" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="84" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" style="84" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.28515625" style="84" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" style="85" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.42578125" style="84" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="20.140625" style="84" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.42578125" style="84" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.140625" style="84" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.28515625" style="84" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="35" style="84" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="29.28515625" style="84" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" style="84" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.42578125" style="84" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="84"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:24" s="101" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>419</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>420</v>
+      <c r="C1" s="101" t="s">
+        <v>463</v>
+      </c>
+      <c r="D1" s="105" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1" s="104" t="s">
+        <v>461</v>
+      </c>
+      <c r="F1" s="104" t="s">
+        <v>460</v>
+      </c>
+      <c r="G1" s="104" t="s">
+        <v>459</v>
+      </c>
+      <c r="H1" s="101" t="s">
+        <v>458</v>
+      </c>
+      <c r="I1" s="101" t="s">
+        <v>457</v>
+      </c>
+      <c r="J1" s="101" t="s">
+        <v>381</v>
+      </c>
+      <c r="K1" s="101" t="s">
+        <v>456</v>
+      </c>
+      <c r="L1" s="102" t="s">
+        <v>392</v>
+      </c>
+      <c r="M1" s="101" t="s">
+        <v>455</v>
+      </c>
+      <c r="N1" s="103" t="s">
+        <v>454</v>
+      </c>
+      <c r="O1" s="101" t="s">
+        <v>453</v>
+      </c>
+      <c r="P1" s="101" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q1" s="101" t="s">
+        <v>451</v>
+      </c>
+      <c r="R1" s="101" t="s">
+        <v>384</v>
+      </c>
+      <c r="S1" s="101" t="s">
+        <v>389</v>
+      </c>
+      <c r="T1" s="102" t="s">
+        <v>400</v>
+      </c>
+      <c r="U1" s="101" t="s">
+        <v>401</v>
+      </c>
+      <c r="V1" s="102" t="s">
+        <v>397</v>
+      </c>
+      <c r="W1" s="102" t="s">
+        <v>398</v>
+      </c>
+      <c r="X1" s="102" t="s">
+        <v>399</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:24" s="95" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="98" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>421</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="94" t="s">
+        <v>450</v>
+      </c>
+      <c r="C2" s="96" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2" s="94">
+        <v>60002071</v>
+      </c>
+      <c r="E2" s="88" t="s">
+        <v>464</v>
+      </c>
+      <c r="F2" s="100"/>
+      <c r="G2" s="94">
+        <v>100</v>
+      </c>
+      <c r="H2" s="96" t="s">
+        <v>445</v>
+      </c>
+      <c r="I2" s="96" t="s">
+        <v>444</v>
+      </c>
+      <c r="J2" s="96" t="s">
         <v>224</v>
       </c>
-      <c r="D2" t="s">
-        <v>228</v>
-      </c>
+      <c r="K2" s="95" t="s">
+        <v>406</v>
+      </c>
+      <c r="L2" s="94" t="s">
+        <v>408</v>
+      </c>
+      <c r="M2" s="95" t="s">
+        <v>120</v>
+      </c>
+      <c r="N2" s="93"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="99"/>
+      <c r="X2" s="99"/>
+    </row>
+    <row r="3" spans="1:24" s="87" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="98" t="s">
+        <v>414</v>
+      </c>
+      <c r="B3" s="87" t="s">
+        <v>449</v>
+      </c>
+      <c r="C3" s="96" t="s">
+        <v>280</v>
+      </c>
+      <c r="D3" s="92" t="s">
+        <v>448</v>
+      </c>
+      <c r="E3" s="88" t="s">
+        <v>447</v>
+      </c>
+      <c r="F3" s="88" t="s">
+        <v>446</v>
+      </c>
+      <c r="G3" s="97"/>
+      <c r="H3" s="96" t="s">
+        <v>445</v>
+      </c>
+      <c r="I3" s="96" t="s">
+        <v>444</v>
+      </c>
+      <c r="J3" s="96" t="s">
+        <v>224</v>
+      </c>
+      <c r="K3" s="95" t="s">
+        <v>406</v>
+      </c>
+      <c r="L3" s="94" t="s">
+        <v>408</v>
+      </c>
+      <c r="M3" s="93"/>
+      <c r="N3" s="92" t="s">
+        <v>124</v>
+      </c>
+      <c r="O3" s="91" t="s">
+        <v>443</v>
+      </c>
+      <c r="P3" s="91" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q3" s="91" t="s">
+        <v>441</v>
+      </c>
+      <c r="R3" s="88" t="s">
+        <v>440</v>
+      </c>
+      <c r="S3" s="88" t="s">
+        <v>439</v>
+      </c>
+      <c r="T3" s="90" t="s">
+        <v>412</v>
+      </c>
+      <c r="U3" s="90" t="s">
+        <v>413</v>
+      </c>
+      <c r="V3" s="89" t="s">
+        <v>438</v>
+      </c>
+      <c r="W3" s="89" t="s">
+        <v>437</v>
+      </c>
+      <c r="X3" s="88" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C5" s="86"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/DataSet/NewUATDeals_DataSet/Deal_PDS_SYND.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_PDS_SYND.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A53B21E-03A4-4446-B4F0-4A1C352C9739}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D853BD1-2294-4554-9A2E-EF6E74378CD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="877" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="877" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTY001_QuickPartyOnboarding" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,16 @@
     <sheet name="CRED08_OngoingFeeSetup_B" sheetId="6" r:id="rId6"/>
     <sheet name="SYND02_PrimaryAllocation" sheetId="7" r:id="rId7"/>
     <sheet name="SERV01_LoanDrawdown" sheetId="8" r:id="rId8"/>
-    <sheet name="SERV08_ComprehensiveRepricing" sheetId="11" r:id="rId9"/>
-    <sheet name="CRED01_DealPricingSetup" sheetId="9" r:id="rId10"/>
-    <sheet name="CRED07_UpfrontFee_Payment" sheetId="10" r:id="rId11"/>
+    <sheet name="SERV08_ComprehensiveRepricing" sheetId="9" r:id="rId9"/>
+    <sheet name="CRED01_DealPricingSetup" sheetId="10" r:id="rId10"/>
+    <sheet name="CRED07_UpfrontFee_Payment" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="466">
   <si>
     <t>rowid</t>
   </si>
@@ -1289,6 +1289,84 @@
     <t>2.241700%</t>
   </si>
   <si>
+    <t>OutstandingSelect_Type</t>
+  </si>
+  <si>
+    <t>NewLoan_Alias</t>
+  </si>
+  <si>
+    <t>New_LoanAmount</t>
+  </si>
+  <si>
+    <t>Repricing_Type</t>
+  </si>
+  <si>
+    <t>Repricing_Add_Option_Setup</t>
+  </si>
+  <si>
+    <t>Repricing_Frequency</t>
+  </si>
+  <si>
+    <t>Repricing_Date</t>
+  </si>
+  <si>
+    <t>Customer_ShortName</t>
+  </si>
+  <si>
+    <t>RI_Description</t>
+  </si>
+  <si>
+    <t>TranAmount_1</t>
+  </si>
+  <si>
+    <t>TranAmount_2</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Base_Rate</t>
+  </si>
+  <si>
+    <t>Rollover Outstanding A1</t>
+  </si>
+  <si>
+    <t>60003434</t>
+  </si>
+  <si>
+    <t>593,084,083.02</t>
+  </si>
+  <si>
+    <t>Comprehensive Repricing</t>
+  </si>
+  <si>
+    <t>Rollover/Conversion to New:</t>
+  </si>
+  <si>
+    <t>RTGS IB AGENCY/SUNDR</t>
+  </si>
+  <si>
+    <t>1,475,037.08</t>
+  </si>
+  <si>
+    <t>420,742.03</t>
+  </si>
+  <si>
+    <t>0.970000%</t>
+  </si>
+  <si>
+    <t>Rollover Outstanding B1</t>
+  </si>
+  <si>
+    <t>60002722</t>
+  </si>
+  <si>
+    <t>3,429,419.59</t>
+  </si>
+  <si>
+    <t>3,451,465.91</t>
+  </si>
+  <si>
     <t>InterestPricingOption</t>
   </si>
   <si>
@@ -1340,91 +1418,16 @@
     <t>The Upfront Fee would be capitalized as a new drawdown</t>
   </si>
   <si>
-    <t>2.073300%</t>
-  </si>
-  <si>
-    <t>1.650000%</t>
-  </si>
-  <si>
-    <t>0.423300%</t>
-  </si>
-  <si>
-    <t>30-Jun-2020</t>
-  </si>
-  <si>
-    <t>31-Mar-2020</t>
-  </si>
-  <si>
-    <t>286.44</t>
-  </si>
-  <si>
-    <t>1.36</t>
-  </si>
-  <si>
-    <t>21,758.52</t>
-  </si>
-  <si>
-    <t>Rollover/Conversion to New:</t>
-  </si>
-  <si>
-    <t>Comprehensive Repricing</t>
-  </si>
-  <si>
-    <t>3,451,465.91</t>
-  </si>
-  <si>
-    <t>3,429,419.59</t>
-  </si>
-  <si>
-    <t>60002722</t>
-  </si>
-  <si>
-    <t>Combine All Loans and Capitalize Interest</t>
-  </si>
-  <si>
-    <t>Comprehensive Repricing for Loan 1</t>
-  </si>
-  <si>
-    <t>Loan3_InterestAmt</t>
-  </si>
-  <si>
-    <t>Loan2_InterestAmt</t>
-  </si>
-  <si>
-    <t>Loan1_InterestAmt</t>
-  </si>
-  <si>
-    <t>InterestCapitalization_Status</t>
-  </si>
-  <si>
-    <t>Base_Rate</t>
-  </si>
-  <si>
-    <t>Repricing_Frequency</t>
-  </si>
-  <si>
-    <t>Repricing_Add_Option_Setup</t>
-  </si>
-  <si>
-    <t>Repricing_Type</t>
-  </si>
-  <si>
-    <t>Capitalize_PercentOfPayment</t>
-  </si>
-  <si>
-    <t>LoanAmt_WithInterest</t>
-  </si>
-  <si>
-    <t>New_LoanAmount</t>
-  </si>
-  <si>
-    <t>NewLoan_Alias</t>
-  </si>
-  <si>
-    <t>OutstandingSelect_Type</t>
-  </si>
-  <si>
-    <t>593,084,083.02</t>
+    <t>HostBank_Amount</t>
+  </si>
+  <si>
+    <t>75,312,264.51</t>
+  </si>
+  <si>
+    <t>AmortizationSched_EffectiveDate</t>
+  </si>
+  <si>
+    <t>PrincipalPayment_FromRepricing</t>
   </si>
 </sst>
 </file>
@@ -1439,6 +1442,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1530,11 +1540,6 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -1650,181 +1655,175 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" quotePrefix="1"/>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" quotePrefix="1"/>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1833,29 +1832,35 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="6" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="2" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="17" fillId="0" borderId="1" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="6" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="6" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1866,10 +1871,15 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Normal 3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal 4" xfId="6" xr:uid="{AEF88A2F-2FC8-47E3-B2F0-91BC980E8928}"/>
+    <cellStyle name="Normal 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF99CC00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2185,8 +2195,8 @@
   <dimension ref="A1:CF23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="BO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BS1" sqref="BS1"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2855,7 +2865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2877,10 +2887,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>420</v>
+        <v>446</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2888,7 +2898,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="C2" t="s">
         <v>224</v>
@@ -2903,7 +2913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2930,25 +2940,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>424</v>
+        <v>450</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>427</v>
+        <v>453</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -2956,28 +2966,28 @@
         <v>84</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>429</v>
+        <v>455</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>430</v>
+        <v>456</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>431</v>
+        <v>457</v>
       </c>
       <c r="E2" t="s">
-        <v>432</v>
+        <v>458</v>
       </c>
       <c r="F2" t="s">
-        <v>433</v>
+        <v>459</v>
       </c>
       <c r="G2" t="s">
         <v>122</v>
       </c>
       <c r="H2" t="s">
-        <v>434</v>
+        <v>460</v>
       </c>
       <c r="I2" t="s">
-        <v>435</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -2992,8 +3002,8 @@
   </sheetPr>
   <dimension ref="A1:BU7"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3067,8 +3077,8 @@
     <col min="70" max="70" width="24" style="27" bestFit="1" customWidth="1"/>
     <col min="71" max="71" width="13.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="11.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="73" max="113" width="9.140625" style="27" customWidth="1"/>
-    <col min="114" max="16384" width="9.140625" style="27"/>
+    <col min="73" max="119" width="9.140625" style="27" customWidth="1"/>
+    <col min="120" max="16384" width="9.140625" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:73" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3837,7 +3847,7 @@
   </sheetPr>
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
@@ -4055,8 +4065,8 @@
     <col min="38" max="38" width="23" style="33" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="31.7109375" style="33" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="20" style="33" bestFit="1" customWidth="1"/>
-    <col min="41" max="52" width="9.140625" style="33" customWidth="1"/>
-    <col min="53" max="16384" width="9.140625" style="33"/>
+    <col min="41" max="58" width="9.140625" style="33" customWidth="1"/>
+    <col min="59" max="16384" width="9.140625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.2">
@@ -4344,8 +4354,8 @@
     <col min="19" max="19" width="29.28515625" style="33" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="19.7109375" style="33" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="28.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="22" max="33" width="9.140625" style="33" customWidth="1"/>
-    <col min="34" max="16384" width="9.140625" style="33"/>
+    <col min="22" max="39" width="9.140625" style="33" customWidth="1"/>
+    <col min="40" max="16384" width="9.140625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="65" customFormat="1" x14ac:dyDescent="0.2">
@@ -4490,6 +4500,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:AD9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4528,8 +4541,8 @@
     <col min="28" max="28" width="11.140625" style="61" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="23" style="59" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="18.85546875" style="59" bestFit="1" customWidth="1"/>
-    <col min="31" max="59" width="9.140625" style="62" customWidth="1"/>
-    <col min="60" max="16384" width="9.140625" style="62"/>
+    <col min="31" max="65" width="9.140625" style="62" customWidth="1"/>
+    <col min="66" max="16384" width="9.140625" style="62"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4734,10 +4747,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5017,242 +5033,233 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3DDE3D-43BA-409A-AB53-F1E79580FCD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:X5"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5703125" style="84" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" style="84" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="84" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.5703125" style="84" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" style="85" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" style="84" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" style="84" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.85546875" style="84" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26" style="84" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.7109375" style="84" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" style="84" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.140625" style="84" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.28515625" style="84" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" style="85" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.42578125" style="84" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="20.140625" style="84" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.42578125" style="84" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.140625" style="84" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.28515625" style="84" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="35" style="84" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="29.28515625" style="84" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.5703125" style="84" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.42578125" style="84" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="84"/>
+    <col min="6" max="6" width="19.85546875" style="84" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="84" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.7109375" style="84" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="84" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" style="84" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" style="84" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.7109375" style="84" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27" style="84" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.85546875" style="84" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="15.7109375" style="84" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" style="84" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.85546875" style="85" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" style="84" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="35.85546875" style="84" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="35.42578125" style="84" bestFit="1" customWidth="1"/>
+    <col min="22" max="28" width="9.140625" style="84" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="84"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="101" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="101" t="s">
+    <row r="1" spans="1:21" s="96" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="96" t="s">
+        <v>419</v>
+      </c>
+      <c r="D1" s="99" t="s">
+        <v>420</v>
+      </c>
+      <c r="E1" s="98" t="s">
+        <v>421</v>
+      </c>
+      <c r="F1" s="98" t="s">
+        <v>462</v>
+      </c>
+      <c r="G1" s="96" t="s">
+        <v>422</v>
+      </c>
+      <c r="H1" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="I1" s="96" t="s">
+        <v>381</v>
+      </c>
+      <c r="J1" s="96" t="s">
+        <v>424</v>
+      </c>
+      <c r="K1" s="96" t="s">
+        <v>425</v>
+      </c>
+      <c r="L1" s="96" t="s">
+        <v>426</v>
+      </c>
+      <c r="M1" s="96" t="s">
+        <v>427</v>
+      </c>
+      <c r="N1" s="96" t="s">
+        <v>391</v>
+      </c>
+      <c r="O1" s="96" t="s">
+        <v>428</v>
+      </c>
+      <c r="P1" s="96" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q1" s="96" t="s">
+        <v>430</v>
+      </c>
+      <c r="R1" s="97" t="s">
+        <v>392</v>
+      </c>
+      <c r="S1" s="96" t="s">
+        <v>431</v>
+      </c>
+      <c r="T1" s="96" t="s">
+        <v>464</v>
+      </c>
+      <c r="U1" s="96" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="93" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="92" t="s">
+        <v>432</v>
+      </c>
+      <c r="C2" s="94" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2" s="92" t="s">
+        <v>433</v>
+      </c>
+      <c r="E2" s="102" t="s">
+        <v>434</v>
+      </c>
+      <c r="F2" s="102" t="s">
         <v>463</v>
       </c>
-      <c r="D1" s="105" t="s">
-        <v>462</v>
-      </c>
-      <c r="E1" s="104" t="s">
-        <v>461</v>
-      </c>
-      <c r="F1" s="104" t="s">
-        <v>460</v>
-      </c>
-      <c r="G1" s="104" t="s">
-        <v>459</v>
-      </c>
-      <c r="H1" s="101" t="s">
-        <v>458</v>
-      </c>
-      <c r="I1" s="101" t="s">
-        <v>457</v>
-      </c>
-      <c r="J1" s="101" t="s">
-        <v>381</v>
-      </c>
-      <c r="K1" s="101" t="s">
-        <v>456</v>
-      </c>
-      <c r="L1" s="102" t="s">
-        <v>392</v>
-      </c>
-      <c r="M1" s="101" t="s">
-        <v>455</v>
-      </c>
-      <c r="N1" s="103" t="s">
-        <v>454</v>
-      </c>
-      <c r="O1" s="101" t="s">
-        <v>453</v>
-      </c>
-      <c r="P1" s="101" t="s">
-        <v>452</v>
-      </c>
-      <c r="Q1" s="101" t="s">
-        <v>451</v>
-      </c>
-      <c r="R1" s="101" t="s">
-        <v>384</v>
-      </c>
-      <c r="S1" s="101" t="s">
-        <v>389</v>
-      </c>
-      <c r="T1" s="102" t="s">
-        <v>400</v>
-      </c>
-      <c r="U1" s="101" t="s">
-        <v>401</v>
-      </c>
-      <c r="V1" s="102" t="s">
-        <v>397</v>
-      </c>
-      <c r="W1" s="102" t="s">
-        <v>398</v>
-      </c>
-      <c r="X1" s="102" t="s">
-        <v>399</v>
+      <c r="G2" s="94" t="s">
+        <v>435</v>
+      </c>
+      <c r="H2" s="94" t="s">
+        <v>436</v>
+      </c>
+      <c r="I2" s="94" t="s">
+        <v>224</v>
+      </c>
+      <c r="J2" s="93" t="s">
+        <v>406</v>
+      </c>
+      <c r="K2" s="103" t="s">
+        <v>292</v>
+      </c>
+      <c r="L2" s="93" t="s">
+        <v>120</v>
+      </c>
+      <c r="M2" s="93" t="s">
+        <v>437</v>
+      </c>
+      <c r="N2" s="93" t="s">
+        <v>216</v>
+      </c>
+      <c r="O2" s="103" t="s">
+        <v>438</v>
+      </c>
+      <c r="P2" s="103" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q2" s="103" t="s">
+        <v>128</v>
+      </c>
+      <c r="R2" s="92" t="s">
+        <v>408</v>
+      </c>
+      <c r="S2" s="101" t="s">
+        <v>440</v>
+      </c>
+      <c r="T2" s="103" t="s">
+        <v>290</v>
+      </c>
+      <c r="U2" s="105" t="s">
+        <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="95" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="98" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="94" t="s">
-        <v>450</v>
-      </c>
-      <c r="C2" s="96" t="s">
+    <row r="3" spans="1:21" s="87" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="95" t="s">
+        <v>414</v>
+      </c>
+      <c r="B3" s="100" t="s">
+        <v>441</v>
+      </c>
+      <c r="C3" s="94" t="s">
         <v>280</v>
       </c>
-      <c r="D2" s="94">
-        <v>60002071</v>
-      </c>
-      <c r="E2" s="88" t="s">
-        <v>464</v>
-      </c>
-      <c r="F2" s="100"/>
-      <c r="G2" s="94">
-        <v>100</v>
-      </c>
-      <c r="H2" s="96" t="s">
-        <v>445</v>
-      </c>
-      <c r="I2" s="96" t="s">
+      <c r="D3" s="90" t="s">
+        <v>442</v>
+      </c>
+      <c r="E3" s="88" t="s">
+        <v>443</v>
+      </c>
+      <c r="F3" s="88" t="s">
         <v>444</v>
       </c>
-      <c r="J2" s="96" t="s">
+      <c r="G3" s="94" t="s">
+        <v>435</v>
+      </c>
+      <c r="H3" s="94" t="s">
+        <v>436</v>
+      </c>
+      <c r="I3" s="94" t="s">
         <v>224</v>
       </c>
-      <c r="K2" s="95" t="s">
+      <c r="J3" s="93" t="s">
         <v>406</v>
       </c>
-      <c r="L2" s="94" t="s">
+      <c r="K3" s="93"/>
+      <c r="L3" s="93" t="s">
+        <v>120</v>
+      </c>
+      <c r="M3" s="93" t="s">
+        <v>437</v>
+      </c>
+      <c r="N3" s="93" t="s">
+        <v>216</v>
+      </c>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93" t="s">
+        <v>128</v>
+      </c>
+      <c r="R3" s="92" t="s">
         <v>408</v>
       </c>
-      <c r="M2" s="95" t="s">
-        <v>120</v>
-      </c>
-      <c r="N2" s="93"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
-      <c r="V2" s="99"/>
-      <c r="W2" s="99"/>
-      <c r="X2" s="99"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="90"/>
+      <c r="U3" s="89"/>
     </row>
-    <row r="3" spans="1:24" s="87" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
-        <v>414</v>
-      </c>
-      <c r="B3" s="87" t="s">
-        <v>449</v>
-      </c>
-      <c r="C3" s="96" t="s">
-        <v>280</v>
-      </c>
-      <c r="D3" s="92" t="s">
-        <v>448</v>
-      </c>
-      <c r="E3" s="88" t="s">
-        <v>447</v>
-      </c>
-      <c r="F3" s="88" t="s">
-        <v>446</v>
-      </c>
-      <c r="G3" s="97"/>
-      <c r="H3" s="96" t="s">
-        <v>445</v>
-      </c>
-      <c r="I3" s="96" t="s">
-        <v>444</v>
-      </c>
-      <c r="J3" s="96" t="s">
-        <v>224</v>
-      </c>
-      <c r="K3" s="95" t="s">
-        <v>406</v>
-      </c>
-      <c r="L3" s="94" t="s">
-        <v>408</v>
-      </c>
-      <c r="M3" s="93"/>
-      <c r="N3" s="92" t="s">
-        <v>124</v>
-      </c>
-      <c r="O3" s="91" t="s">
-        <v>443</v>
-      </c>
-      <c r="P3" s="91" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q3" s="91" t="s">
-        <v>441</v>
-      </c>
-      <c r="R3" s="88" t="s">
-        <v>440</v>
-      </c>
-      <c r="S3" s="88" t="s">
-        <v>439</v>
-      </c>
-      <c r="T3" s="90" t="s">
-        <v>412</v>
-      </c>
-      <c r="U3" s="90" t="s">
-        <v>413</v>
-      </c>
-      <c r="V3" s="89" t="s">
-        <v>438</v>
-      </c>
-      <c r="W3" s="89" t="s">
-        <v>437</v>
-      </c>
-      <c r="X3" s="88" t="s">
-        <v>436</v>
-      </c>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C5" s="86"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C5" s="86"/>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F8" s="104"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DataSet/NewUATDeals_DataSet/Deal_PDS_SYND.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_PDS_SYND.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D853BD1-2294-4554-9A2E-EF6E74378CD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1027BFB4-8F87-46F7-AF6E-65BBD3B4B961}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="877" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="466">
   <si>
     <t>rowid</t>
   </si>
@@ -1860,7 +1860,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="6" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="1" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5039,8 +5039,8 @@
   </sheetPr>
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5195,8 +5195,8 @@
       <c r="T2" s="103" t="s">
         <v>290</v>
       </c>
-      <c r="U2" s="105" t="s">
-        <v>289</v>
+      <c r="U2" s="105">
+        <v>11615916.98</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="87" customFormat="1" x14ac:dyDescent="0.25">

--- a/DataSet/NewUATDeals_DataSet/Deal_PDS_SYND.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_PDS_SYND.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1027BFB4-8F87-46F7-AF6E-65BBD3B4B961}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCACD1EA-9889-48C1-B4B3-8B3E39C88768}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="877" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-2730" windowWidth="29040" windowHeight="16440" tabRatio="877" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTY001_QuickPartyOnboarding" sheetId="1" r:id="rId1"/>
@@ -22,15 +22,13 @@
     <sheet name="SYND02_PrimaryAllocation" sheetId="7" r:id="rId7"/>
     <sheet name="SERV01_LoanDrawdown" sheetId="8" r:id="rId8"/>
     <sheet name="SERV08_ComprehensiveRepricing" sheetId="9" r:id="rId9"/>
-    <sheet name="CRED01_DealPricingSetup" sheetId="10" r:id="rId10"/>
-    <sheet name="CRED07_UpfrontFee_Payment" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="451">
   <si>
     <t>rowid</t>
   </si>
@@ -1298,6 +1296,9 @@
     <t>New_LoanAmount</t>
   </si>
   <si>
+    <t>HostBank_Amount</t>
+  </si>
+  <si>
     <t>Repricing_Type</t>
   </si>
   <si>
@@ -1328,6 +1329,12 @@
     <t>Base_Rate</t>
   </si>
   <si>
+    <t>AmortizationSched_EffectiveDate</t>
+  </si>
+  <si>
+    <t>PrincipalPayment_FromRepricing</t>
+  </si>
+  <si>
     <t>Rollover Outstanding A1</t>
   </si>
   <si>
@@ -1337,6 +1344,9 @@
     <t>593,084,083.02</t>
   </si>
   <si>
+    <t>75,312,264.51</t>
+  </si>
+  <si>
     <t>Comprehensive Repricing</t>
   </si>
   <si>
@@ -1358,76 +1368,19 @@
     <t>Rollover Outstanding B1</t>
   </si>
   <si>
-    <t>60002722</t>
-  </si>
-  <si>
-    <t>3,429,419.59</t>
-  </si>
-  <si>
-    <t>3,451,465.91</t>
-  </si>
-  <si>
-    <t>InterestPricingOption</t>
-  </si>
-  <si>
-    <t>Pricing_MatrixChangeAppMethod</t>
-  </si>
-  <si>
-    <t>Update Deal Pricing</t>
-  </si>
-  <si>
-    <t>UpfrontFee_Amount</t>
-  </si>
-  <si>
-    <t>UpfrontFee_EffectiveDate</t>
-  </si>
-  <si>
-    <t>Fee_Type</t>
-  </si>
-  <si>
-    <t>UpfrontFeePayment_Comment</t>
-  </si>
-  <si>
-    <t>UpfrontFeePayment_NoticeMethod</t>
-  </si>
-  <si>
-    <t>Notice_Subject</t>
-  </si>
-  <si>
-    <t>Notice_Comment</t>
-  </si>
-  <si>
-    <t>Charge Upfront fee</t>
-  </si>
-  <si>
-    <t>275,750</t>
-  </si>
-  <si>
-    <t>27-Dec-2019</t>
-  </si>
-  <si>
-    <t>Establishment/Extension Fee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charging and Capitalizing the Upfront Fee </t>
-  </si>
-  <si>
-    <t>Capitalizing Upfront Fee</t>
-  </si>
-  <si>
-    <t>The Upfront Fee would be capitalized as a new drawdown</t>
-  </si>
-  <si>
-    <t>HostBank_Amount</t>
-  </si>
-  <si>
-    <t>75,312,264.51</t>
-  </si>
-  <si>
-    <t>AmortizationSched_EffectiveDate</t>
-  </si>
-  <si>
-    <t>PrincipalPayment_FromRepricing</t>
+    <t>470,781,018.27</t>
+  </si>
+  <si>
+    <t>1 Months</t>
+  </si>
+  <si>
+    <t>1,106,277.81</t>
+  </si>
+  <si>
+    <t>364,371.45</t>
+  </si>
+  <si>
+    <t>56,493,722.19</t>
   </si>
 </sst>
 </file>
@@ -1437,25 +1390,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1542,25 +1481,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1609,14 +1531,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1639,230 +1555,205 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" quotePrefix="1"/>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" quotePrefix="1"/>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="6" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="1" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="1" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="17" fillId="0" borderId="1" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="6" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="1" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -1875,11 +1766,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FF99CC00"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2864,137 +2750,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="38.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" style="33" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>445</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>447</v>
-      </c>
-      <c r="C2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="38.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.42578125" style="33" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>448</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>449</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>450</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>451</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>452</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>453</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>455</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>456</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>457</v>
-      </c>
-      <c r="E2" t="s">
-        <v>458</v>
-      </c>
-      <c r="F2" t="s">
-        <v>459</v>
-      </c>
-      <c r="G2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H2" t="s">
-        <v>460</v>
-      </c>
-      <c r="I2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
@@ -3002,8 +2757,8 @@
   </sheetPr>
   <dimension ref="A1:BU7"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3077,8 +2832,8 @@
     <col min="70" max="70" width="24" style="27" bestFit="1" customWidth="1"/>
     <col min="71" max="71" width="13.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="11.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="73" max="119" width="9.140625" style="27" customWidth="1"/>
-    <col min="120" max="16384" width="9.140625" style="27"/>
+    <col min="73" max="121" width="9.140625" style="27" customWidth="1"/>
+    <col min="122" max="16384" width="9.140625" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:73" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3554,7 +3309,7 @@
   </sheetPr>
   <dimension ref="A1:AM2"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
+    <sheetView topLeftCell="AC1" workbookViewId="0">
       <selection activeCell="AE3" sqref="AE3"/>
     </sheetView>
   </sheetViews>
@@ -4019,7 +3774,7 @@
   </sheetPr>
   <dimension ref="A1:AN2"/>
   <sheetViews>
-    <sheetView topLeftCell="AG1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
@@ -4065,8 +3820,8 @@
     <col min="38" max="38" width="23" style="33" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="31.7109375" style="33" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="20" style="33" bestFit="1" customWidth="1"/>
-    <col min="41" max="58" width="9.140625" style="33" customWidth="1"/>
-    <col min="59" max="16384" width="9.140625" style="33"/>
+    <col min="41" max="60" width="9.140625" style="33" customWidth="1"/>
+    <col min="61" max="16384" width="9.140625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.2">
@@ -4354,8 +4109,8 @@
     <col min="19" max="19" width="29.28515625" style="33" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="19.7109375" style="33" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="28.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="22" max="39" width="9.140625" style="33" customWidth="1"/>
-    <col min="40" max="16384" width="9.140625" style="33"/>
+    <col min="22" max="41" width="9.140625" style="33" customWidth="1"/>
+    <col min="42" max="16384" width="9.140625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="65" customFormat="1" x14ac:dyDescent="0.2">
@@ -4505,7 +4260,7 @@
   </sheetPr>
   <dimension ref="A1:AD9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="Q1" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -4541,8 +4296,8 @@
     <col min="28" max="28" width="11.140625" style="61" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="23" style="59" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="18.85546875" style="59" bestFit="1" customWidth="1"/>
-    <col min="31" max="65" width="9.140625" style="62" customWidth="1"/>
-    <col min="66" max="16384" width="9.140625" style="62"/>
+    <col min="31" max="67" width="9.140625" style="62" customWidth="1"/>
+    <col min="68" max="16384" width="9.140625" style="62"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4753,7 +4508,7 @@
   <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5039,227 +4794,239 @@
   </sheetPr>
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="84" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="84" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" style="84" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="85" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="84" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="84" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="84" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.7109375" style="84" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="84" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" style="84" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" style="84" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.7109375" style="84" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27" style="84" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.85546875" style="84" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="15.7109375" style="84" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.28515625" style="84" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.85546875" style="85" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12" style="84" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="35.85546875" style="84" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="35.42578125" style="84" bestFit="1" customWidth="1"/>
-    <col min="22" max="28" width="9.140625" style="84" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="84"/>
+    <col min="1" max="1" width="6.140625" style="99" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" style="99" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="99" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="100" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="99" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="99" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="99" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" style="99" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="99" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" style="99" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" style="99" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21" style="99" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.140625" style="99" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.140625" style="99" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.28515625" style="99" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="99" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.85546875" style="100" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" style="99" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.85546875" style="99" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="32.28515625" style="99" bestFit="1" customWidth="1"/>
+    <col min="22" max="30" width="9.140625" style="99" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="99"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="96" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="96" t="s">
+    <row r="1" spans="1:21" s="90" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="96" t="s">
+      <c r="C1" s="90" t="s">
         <v>419</v>
       </c>
-      <c r="D1" s="99" t="s">
+      <c r="D1" s="91" t="s">
         <v>420</v>
       </c>
-      <c r="E1" s="98" t="s">
+      <c r="E1" s="87" t="s">
         <v>421</v>
       </c>
-      <c r="F1" s="98" t="s">
-        <v>462</v>
-      </c>
-      <c r="G1" s="96" t="s">
+      <c r="F1" s="87" t="s">
         <v>422</v>
       </c>
-      <c r="H1" s="96" t="s">
+      <c r="G1" s="90" t="s">
         <v>423</v>
       </c>
-      <c r="I1" s="96" t="s">
+      <c r="H1" s="90" t="s">
+        <v>424</v>
+      </c>
+      <c r="I1" s="90" t="s">
         <v>381</v>
       </c>
-      <c r="J1" s="96" t="s">
-        <v>424</v>
-      </c>
-      <c r="K1" s="96" t="s">
+      <c r="J1" s="90" t="s">
         <v>425</v>
       </c>
-      <c r="L1" s="96" t="s">
+      <c r="K1" s="90" t="s">
         <v>426</v>
       </c>
-      <c r="M1" s="96" t="s">
+      <c r="L1" s="90" t="s">
         <v>427</v>
       </c>
-      <c r="N1" s="96" t="s">
+      <c r="M1" s="90" t="s">
+        <v>428</v>
+      </c>
+      <c r="N1" s="90" t="s">
         <v>391</v>
       </c>
-      <c r="O1" s="96" t="s">
-        <v>428</v>
-      </c>
-      <c r="P1" s="96" t="s">
+      <c r="O1" s="90" t="s">
         <v>429</v>
       </c>
-      <c r="Q1" s="96" t="s">
+      <c r="P1" s="90" t="s">
         <v>430</v>
       </c>
-      <c r="R1" s="97" t="s">
+      <c r="Q1" s="90" t="s">
+        <v>431</v>
+      </c>
+      <c r="R1" s="89" t="s">
         <v>392</v>
       </c>
-      <c r="S1" s="96" t="s">
-        <v>431</v>
-      </c>
-      <c r="T1" s="96" t="s">
-        <v>464</v>
-      </c>
-      <c r="U1" s="96" t="s">
-        <v>465</v>
+      <c r="S1" s="90" t="s">
+        <v>432</v>
+      </c>
+      <c r="T1" s="90" t="s">
+        <v>433</v>
+      </c>
+      <c r="U1" s="90" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="93" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="92" t="s">
-        <v>432</v>
-      </c>
-      <c r="C2" s="94" t="s">
+      <c r="B2" s="86" t="s">
+        <v>435</v>
+      </c>
+      <c r="C2" s="92" t="s">
         <v>280</v>
       </c>
-      <c r="D2" s="92" t="s">
-        <v>433</v>
-      </c>
-      <c r="E2" s="102" t="s">
-        <v>434</v>
-      </c>
-      <c r="F2" s="102" t="s">
-        <v>463</v>
-      </c>
-      <c r="G2" s="94" t="s">
-        <v>435</v>
-      </c>
-      <c r="H2" s="94" t="s">
+      <c r="D2" s="86" t="s">
         <v>436</v>
       </c>
-      <c r="I2" s="94" t="s">
+      <c r="E2" s="88" t="s">
+        <v>437</v>
+      </c>
+      <c r="F2" s="88" t="s">
+        <v>438</v>
+      </c>
+      <c r="G2" s="92" t="s">
+        <v>439</v>
+      </c>
+      <c r="H2" s="92" t="s">
+        <v>440</v>
+      </c>
+      <c r="I2" s="92" t="s">
         <v>224</v>
       </c>
       <c r="J2" s="93" t="s">
         <v>406</v>
       </c>
-      <c r="K2" s="103" t="s">
+      <c r="K2" s="94" t="s">
         <v>292</v>
       </c>
       <c r="L2" s="93" t="s">
         <v>120</v>
       </c>
       <c r="M2" s="93" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="N2" s="93" t="s">
         <v>216</v>
       </c>
-      <c r="O2" s="103" t="s">
-        <v>438</v>
-      </c>
-      <c r="P2" s="103" t="s">
+      <c r="O2" s="94" t="s">
+        <v>442</v>
+      </c>
+      <c r="P2" s="94" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q2" s="94" t="s">
+        <v>128</v>
+      </c>
+      <c r="R2" s="86" t="s">
+        <v>408</v>
+      </c>
+      <c r="S2" s="95" t="s">
+        <v>444</v>
+      </c>
+      <c r="T2" s="94" t="s">
+        <v>290</v>
+      </c>
+      <c r="U2" s="96">
+        <v>11615916.98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="85" t="s">
+        <v>414</v>
+      </c>
+      <c r="B3" s="93" t="s">
+        <v>445</v>
+      </c>
+      <c r="C3" s="92" t="s">
+        <v>280</v>
+      </c>
+      <c r="D3" s="97">
+        <v>60003607</v>
+      </c>
+      <c r="E3" s="85" t="s">
+        <v>446</v>
+      </c>
+      <c r="F3" s="88" t="s">
+        <v>450</v>
+      </c>
+      <c r="G3" s="92" t="s">
         <v>439</v>
       </c>
-      <c r="Q2" s="103" t="s">
-        <v>128</v>
-      </c>
-      <c r="R2" s="92" t="s">
-        <v>408</v>
-      </c>
-      <c r="S2" s="101" t="s">
+      <c r="H3" s="92" t="s">
         <v>440</v>
       </c>
-      <c r="T2" s="103" t="s">
-        <v>290</v>
-      </c>
-      <c r="U2" s="105">
-        <v>11615916.98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" s="87" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="95" t="s">
-        <v>414</v>
-      </c>
-      <c r="B3" s="100" t="s">
-        <v>441</v>
-      </c>
-      <c r="C3" s="94" t="s">
-        <v>280</v>
-      </c>
-      <c r="D3" s="90" t="s">
-        <v>442</v>
-      </c>
-      <c r="E3" s="88" t="s">
-        <v>443</v>
-      </c>
-      <c r="F3" s="88" t="s">
-        <v>444</v>
-      </c>
-      <c r="G3" s="94" t="s">
-        <v>435</v>
-      </c>
-      <c r="H3" s="94" t="s">
-        <v>436</v>
-      </c>
-      <c r="I3" s="94" t="s">
+      <c r="I3" s="92" t="s">
         <v>224</v>
       </c>
       <c r="J3" s="93" t="s">
-        <v>406</v>
-      </c>
-      <c r="K3" s="93"/>
+        <v>447</v>
+      </c>
+      <c r="K3" s="94" t="s">
+        <v>292</v>
+      </c>
       <c r="L3" s="93" t="s">
         <v>120</v>
       </c>
       <c r="M3" s="93" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="N3" s="93" t="s">
         <v>216</v>
       </c>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
+      <c r="O3" s="94" t="s">
+        <v>448</v>
+      </c>
+      <c r="P3" s="94" t="s">
+        <v>449</v>
+      </c>
       <c r="Q3" s="93" t="s">
         <v>128</v>
       </c>
-      <c r="R3" s="92" t="s">
+      <c r="R3" s="86" t="s">
         <v>408</v>
       </c>
-      <c r="S3" s="91"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="89"/>
+      <c r="S3" s="95" t="s">
+        <v>444</v>
+      </c>
+      <c r="T3" s="94" t="s">
+        <v>290</v>
+      </c>
+      <c r="U3" s="96">
+        <v>9218981.7300000004</v>
+      </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C5" s="86"/>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C5" s="84"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F8" s="104"/>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F8" s="101"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>